--- a/java/Mixed_Review.xlsx
+++ b/java/Mixed_Review.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\JP\Desktop\Home_folder\workspace\library\java\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EA54379B-95F1-4D00-94B9-8512963027DA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{15F66356-34E9-4150-BDB8-7675C62E52DA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="15">
   <si>
     <t>Question</t>
   </si>
@@ -66,6 +66,21 @@
   </si>
   <si>
     <t>Because there can be multiple values with the max frequency, we need to not only calculate the degree, but track the first and last occurrences of each number to find the shortest subarray. Store the key as an array [frequency, firstOccurrence, lastOccurence]. Optimally, you can perform 1 pass by updating res = min(res, i - first[nums[i]] + 1).</t>
+  </si>
+  <si>
+    <t>2420. Find All Good Indices</t>
+  </si>
+  <si>
+    <t>Medium</t>
+  </si>
+  <si>
+    <t>Dynamic Programming</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://leetcode.com/problems/find-all-good-indices/solutions/2620565/dp-c-java-python-intuition/ </t>
+  </si>
+  <si>
+    <t>Precompute the length of decreasing from the left, and precompute the length of increasing from the right in their own integer arrays, as the ranges may not be contiguous. Use DP approach, set the array values as [i-1] + 1 and [i+1] + 1 to get a cumulative count. Then collect the indices in the range [k, n-k-1] which have atleast k elements before and after using the precomputed arrays. Whenever precomputation i.e some parameter calculation is required till every index, then we should think of Dynamic Programming (Prefix / Suffix). The values at i in the precomputed arrays are the length of the range of values that are increasing/decreasing at that index.</t>
   </si>
 </sst>
 </file>
@@ -97,7 +112,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -107,6 +122,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FF00B050"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC000"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -124,11 +145,12 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -162,8 +184,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{8A5E5259-EAE7-4B70-A567-E3F2ADB589C1}" name="Table2" displayName="Table2" ref="A1:E2" totalsRowShown="0" headerRowDxfId="1">
-  <autoFilter ref="A1:E2" xr:uid="{8A5E5259-EAE7-4B70-A567-E3F2ADB589C1}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{8A5E5259-EAE7-4B70-A567-E3F2ADB589C1}" name="Table2" displayName="Table2" ref="A1:E3" totalsRowShown="0" headerRowDxfId="1">
+  <autoFilter ref="A1:E3" xr:uid="{8A5E5259-EAE7-4B70-A567-E3F2ADB589C1}"/>
   <tableColumns count="5">
     <tableColumn id="1" xr3:uid="{39CFF8EE-B425-4749-92A0-090E902A657C}" name="Question"/>
     <tableColumn id="2" xr3:uid="{818806AE-0CAD-47D4-9900-447AC000C09C}" name="Difficulty" dataDxfId="0"/>
@@ -438,10 +460,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E2"/>
+  <dimension ref="A1:E3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D12" sqref="D12"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="E9" sqref="E9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -487,14 +509,32 @@
         <v>8</v>
       </c>
     </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>10</v>
+      </c>
+      <c r="B3" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="C3" t="s">
+        <v>12</v>
+      </c>
+      <c r="D3" t="s">
+        <v>14</v>
+      </c>
+      <c r="E3" s="2" t="s">
+        <v>13</v>
+      </c>
+    </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="E2" r:id="rId1" xr:uid="{F3DBBA75-A168-49F6-8530-8088625F807B}"/>
+    <hyperlink ref="E3" r:id="rId2" xr:uid="{F80AACBA-DF9E-447E-8F9C-DEE9D95E28B0}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId2"/>
+  <pageSetup orientation="portrait" r:id="rId3"/>
   <tableParts count="1">
-    <tablePart r:id="rId3"/>
+    <tablePart r:id="rId4"/>
   </tableParts>
 </worksheet>
 </file>
--- a/java/Mixed_Review.xlsx
+++ b/java/Mixed_Review.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\JP\Desktop\Home_folder\workspace\library\java\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{15F66356-34E9-4150-BDB8-7675C62E52DA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BBAC67A9-7F7B-4A94-A3ED-09B90D6296BF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="19">
   <si>
     <t>Question</t>
   </si>
@@ -81,6 +81,18 @@
   </si>
   <si>
     <t>Precompute the length of decreasing from the left, and precompute the length of increasing from the right in their own integer arrays, as the ranges may not be contiguous. Use DP approach, set the array values as [i-1] + 1 and [i+1] + 1 to get a cumulative count. Then collect the indices in the range [k, n-k-1] which have atleast k elements before and after using the precomputed arrays. Whenever precomputation i.e some parameter calculation is required till every index, then we should think of Dynamic Programming (Prefix / Suffix). The values at i in the precomputed arrays are the length of the range of values that are increasing/decreasing at that index.</t>
+  </si>
+  <si>
+    <t>2958. Length of Longest Subarray With at Most K Frequency</t>
+  </si>
+  <si>
+    <t>Get the freqs in a hashmap and use a sliding window to reduce the left side of the window until window conditions are met, then update size of longest good subarray. One pass is optimal.</t>
+  </si>
+  <si>
+    <t>https://leetcode.com/problems/length-of-longest-subarray-with-at-most-k-frequency/solutions/4385138/neat-and-clean-solution-line-to-line-explained-c-java/</t>
+  </si>
+  <si>
+    <t>Sliding Window</t>
   </si>
 </sst>
 </file>
@@ -184,8 +196,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{8A5E5259-EAE7-4B70-A567-E3F2ADB589C1}" name="Table2" displayName="Table2" ref="A1:E3" totalsRowShown="0" headerRowDxfId="1">
-  <autoFilter ref="A1:E3" xr:uid="{8A5E5259-EAE7-4B70-A567-E3F2ADB589C1}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{8A5E5259-EAE7-4B70-A567-E3F2ADB589C1}" name="Table2" displayName="Table2" ref="A1:E4" totalsRowShown="0" headerRowDxfId="1">
+  <autoFilter ref="A1:E4" xr:uid="{8A5E5259-EAE7-4B70-A567-E3F2ADB589C1}"/>
   <tableColumns count="5">
     <tableColumn id="1" xr3:uid="{39CFF8EE-B425-4749-92A0-090E902A657C}" name="Question"/>
     <tableColumn id="2" xr3:uid="{818806AE-0CAD-47D4-9900-447AC000C09C}" name="Difficulty" dataDxfId="0"/>
@@ -460,10 +472,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E3"/>
+  <dimension ref="A1:E4"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="E9" sqref="E9"/>
+      <selection activeCell="D9" sqref="D9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -526,15 +538,33 @@
         <v>13</v>
       </c>
     </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>15</v>
+      </c>
+      <c r="B4" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="C4" t="s">
+        <v>18</v>
+      </c>
+      <c r="D4" t="s">
+        <v>16</v>
+      </c>
+      <c r="E4" s="2" t="s">
+        <v>17</v>
+      </c>
+    </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="E2" r:id="rId1" xr:uid="{F3DBBA75-A168-49F6-8530-8088625F807B}"/>
     <hyperlink ref="E3" r:id="rId2" xr:uid="{F80AACBA-DF9E-447E-8F9C-DEE9D95E28B0}"/>
+    <hyperlink ref="E4" r:id="rId3" xr:uid="{F0230D5C-2276-4694-948D-8AF432A533DE}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId3"/>
+  <pageSetup orientation="portrait" r:id="rId4"/>
   <tableParts count="1">
-    <tablePart r:id="rId4"/>
+    <tablePart r:id="rId5"/>
   </tableParts>
 </worksheet>
 </file>
--- a/java/Mixed_Review.xlsx
+++ b/java/Mixed_Review.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\JP\Desktop\Home_folder\workspace\library\java\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BBAC67A9-7F7B-4A94-A3ED-09B90D6296BF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FFE5493D-71A1-4543-A6AA-F9A0DF2A6229}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="22">
   <si>
     <t>Question</t>
   </si>
@@ -93,6 +93,15 @@
   </si>
   <si>
     <t>Sliding Window</t>
+  </si>
+  <si>
+    <t>799. Champagne Tower</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://leetcode.com/problems/champagne-tower/solutions/1817822/java-simple-explained/ </t>
+  </si>
+  <si>
+    <t>Pascal's Traingle variation. Each glass that is poured overflows to result in (n-1)/2, or leaves 1 at the upper glass, then distributes the overflow equally to its two children. Imagine all the glasses n have been poured into the top glass at once, then let it flow down. We use a dp array starting with the index 0 as the top glass, then take dp[i] as n, until we get to the query row. We return the minimum of the query glass and 1 (incase there is overflow still).</t>
   </si>
 </sst>
 </file>
@@ -196,8 +205,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{8A5E5259-EAE7-4B70-A567-E3F2ADB589C1}" name="Table2" displayName="Table2" ref="A1:E4" totalsRowShown="0" headerRowDxfId="1">
-  <autoFilter ref="A1:E4" xr:uid="{8A5E5259-EAE7-4B70-A567-E3F2ADB589C1}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{8A5E5259-EAE7-4B70-A567-E3F2ADB589C1}" name="Table2" displayName="Table2" ref="A1:E5" totalsRowShown="0" headerRowDxfId="1">
+  <autoFilter ref="A1:E5" xr:uid="{8A5E5259-EAE7-4B70-A567-E3F2ADB589C1}"/>
   <tableColumns count="5">
     <tableColumn id="1" xr3:uid="{39CFF8EE-B425-4749-92A0-090E902A657C}" name="Question"/>
     <tableColumn id="2" xr3:uid="{818806AE-0CAD-47D4-9900-447AC000C09C}" name="Difficulty" dataDxfId="0"/>
@@ -472,10 +481,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E4"/>
+  <dimension ref="A1:E5"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="D9" sqref="D9"/>
+      <selection activeCell="D6" sqref="D6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -555,16 +564,34 @@
         <v>17</v>
       </c>
     </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>19</v>
+      </c>
+      <c r="B5" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="C5" t="s">
+        <v>12</v>
+      </c>
+      <c r="D5" t="s">
+        <v>21</v>
+      </c>
+      <c r="E5" s="2" t="s">
+        <v>20</v>
+      </c>
+    </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="E2" r:id="rId1" xr:uid="{F3DBBA75-A168-49F6-8530-8088625F807B}"/>
     <hyperlink ref="E3" r:id="rId2" xr:uid="{F80AACBA-DF9E-447E-8F9C-DEE9D95E28B0}"/>
     <hyperlink ref="E4" r:id="rId3" xr:uid="{F0230D5C-2276-4694-948D-8AF432A533DE}"/>
+    <hyperlink ref="E5" r:id="rId4" xr:uid="{B43A34E9-FA21-40AD-B05B-62F608C3B2A4}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId4"/>
+  <pageSetup orientation="portrait" r:id="rId5"/>
   <tableParts count="1">
-    <tablePart r:id="rId5"/>
+    <tablePart r:id="rId6"/>
   </tableParts>
 </worksheet>
 </file>
--- a/java/Mixed_Review.xlsx
+++ b/java/Mixed_Review.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\JP\Desktop\Home_folder\workspace\library\java\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FFE5493D-71A1-4543-A6AA-F9A0DF2A6229}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6EC3421C-B24C-4E55-9E6B-632EEB5F32BA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="26">
   <si>
     <t>Question</t>
   </si>
@@ -102,6 +102,18 @@
   </si>
   <si>
     <t>Pascal's Traingle variation. Each glass that is poured overflows to result in (n-1)/2, or leaves 1 at the upper glass, then distributes the overflow equally to its two children. Imagine all the glasses n have been poured into the top glass at once, then let it flow down. We use a dp array starting with the index 0 as the top glass, then take dp[i] as n, until we get to the query row. We return the minimum of the query glass and 1 (incase there is overflow still).</t>
+  </si>
+  <si>
+    <t>1927. Sum Game</t>
+  </si>
+  <si>
+    <t>Greedy</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://leetcode.com/problems/sum-game/solutions/1329069/java-greedy-o-n-solution-with-detailed-explaination-covering-every-case/ </t>
+  </si>
+  <si>
+    <t>Greedy solution by scanning and finding diff between left part and right part, then num of ? Of left part and right part. The optimal is a math solution.</t>
   </si>
 </sst>
 </file>
@@ -205,8 +217,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{8A5E5259-EAE7-4B70-A567-E3F2ADB589C1}" name="Table2" displayName="Table2" ref="A1:E5" totalsRowShown="0" headerRowDxfId="1">
-  <autoFilter ref="A1:E5" xr:uid="{8A5E5259-EAE7-4B70-A567-E3F2ADB589C1}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{8A5E5259-EAE7-4B70-A567-E3F2ADB589C1}" name="Table2" displayName="Table2" ref="A1:E6" totalsRowShown="0" headerRowDxfId="1">
+  <autoFilter ref="A1:E6" xr:uid="{8A5E5259-EAE7-4B70-A567-E3F2ADB589C1}"/>
   <tableColumns count="5">
     <tableColumn id="1" xr3:uid="{39CFF8EE-B425-4749-92A0-090E902A657C}" name="Question"/>
     <tableColumn id="2" xr3:uid="{818806AE-0CAD-47D4-9900-447AC000C09C}" name="Difficulty" dataDxfId="0"/>
@@ -481,10 +493,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E5"/>
+  <dimension ref="A1:E6"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="D6" sqref="D6"/>
+      <selection activeCell="D7" sqref="D7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -581,17 +593,35 @@
         <v>20</v>
       </c>
     </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>22</v>
+      </c>
+      <c r="B6" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="C6" t="s">
+        <v>23</v>
+      </c>
+      <c r="D6" t="s">
+        <v>25</v>
+      </c>
+      <c r="E6" s="2" t="s">
+        <v>24</v>
+      </c>
+    </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="E2" r:id="rId1" xr:uid="{F3DBBA75-A168-49F6-8530-8088625F807B}"/>
     <hyperlink ref="E3" r:id="rId2" xr:uid="{F80AACBA-DF9E-447E-8F9C-DEE9D95E28B0}"/>
     <hyperlink ref="E4" r:id="rId3" xr:uid="{F0230D5C-2276-4694-948D-8AF432A533DE}"/>
     <hyperlink ref="E5" r:id="rId4" xr:uid="{B43A34E9-FA21-40AD-B05B-62F608C3B2A4}"/>
+    <hyperlink ref="E6" r:id="rId5" xr:uid="{7948D684-8102-47A0-932D-75B49F35EA8F}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId5"/>
+  <pageSetup orientation="portrait" r:id="rId6"/>
   <tableParts count="1">
-    <tablePart r:id="rId6"/>
+    <tablePart r:id="rId7"/>
   </tableParts>
 </worksheet>
 </file>
--- a/java/Mixed_Review.xlsx
+++ b/java/Mixed_Review.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\JP\Desktop\Home_folder\workspace\library\java\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6EC3421C-B24C-4E55-9E6B-632EEB5F32BA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B2512CB2-886E-4E85-8250-DA648EC4F85D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="30">
   <si>
     <t>Question</t>
   </si>
@@ -114,6 +114,18 @@
   </si>
   <si>
     <t>Greedy solution by scanning and finding diff between left part and right part, then num of ? Of left part and right part. The optimal is a math solution.</t>
+  </si>
+  <si>
+    <t>1530. Number of Good Leaf Nodes Pairs</t>
+  </si>
+  <si>
+    <t>Trees</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://leetcode.com/problems/number-of-good-leaf-nodes-pairs/solutions/756198/java-dfs-solution-with-a-twist-100-faster-explained/ </t>
+  </si>
+  <si>
+    <t>Do normal post order tree traversal, keep track of num of leaf nodes with a particular distance. We maintain an array of size = max distance. Recursively calculateleft and right subtree of eery root node. Then once we have left and right arrays for a particular root, calculate the total number of good node pairs, then return the distance fo parents by adding up left and right subtrees of current node.</t>
   </si>
 </sst>
 </file>
@@ -217,8 +229,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{8A5E5259-EAE7-4B70-A567-E3F2ADB589C1}" name="Table2" displayName="Table2" ref="A1:E6" totalsRowShown="0" headerRowDxfId="1">
-  <autoFilter ref="A1:E6" xr:uid="{8A5E5259-EAE7-4B70-A567-E3F2ADB589C1}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{8A5E5259-EAE7-4B70-A567-E3F2ADB589C1}" name="Table2" displayName="Table2" ref="A1:E7" totalsRowShown="0" headerRowDxfId="1">
+  <autoFilter ref="A1:E7" xr:uid="{8A5E5259-EAE7-4B70-A567-E3F2ADB589C1}"/>
   <tableColumns count="5">
     <tableColumn id="1" xr3:uid="{39CFF8EE-B425-4749-92A0-090E902A657C}" name="Question"/>
     <tableColumn id="2" xr3:uid="{818806AE-0CAD-47D4-9900-447AC000C09C}" name="Difficulty" dataDxfId="0"/>
@@ -493,10 +505,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E6"/>
+  <dimension ref="A1:E7"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="D7" sqref="D7"/>
+      <selection activeCell="E25" sqref="E25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -610,6 +622,23 @@
         <v>24</v>
       </c>
     </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>26</v>
+      </c>
+      <c r="B7" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="C7" t="s">
+        <v>27</v>
+      </c>
+      <c r="D7" t="s">
+        <v>29</v>
+      </c>
+      <c r="E7" s="2" t="s">
+        <v>28</v>
+      </c>
+    </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="E2" r:id="rId1" xr:uid="{F3DBBA75-A168-49F6-8530-8088625F807B}"/>
@@ -617,11 +646,12 @@
     <hyperlink ref="E4" r:id="rId3" xr:uid="{F0230D5C-2276-4694-948D-8AF432A533DE}"/>
     <hyperlink ref="E5" r:id="rId4" xr:uid="{B43A34E9-FA21-40AD-B05B-62F608C3B2A4}"/>
     <hyperlink ref="E6" r:id="rId5" xr:uid="{7948D684-8102-47A0-932D-75B49F35EA8F}"/>
+    <hyperlink ref="E7" r:id="rId6" xr:uid="{516AC7A1-1357-4C11-AD3B-D2FC5F7067C1}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId6"/>
+  <pageSetup orientation="portrait" r:id="rId7"/>
   <tableParts count="1">
-    <tablePart r:id="rId7"/>
+    <tablePart r:id="rId8"/>
   </tableParts>
 </worksheet>
 </file>
--- a/java/Mixed_Review.xlsx
+++ b/java/Mixed_Review.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\JP\Desktop\Home_folder\workspace\library\java\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B2512CB2-886E-4E85-8250-DA648EC4F85D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C830ECB6-4824-4D8B-ADEB-7916201A6D67}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="33">
   <si>
     <t>Question</t>
   </si>
@@ -126,6 +126,15 @@
   </si>
   <si>
     <t>Do normal post order tree traversal, keep track of num of leaf nodes with a particular distance. We maintain an array of size = max distance. Recursively calculateleft and right subtree of eery root node. Then once we have left and right arrays for a particular root, calculate the total number of good node pairs, then return the distance fo parents by adding up left and right subtrees of current node.</t>
+  </si>
+  <si>
+    <t>583. Delete Operations for Two Strings</t>
+  </si>
+  <si>
+    <t>https://leetcode.com/problems/delete-operation-for-two-strings/solutions/1195726/c-python-java-short-easy-solutions-w-explanation-optimization-from-brute-force-to-dp/</t>
+  </si>
+  <si>
+    <t>We need to use 2D DP for memoization atleast for acceptance. Note the base cases: 1. chars match, 2. chars don't match, either delete w1 or w2, 3. reach end of both words, 4. reach end of 1 word, delete the rest of chars of the other words. This is done with recursion.</t>
   </si>
 </sst>
 </file>
@@ -229,8 +238,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{8A5E5259-EAE7-4B70-A567-E3F2ADB589C1}" name="Table2" displayName="Table2" ref="A1:E7" totalsRowShown="0" headerRowDxfId="1">
-  <autoFilter ref="A1:E7" xr:uid="{8A5E5259-EAE7-4B70-A567-E3F2ADB589C1}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{8A5E5259-EAE7-4B70-A567-E3F2ADB589C1}" name="Table2" displayName="Table2" ref="A1:E8" totalsRowShown="0" headerRowDxfId="1">
+  <autoFilter ref="A1:E8" xr:uid="{8A5E5259-EAE7-4B70-A567-E3F2ADB589C1}"/>
   <tableColumns count="5">
     <tableColumn id="1" xr3:uid="{39CFF8EE-B425-4749-92A0-090E902A657C}" name="Question"/>
     <tableColumn id="2" xr3:uid="{818806AE-0CAD-47D4-9900-447AC000C09C}" name="Difficulty" dataDxfId="0"/>
@@ -505,10 +514,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E7"/>
+  <dimension ref="A1:E8"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="E25" sqref="E25"/>
+      <selection activeCell="D9" sqref="D9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -639,6 +648,23 @@
         <v>28</v>
       </c>
     </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>30</v>
+      </c>
+      <c r="B8" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="C8" t="s">
+        <v>12</v>
+      </c>
+      <c r="D8" t="s">
+        <v>32</v>
+      </c>
+      <c r="E8" s="2" t="s">
+        <v>31</v>
+      </c>
+    </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="E2" r:id="rId1" xr:uid="{F3DBBA75-A168-49F6-8530-8088625F807B}"/>
@@ -647,11 +673,12 @@
     <hyperlink ref="E5" r:id="rId4" xr:uid="{B43A34E9-FA21-40AD-B05B-62F608C3B2A4}"/>
     <hyperlink ref="E6" r:id="rId5" xr:uid="{7948D684-8102-47A0-932D-75B49F35EA8F}"/>
     <hyperlink ref="E7" r:id="rId6" xr:uid="{516AC7A1-1357-4C11-AD3B-D2FC5F7067C1}"/>
+    <hyperlink ref="E8" r:id="rId7" xr:uid="{D4E655A3-3EAE-43F3-B4E8-E04076C5C28B}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId7"/>
+  <pageSetup orientation="portrait" r:id="rId8"/>
   <tableParts count="1">
-    <tablePart r:id="rId8"/>
+    <tablePart r:id="rId9"/>
   </tableParts>
 </worksheet>
 </file>
--- a/java/Mixed_Review.xlsx
+++ b/java/Mixed_Review.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\JP\Desktop\Home_folder\workspace\library\java\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C830ECB6-4824-4D8B-ADEB-7916201A6D67}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4F50274B-025F-4E1D-883F-F5C89666F9C0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="36">
   <si>
     <t>Question</t>
   </si>
@@ -135,6 +135,15 @@
   </si>
   <si>
     <t>We need to use 2D DP for memoization atleast for acceptance. Note the base cases: 1. chars match, 2. chars don't match, either delete w1 or w2, 3. reach end of both words, 4. reach end of 1 word, delete the rest of chars of the other words. This is done with recursion.</t>
+  </si>
+  <si>
+    <t>1031. Maximum Sum of Two Nono-Overlapping Subarray</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://leetcode.com/problems/maximum-sum-of-two-non-overlapping-subarrays/solutions/279221/java-python-3-two-easy-dp-codes-w-comment-time-o-n-no-change-of-input/ </t>
+  </si>
+  <si>
+    <t>Prefix Sum or Sliding Window. 1. Scan the prefix sum array from L+M, 2. Update max value of L-len subarray, then update max val of sum of both, 3. swap L and M to scan twice, 4. In private method, prefix sum diff p[i - M] - p[i - M - L] is L-length subarray from index i - M - L to i - M - 1, and p[i] - p[i - M] is M-length subarray from index i - M to i - 1. The upper bound of L-length left subarray is i-M inclusive, and lower bound of M-length right is also i-M excluse. The two subarrays will never overlap. Check the 2 cases where L is ahead of M and vice versa. We only use maxL and sumM to calculate res to prevent overlap.</t>
   </si>
 </sst>
 </file>
@@ -238,8 +247,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{8A5E5259-EAE7-4B70-A567-E3F2ADB589C1}" name="Table2" displayName="Table2" ref="A1:E8" totalsRowShown="0" headerRowDxfId="1">
-  <autoFilter ref="A1:E8" xr:uid="{8A5E5259-EAE7-4B70-A567-E3F2ADB589C1}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{8A5E5259-EAE7-4B70-A567-E3F2ADB589C1}" name="Table2" displayName="Table2" ref="A1:E9" totalsRowShown="0" headerRowDxfId="1">
+  <autoFilter ref="A1:E9" xr:uid="{8A5E5259-EAE7-4B70-A567-E3F2ADB589C1}"/>
   <tableColumns count="5">
     <tableColumn id="1" xr3:uid="{39CFF8EE-B425-4749-92A0-090E902A657C}" name="Question"/>
     <tableColumn id="2" xr3:uid="{818806AE-0CAD-47D4-9900-447AC000C09C}" name="Difficulty" dataDxfId="0"/>
@@ -514,10 +523,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E8"/>
+  <dimension ref="A1:E9"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="D9" sqref="D9"/>
+      <selection activeCell="E18" sqref="E18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -665,6 +674,23 @@
         <v>31</v>
       </c>
     </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>33</v>
+      </c>
+      <c r="B9" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="C9" t="s">
+        <v>12</v>
+      </c>
+      <c r="D9" t="s">
+        <v>35</v>
+      </c>
+      <c r="E9" s="2" t="s">
+        <v>34</v>
+      </c>
+    </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="E2" r:id="rId1" xr:uid="{F3DBBA75-A168-49F6-8530-8088625F807B}"/>
@@ -674,11 +700,12 @@
     <hyperlink ref="E6" r:id="rId5" xr:uid="{7948D684-8102-47A0-932D-75B49F35EA8F}"/>
     <hyperlink ref="E7" r:id="rId6" xr:uid="{516AC7A1-1357-4C11-AD3B-D2FC5F7067C1}"/>
     <hyperlink ref="E8" r:id="rId7" xr:uid="{D4E655A3-3EAE-43F3-B4E8-E04076C5C28B}"/>
+    <hyperlink ref="E9" r:id="rId8" xr:uid="{E6EA5881-EF05-46F8-B2E7-940FA552EE92}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId8"/>
+  <pageSetup orientation="portrait" r:id="rId9"/>
   <tableParts count="1">
-    <tablePart r:id="rId9"/>
+    <tablePart r:id="rId10"/>
   </tableParts>
 </worksheet>
 </file>
--- a/java/Mixed_Review.xlsx
+++ b/java/Mixed_Review.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\JP\Desktop\Home_folder\workspace\library\java\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4F50274B-025F-4E1D-883F-F5C89666F9C0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{85A38AEB-47A2-431D-91A1-ED088E492253}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="40">
   <si>
     <t>Question</t>
   </si>
@@ -144,6 +144,18 @@
   </si>
   <si>
     <t>Prefix Sum or Sliding Window. 1. Scan the prefix sum array from L+M, 2. Update max value of L-len subarray, then update max val of sum of both, 3. swap L and M to scan twice, 4. In private method, prefix sum diff p[i - M] - p[i - M - L] is L-length subarray from index i - M - L to i - M - 1, and p[i] - p[i - M] is M-length subarray from index i - M to i - 1. The upper bound of L-length left subarray is i-M inclusive, and lower bound of M-length right is also i-M excluse. The two subarrays will never overlap. Check the 2 cases where L is ahead of M and vice versa. We only use maxL and sumM to calculate res to prevent overlap.</t>
+  </si>
+  <si>
+    <t>698. Partition to K Equal Sum Subsets</t>
+  </si>
+  <si>
+    <t>Backtracking</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://leetcode.com/problems/partition-to-k-equal-sum-subsets/solutions/1772704/java-solution-with-comments-100-faster-1ms/ </t>
+  </si>
+  <si>
+    <t>We need to find sum/k and we have to find this in nums k times, then it is valid. We can use DFS/Backtracking to fill buckets.</t>
   </si>
 </sst>
 </file>
@@ -247,8 +259,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{8A5E5259-EAE7-4B70-A567-E3F2ADB589C1}" name="Table2" displayName="Table2" ref="A1:E9" totalsRowShown="0" headerRowDxfId="1">
-  <autoFilter ref="A1:E9" xr:uid="{8A5E5259-EAE7-4B70-A567-E3F2ADB589C1}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{8A5E5259-EAE7-4B70-A567-E3F2ADB589C1}" name="Table2" displayName="Table2" ref="A1:E10" totalsRowShown="0" headerRowDxfId="1">
+  <autoFilter ref="A1:E10" xr:uid="{8A5E5259-EAE7-4B70-A567-E3F2ADB589C1}"/>
   <tableColumns count="5">
     <tableColumn id="1" xr3:uid="{39CFF8EE-B425-4749-92A0-090E902A657C}" name="Question"/>
     <tableColumn id="2" xr3:uid="{818806AE-0CAD-47D4-9900-447AC000C09C}" name="Difficulty" dataDxfId="0"/>
@@ -523,10 +535,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E9"/>
+  <dimension ref="A1:E10"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="E18" sqref="E18"/>
+      <selection activeCell="D19" sqref="D19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -691,6 +703,23 @@
         <v>34</v>
       </c>
     </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>36</v>
+      </c>
+      <c r="B10" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="C10" t="s">
+        <v>37</v>
+      </c>
+      <c r="D10" t="s">
+        <v>39</v>
+      </c>
+      <c r="E10" s="2" t="s">
+        <v>38</v>
+      </c>
+    </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="E2" r:id="rId1" xr:uid="{F3DBBA75-A168-49F6-8530-8088625F807B}"/>
@@ -701,11 +730,12 @@
     <hyperlink ref="E7" r:id="rId6" xr:uid="{516AC7A1-1357-4C11-AD3B-D2FC5F7067C1}"/>
     <hyperlink ref="E8" r:id="rId7" xr:uid="{D4E655A3-3EAE-43F3-B4E8-E04076C5C28B}"/>
     <hyperlink ref="E9" r:id="rId8" xr:uid="{E6EA5881-EF05-46F8-B2E7-940FA552EE92}"/>
+    <hyperlink ref="E10" r:id="rId9" xr:uid="{BB3BF7C4-AAFE-4F03-BBF4-BE5239EA9E6E}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId9"/>
+  <pageSetup orientation="portrait" r:id="rId10"/>
   <tableParts count="1">
-    <tablePart r:id="rId10"/>
+    <tablePart r:id="rId11"/>
   </tableParts>
 </worksheet>
 </file>
--- a/java/Mixed_Review.xlsx
+++ b/java/Mixed_Review.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\JP\Desktop\Home_folder\workspace\library\java\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{85A38AEB-47A2-431D-91A1-ED088E492253}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1D1805F5-D5F3-4ECB-BEA7-2AF87222794F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="40">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55" uniqueCount="43">
   <si>
     <t>Question</t>
   </si>
@@ -156,6 +156,15 @@
   </si>
   <si>
     <t>We need to find sum/k and we have to find this in nums k times, then it is valid. We can use DFS/Backtracking to fill buckets.</t>
+  </si>
+  <si>
+    <t>666. Path Sum IV</t>
+  </si>
+  <si>
+    <t>With a normal tree, we would traverse it and keep a root to leaf running sum and add the running sum to the final result when we encounter a leaf node. In this problem, we form the tree with a HashMap with K: first 2 digits xy, V: val of node. We can traverse with the formula: left child: (x+1)(y*2-1) and right child: (x+1)(y*2).</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://leetcode.com/problems/path-sum-iv/solutions/106892/java-solution-represent-tree-using-hashmap/ </t>
   </si>
 </sst>
 </file>
@@ -259,8 +268,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{8A5E5259-EAE7-4B70-A567-E3F2ADB589C1}" name="Table2" displayName="Table2" ref="A1:E10" totalsRowShown="0" headerRowDxfId="1">
-  <autoFilter ref="A1:E10" xr:uid="{8A5E5259-EAE7-4B70-A567-E3F2ADB589C1}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{8A5E5259-EAE7-4B70-A567-E3F2ADB589C1}" name="Table2" displayName="Table2" ref="A1:E11" totalsRowShown="0" headerRowDxfId="1">
+  <autoFilter ref="A1:E11" xr:uid="{8A5E5259-EAE7-4B70-A567-E3F2ADB589C1}"/>
   <tableColumns count="5">
     <tableColumn id="1" xr3:uid="{39CFF8EE-B425-4749-92A0-090E902A657C}" name="Question"/>
     <tableColumn id="2" xr3:uid="{818806AE-0CAD-47D4-9900-447AC000C09C}" name="Difficulty" dataDxfId="0"/>
@@ -535,10 +544,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E10"/>
+  <dimension ref="A1:E11"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="D19" sqref="D19"/>
+      <selection activeCell="E27" sqref="E27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -720,6 +729,23 @@
         <v>38</v>
       </c>
     </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>40</v>
+      </c>
+      <c r="B11" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="C11" t="s">
+        <v>27</v>
+      </c>
+      <c r="D11" t="s">
+        <v>41</v>
+      </c>
+      <c r="E11" s="2" t="s">
+        <v>42</v>
+      </c>
+    </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="E2" r:id="rId1" xr:uid="{F3DBBA75-A168-49F6-8530-8088625F807B}"/>
@@ -731,11 +757,12 @@
     <hyperlink ref="E8" r:id="rId7" xr:uid="{D4E655A3-3EAE-43F3-B4E8-E04076C5C28B}"/>
     <hyperlink ref="E9" r:id="rId8" xr:uid="{E6EA5881-EF05-46F8-B2E7-940FA552EE92}"/>
     <hyperlink ref="E10" r:id="rId9" xr:uid="{BB3BF7C4-AAFE-4F03-BBF4-BE5239EA9E6E}"/>
+    <hyperlink ref="E11" r:id="rId10" xr:uid="{9D7927D5-57D2-4892-BE1A-38AB6894C7EB}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId10"/>
+  <pageSetup orientation="portrait" r:id="rId11"/>
   <tableParts count="1">
-    <tablePart r:id="rId11"/>
+    <tablePart r:id="rId12"/>
   </tableParts>
 </worksheet>
 </file>
--- a/java/Mixed_Review.xlsx
+++ b/java/Mixed_Review.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\JP\Desktop\Home_folder\workspace\library\java\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1D1805F5-D5F3-4ECB-BEA7-2AF87222794F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6F7327DC-368B-4FD4-970C-2A56C3FB8666}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55" uniqueCount="43">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="48">
   <si>
     <t>Question</t>
   </si>
@@ -165,6 +165,21 @@
   </si>
   <si>
     <t xml:space="preserve">https://leetcode.com/problems/path-sum-iv/solutions/106892/java-solution-represent-tree-using-hashmap/ </t>
+  </si>
+  <si>
+    <t>1293. Shortest Path in a Grid with Obstacles Elimination</t>
+  </si>
+  <si>
+    <t>Hard</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://leetcode.com/problems/shortest-path-in-a-grid-with-obstacles-elimination/ </t>
+  </si>
+  <si>
+    <t>We use a variation of BFS, where visited matrix records the min num of obstacles removed to get to that entry. Dijkstra's is more straightforward.</t>
+  </si>
+  <si>
+    <t>BFS</t>
   </si>
 </sst>
 </file>
@@ -196,7 +211,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -215,6 +230,12 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFF0000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="1">
     <border>
@@ -229,12 +250,13 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -268,8 +290,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{8A5E5259-EAE7-4B70-A567-E3F2ADB589C1}" name="Table2" displayName="Table2" ref="A1:E11" totalsRowShown="0" headerRowDxfId="1">
-  <autoFilter ref="A1:E11" xr:uid="{8A5E5259-EAE7-4B70-A567-E3F2ADB589C1}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{8A5E5259-EAE7-4B70-A567-E3F2ADB589C1}" name="Table2" displayName="Table2" ref="A1:E12" totalsRowShown="0" headerRowDxfId="1">
+  <autoFilter ref="A1:E12" xr:uid="{8A5E5259-EAE7-4B70-A567-E3F2ADB589C1}"/>
   <tableColumns count="5">
     <tableColumn id="1" xr3:uid="{39CFF8EE-B425-4749-92A0-090E902A657C}" name="Question"/>
     <tableColumn id="2" xr3:uid="{818806AE-0CAD-47D4-9900-447AC000C09C}" name="Difficulty" dataDxfId="0"/>
@@ -544,10 +566,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E11"/>
+  <dimension ref="A1:E12"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="E27" sqref="E27"/>
+      <selection activeCell="D19" sqref="D19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -746,6 +768,23 @@
         <v>42</v>
       </c>
     </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>43</v>
+      </c>
+      <c r="B12" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="C12" t="s">
+        <v>47</v>
+      </c>
+      <c r="D12" t="s">
+        <v>46</v>
+      </c>
+      <c r="E12" s="2" t="s">
+        <v>45</v>
+      </c>
+    </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="E2" r:id="rId1" xr:uid="{F3DBBA75-A168-49F6-8530-8088625F807B}"/>
@@ -758,11 +797,12 @@
     <hyperlink ref="E9" r:id="rId8" xr:uid="{E6EA5881-EF05-46F8-B2E7-940FA552EE92}"/>
     <hyperlink ref="E10" r:id="rId9" xr:uid="{BB3BF7C4-AAFE-4F03-BBF4-BE5239EA9E6E}"/>
     <hyperlink ref="E11" r:id="rId10" xr:uid="{9D7927D5-57D2-4892-BE1A-38AB6894C7EB}"/>
+    <hyperlink ref="E12" r:id="rId11" xr:uid="{ECFAD73C-01A6-471F-AADB-B88498A2F1BA}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId11"/>
+  <pageSetup orientation="portrait" r:id="rId12"/>
   <tableParts count="1">
-    <tablePart r:id="rId12"/>
+    <tablePart r:id="rId13"/>
   </tableParts>
 </worksheet>
 </file>
--- a/java/Mixed_Review.xlsx
+++ b/java/Mixed_Review.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\JP\Desktop\Home_folder\workspace\library\java\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6F7327DC-368B-4FD4-970C-2A56C3FB8666}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{024C435E-327F-4AAD-BD85-023E21501597}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="48">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="65" uniqueCount="52">
   <si>
     <t>Question</t>
   </si>
@@ -180,6 +180,18 @@
   </si>
   <si>
     <t>BFS</t>
+  </si>
+  <si>
+    <t>465. Optimal Account Balancing</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://leetcode.com/problems/optimal-account-balancing/solutions/130895/recursion-logical-thinking/ </t>
+  </si>
+  <si>
+    <t>Recursion</t>
+  </si>
+  <si>
+    <t>We need debt to equal 0. We can look at each id to find who can balance the current id's account. Represent with a state machine, where state(debt[], curId) = 1 + min(state (debt[] after balance curId, curId + 1)).</t>
   </si>
 </sst>
 </file>
@@ -290,8 +302,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{8A5E5259-EAE7-4B70-A567-E3F2ADB589C1}" name="Table2" displayName="Table2" ref="A1:E12" totalsRowShown="0" headerRowDxfId="1">
-  <autoFilter ref="A1:E12" xr:uid="{8A5E5259-EAE7-4B70-A567-E3F2ADB589C1}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{8A5E5259-EAE7-4B70-A567-E3F2ADB589C1}" name="Table2" displayName="Table2" ref="A1:E13" totalsRowShown="0" headerRowDxfId="1">
+  <autoFilter ref="A1:E13" xr:uid="{8A5E5259-EAE7-4B70-A567-E3F2ADB589C1}"/>
   <tableColumns count="5">
     <tableColumn id="1" xr3:uid="{39CFF8EE-B425-4749-92A0-090E902A657C}" name="Question"/>
     <tableColumn id="2" xr3:uid="{818806AE-0CAD-47D4-9900-447AC000C09C}" name="Difficulty" dataDxfId="0"/>
@@ -566,10 +578,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E12"/>
+  <dimension ref="A1:E13"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="D19" sqref="D19"/>
+      <selection activeCell="E22" sqref="E22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -785,6 +797,23 @@
         <v>45</v>
       </c>
     </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>48</v>
+      </c>
+      <c r="B13" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="C13" t="s">
+        <v>50</v>
+      </c>
+      <c r="D13" t="s">
+        <v>51</v>
+      </c>
+      <c r="E13" s="2" t="s">
+        <v>49</v>
+      </c>
+    </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="E2" r:id="rId1" xr:uid="{F3DBBA75-A168-49F6-8530-8088625F807B}"/>
@@ -798,11 +827,12 @@
     <hyperlink ref="E10" r:id="rId9" xr:uid="{BB3BF7C4-AAFE-4F03-BBF4-BE5239EA9E6E}"/>
     <hyperlink ref="E11" r:id="rId10" xr:uid="{9D7927D5-57D2-4892-BE1A-38AB6894C7EB}"/>
     <hyperlink ref="E12" r:id="rId11" xr:uid="{ECFAD73C-01A6-471F-AADB-B88498A2F1BA}"/>
+    <hyperlink ref="E13" r:id="rId12" xr:uid="{8A6E5CD3-FC54-458F-BF18-9FA3E439401D}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId12"/>
+  <pageSetup orientation="portrait" r:id="rId13"/>
   <tableParts count="1">
-    <tablePart r:id="rId13"/>
+    <tablePart r:id="rId14"/>
   </tableParts>
 </worksheet>
 </file>
--- a/java/Mixed_Review.xlsx
+++ b/java/Mixed_Review.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\JP\Desktop\Home_folder\workspace\library\java\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{024C435E-327F-4AAD-BD85-023E21501597}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DEA44B9B-E1E6-4610-BEBC-51594AF35E8F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="65" uniqueCount="52">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="70" uniqueCount="56">
   <si>
     <t>Question</t>
   </si>
@@ -192,6 +192,18 @@
   </si>
   <si>
     <t>We need debt to equal 0. We can look at each id to find who can balance the current id's account. Represent with a state machine, where state(debt[], curId) = 1 + min(state (debt[] after balance curId, curId + 1)).</t>
+  </si>
+  <si>
+    <t>772. Basic Calculator 3</t>
+  </si>
+  <si>
+    <t>Stacks</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://leetcode.com/problems/basic-calculator-iii/solutions/113600/java-and-python-o-n-solution-using-two-stacks/ </t>
+  </si>
+  <si>
+    <t>Solution using 2 Stacks. The crus is to use a boolean precedence function for operation order.</t>
   </si>
 </sst>
 </file>
@@ -302,8 +314,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{8A5E5259-EAE7-4B70-A567-E3F2ADB589C1}" name="Table2" displayName="Table2" ref="A1:E13" totalsRowShown="0" headerRowDxfId="1">
-  <autoFilter ref="A1:E13" xr:uid="{8A5E5259-EAE7-4B70-A567-E3F2ADB589C1}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{8A5E5259-EAE7-4B70-A567-E3F2ADB589C1}" name="Table2" displayName="Table2" ref="A1:E14" totalsRowShown="0" headerRowDxfId="1">
+  <autoFilter ref="A1:E14" xr:uid="{8A5E5259-EAE7-4B70-A567-E3F2ADB589C1}"/>
   <tableColumns count="5">
     <tableColumn id="1" xr3:uid="{39CFF8EE-B425-4749-92A0-090E902A657C}" name="Question"/>
     <tableColumn id="2" xr3:uid="{818806AE-0CAD-47D4-9900-447AC000C09C}" name="Difficulty" dataDxfId="0"/>
@@ -578,10 +590,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E13"/>
+  <dimension ref="A1:E14"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="E22" sqref="E22"/>
+      <selection activeCell="D15" sqref="D15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -814,6 +826,23 @@
         <v>49</v>
       </c>
     </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>52</v>
+      </c>
+      <c r="B14" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="C14" t="s">
+        <v>53</v>
+      </c>
+      <c r="D14" t="s">
+        <v>55</v>
+      </c>
+      <c r="E14" s="2" t="s">
+        <v>54</v>
+      </c>
+    </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="E2" r:id="rId1" xr:uid="{F3DBBA75-A168-49F6-8530-8088625F807B}"/>
@@ -828,11 +857,12 @@
     <hyperlink ref="E11" r:id="rId10" xr:uid="{9D7927D5-57D2-4892-BE1A-38AB6894C7EB}"/>
     <hyperlink ref="E12" r:id="rId11" xr:uid="{ECFAD73C-01A6-471F-AADB-B88498A2F1BA}"/>
     <hyperlink ref="E13" r:id="rId12" xr:uid="{8A6E5CD3-FC54-458F-BF18-9FA3E439401D}"/>
+    <hyperlink ref="E14" r:id="rId13" xr:uid="{C000C4B8-FB1D-41F8-A869-F7C307B6EA77}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId13"/>
+  <pageSetup orientation="portrait" r:id="rId14"/>
   <tableParts count="1">
-    <tablePart r:id="rId14"/>
+    <tablePart r:id="rId15"/>
   </tableParts>
 </worksheet>
 </file>
--- a/java/Mixed_Review.xlsx
+++ b/java/Mixed_Review.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\JP\Desktop\Home_folder\workspace\library\java\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DEA44B9B-E1E6-4610-BEBC-51594AF35E8F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BCB52916-2597-41A6-91A0-915F76137F2E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="70" uniqueCount="56">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="75" uniqueCount="59">
   <si>
     <t>Question</t>
   </si>
@@ -203,7 +203,16 @@
     <t xml:space="preserve">https://leetcode.com/problems/basic-calculator-iii/solutions/113600/java-and-python-o-n-solution-using-two-stacks/ </t>
   </si>
   <si>
-    <t>Solution using 2 Stacks. The crus is to use a boolean precedence function for operation order.</t>
+    <t>Solution using 2 Stacks. The crux is to use a boolean precedence function for operation order.</t>
+  </si>
+  <si>
+    <t>815. Bus Routes</t>
+  </si>
+  <si>
+    <t>We first use a map to find all bus routes that go through the stop, then we use BFS with a visited set.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://leetcode.com/problems/bus-routes/solutions/122712/simple-java-solution-using-bfs/ </t>
   </si>
 </sst>
 </file>
@@ -314,8 +323,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{8A5E5259-EAE7-4B70-A567-E3F2ADB589C1}" name="Table2" displayName="Table2" ref="A1:E14" totalsRowShown="0" headerRowDxfId="1">
-  <autoFilter ref="A1:E14" xr:uid="{8A5E5259-EAE7-4B70-A567-E3F2ADB589C1}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{8A5E5259-EAE7-4B70-A567-E3F2ADB589C1}" name="Table2" displayName="Table2" ref="A1:E15" totalsRowShown="0" headerRowDxfId="1">
+  <autoFilter ref="A1:E15" xr:uid="{8A5E5259-EAE7-4B70-A567-E3F2ADB589C1}"/>
   <tableColumns count="5">
     <tableColumn id="1" xr3:uid="{39CFF8EE-B425-4749-92A0-090E902A657C}" name="Question"/>
     <tableColumn id="2" xr3:uid="{818806AE-0CAD-47D4-9900-447AC000C09C}" name="Difficulty" dataDxfId="0"/>
@@ -590,10 +599,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E14"/>
+  <dimension ref="A1:E15"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="D15" sqref="D15"/>
+      <selection activeCell="D23" sqref="D23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -841,6 +850,23 @@
       </c>
       <c r="E14" s="2" t="s">
         <v>54</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>56</v>
+      </c>
+      <c r="B15" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="C15" t="s">
+        <v>47</v>
+      </c>
+      <c r="D15" t="s">
+        <v>57</v>
+      </c>
+      <c r="E15" s="2" t="s">
+        <v>58</v>
       </c>
     </row>
   </sheetData>
@@ -858,11 +884,12 @@
     <hyperlink ref="E12" r:id="rId11" xr:uid="{ECFAD73C-01A6-471F-AADB-B88498A2F1BA}"/>
     <hyperlink ref="E13" r:id="rId12" xr:uid="{8A6E5CD3-FC54-458F-BF18-9FA3E439401D}"/>
     <hyperlink ref="E14" r:id="rId13" xr:uid="{C000C4B8-FB1D-41F8-A869-F7C307B6EA77}"/>
+    <hyperlink ref="E15" r:id="rId14" xr:uid="{F12AB4DF-4DF1-4FF5-89CD-8F921C3BAC03}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId14"/>
+  <pageSetup orientation="portrait" r:id="rId15"/>
   <tableParts count="1">
-    <tablePart r:id="rId15"/>
+    <tablePart r:id="rId16"/>
   </tableParts>
 </worksheet>
 </file>
--- a/java/Mixed_Review.xlsx
+++ b/java/Mixed_Review.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\JP\Desktop\Home_folder\workspace\library\java\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BCB52916-2597-41A6-91A0-915F76137F2E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{64539E4E-9BFB-44FA-A6E5-8E97F1D47014}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="75" uniqueCount="59">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="62">
   <si>
     <t>Question</t>
   </si>
@@ -213,6 +213,15 @@
   </si>
   <si>
     <t xml:space="preserve">https://leetcode.com/problems/bus-routes/solutions/122712/simple-java-solution-using-bfs/ </t>
+  </si>
+  <si>
+    <t>856. Score of Parentheses</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://leetcode.com/problems/score-of-parentheses/solutions/141777/c-java-python-o-1-space/ </t>
+  </si>
+  <si>
+    <t>Use a stack. Upon '(' push the curr score and enter the next inner layer level, reset cur = 0. If ')' is encountered, cur score is doubled and is atleast 1. Exit the curr layer level, set cur += stack.pop() + cur. For O(1) you need to change the array and pointer approach and count the layers.</t>
   </si>
 </sst>
 </file>
@@ -323,8 +332,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{8A5E5259-EAE7-4B70-A567-E3F2ADB589C1}" name="Table2" displayName="Table2" ref="A1:E15" totalsRowShown="0" headerRowDxfId="1">
-  <autoFilter ref="A1:E15" xr:uid="{8A5E5259-EAE7-4B70-A567-E3F2ADB589C1}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{8A5E5259-EAE7-4B70-A567-E3F2ADB589C1}" name="Table2" displayName="Table2" ref="A1:E16" totalsRowShown="0" headerRowDxfId="1">
+  <autoFilter ref="A1:E16" xr:uid="{8A5E5259-EAE7-4B70-A567-E3F2ADB589C1}"/>
   <tableColumns count="5">
     <tableColumn id="1" xr3:uid="{39CFF8EE-B425-4749-92A0-090E902A657C}" name="Question"/>
     <tableColumn id="2" xr3:uid="{818806AE-0CAD-47D4-9900-447AC000C09C}" name="Difficulty" dataDxfId="0"/>
@@ -599,10 +608,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E15"/>
+  <dimension ref="A1:E16"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="D23" sqref="D23"/>
+      <selection activeCell="D17" sqref="D17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -867,6 +876,23 @@
       </c>
       <c r="E15" s="2" t="s">
         <v>58</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>59</v>
+      </c>
+      <c r="B16" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="C16" t="s">
+        <v>53</v>
+      </c>
+      <c r="D16" t="s">
+        <v>61</v>
+      </c>
+      <c r="E16" s="2" t="s">
+        <v>60</v>
       </c>
     </row>
   </sheetData>
@@ -885,11 +911,12 @@
     <hyperlink ref="E13" r:id="rId12" xr:uid="{8A6E5CD3-FC54-458F-BF18-9FA3E439401D}"/>
     <hyperlink ref="E14" r:id="rId13" xr:uid="{C000C4B8-FB1D-41F8-A869-F7C307B6EA77}"/>
     <hyperlink ref="E15" r:id="rId14" xr:uid="{F12AB4DF-4DF1-4FF5-89CD-8F921C3BAC03}"/>
+    <hyperlink ref="E16" r:id="rId15" xr:uid="{90BBF423-D96F-4D61-847A-DCE6B07B9EFD}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId15"/>
+  <pageSetup orientation="portrait" r:id="rId16"/>
   <tableParts count="1">
-    <tablePart r:id="rId16"/>
+    <tablePart r:id="rId17"/>
   </tableParts>
 </worksheet>
 </file>
--- a/java/Mixed_Review.xlsx
+++ b/java/Mixed_Review.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\JP\Desktop\Home_folder\workspace\library\java\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{64539E4E-9BFB-44FA-A6E5-8E97F1D47014}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0314D770-1A83-43BD-94B6-6E3FFC665617}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="62">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="85" uniqueCount="66">
   <si>
     <t>Question</t>
   </si>
@@ -222,6 +222,18 @@
   </si>
   <si>
     <t>Use a stack. Upon '(' push the curr score and enter the next inner layer level, reset cur = 0. If ')' is encountered, cur score is doubled and is atleast 1. Exit the curr layer level, set cur += stack.pop() + cur. For O(1) you need to change the array and pointer approach and count the layers.</t>
+  </si>
+  <si>
+    <t>2115. Find All Possible Recipes from Given Supplies</t>
+  </si>
+  <si>
+    <t>Topological Sort</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://leetcode.com/problems/find-all-possible-recipes-from-given-supplies/solutions/1646584/java-python-3-toplogical-sort-w-brief-explanation/ </t>
+  </si>
+  <si>
+    <t>Brute force is repeated BFS. Optimal is Topological Sort. For each recipe, count of its dependent ingredients as degree, and store (ingredient, recipes that depend on it) as HashMap. Use supplies as the starting points of the topological sort. Use top sort to decrease the in degree of recipes, when in degree reaches 0, add to return list.</t>
   </si>
 </sst>
 </file>
@@ -332,8 +344,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{8A5E5259-EAE7-4B70-A567-E3F2ADB589C1}" name="Table2" displayName="Table2" ref="A1:E16" totalsRowShown="0" headerRowDxfId="1">
-  <autoFilter ref="A1:E16" xr:uid="{8A5E5259-EAE7-4B70-A567-E3F2ADB589C1}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{8A5E5259-EAE7-4B70-A567-E3F2ADB589C1}" name="Table2" displayName="Table2" ref="A1:E17" totalsRowShown="0" headerRowDxfId="1">
+  <autoFilter ref="A1:E17" xr:uid="{8A5E5259-EAE7-4B70-A567-E3F2ADB589C1}"/>
   <tableColumns count="5">
     <tableColumn id="1" xr3:uid="{39CFF8EE-B425-4749-92A0-090E902A657C}" name="Question"/>
     <tableColumn id="2" xr3:uid="{818806AE-0CAD-47D4-9900-447AC000C09C}" name="Difficulty" dataDxfId="0"/>
@@ -608,10 +620,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E16"/>
+  <dimension ref="A1:E17"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="D17" sqref="D17"/>
+      <selection activeCell="D18" sqref="D18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -893,6 +905,23 @@
       </c>
       <c r="E16" s="2" t="s">
         <v>60</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>62</v>
+      </c>
+      <c r="B17" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="C17" t="s">
+        <v>63</v>
+      </c>
+      <c r="D17" t="s">
+        <v>65</v>
+      </c>
+      <c r="E17" s="2" t="s">
+        <v>64</v>
       </c>
     </row>
   </sheetData>
@@ -912,11 +941,12 @@
     <hyperlink ref="E14" r:id="rId13" xr:uid="{C000C4B8-FB1D-41F8-A869-F7C307B6EA77}"/>
     <hyperlink ref="E15" r:id="rId14" xr:uid="{F12AB4DF-4DF1-4FF5-89CD-8F921C3BAC03}"/>
     <hyperlink ref="E16" r:id="rId15" xr:uid="{90BBF423-D96F-4D61-847A-DCE6B07B9EFD}"/>
+    <hyperlink ref="E17" r:id="rId16" xr:uid="{3F12C46F-A472-47C6-892B-FF69CA6B4DBA}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId16"/>
+  <pageSetup orientation="portrait" r:id="rId17"/>
   <tableParts count="1">
-    <tablePart r:id="rId17"/>
+    <tablePart r:id="rId18"/>
   </tableParts>
 </worksheet>
 </file>
--- a/java/Mixed_Review.xlsx
+++ b/java/Mixed_Review.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\JP\Desktop\Home_folder\workspace\library\java\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0314D770-1A83-43BD-94B6-6E3FFC665617}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9EF3A292-F88C-42ED-9965-2694EE8977A5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="85" uniqueCount="66">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="90" uniqueCount="69">
   <si>
     <t>Question</t>
   </si>
@@ -234,6 +234,15 @@
   </si>
   <si>
     <t>Brute force is repeated BFS. Optimal is Topological Sort. For each recipe, count of its dependent ingredients as degree, and store (ingredient, recipes that depend on it) as HashMap. Use supplies as the starting points of the topological sort. Use top sort to decrease the in degree of recipes, when in degree reaches 0, add to return list.</t>
+  </si>
+  <si>
+    <t>403. Frog Jump</t>
+  </si>
+  <si>
+    <t>https://leetcode.com/problems/frog-jump/solutions/193816/concise-and-fast-dp-solution-using-2d-array-instead-of-hashmap-with-text-and-video-explanation/</t>
+  </si>
+  <si>
+    <t>Calculate the reach based on the distances of the stones until the end and see if the final stone can be reached. We can use a HashMap with a HashSet of steps at each stone, or a 2D array DP.</t>
   </si>
 </sst>
 </file>
@@ -344,8 +353,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{8A5E5259-EAE7-4B70-A567-E3F2ADB589C1}" name="Table2" displayName="Table2" ref="A1:E17" totalsRowShown="0" headerRowDxfId="1">
-  <autoFilter ref="A1:E17" xr:uid="{8A5E5259-EAE7-4B70-A567-E3F2ADB589C1}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{8A5E5259-EAE7-4B70-A567-E3F2ADB589C1}" name="Table2" displayName="Table2" ref="A1:E18" totalsRowShown="0" headerRowDxfId="1">
+  <autoFilter ref="A1:E18" xr:uid="{8A5E5259-EAE7-4B70-A567-E3F2ADB589C1}"/>
   <tableColumns count="5">
     <tableColumn id="1" xr3:uid="{39CFF8EE-B425-4749-92A0-090E902A657C}" name="Question"/>
     <tableColumn id="2" xr3:uid="{818806AE-0CAD-47D4-9900-447AC000C09C}" name="Difficulty" dataDxfId="0"/>
@@ -620,10 +629,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E17"/>
+  <dimension ref="A1:E18"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="D18" sqref="D18"/>
+      <selection activeCell="D19" sqref="D19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -922,6 +931,23 @@
       </c>
       <c r="E17" s="2" t="s">
         <v>64</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>66</v>
+      </c>
+      <c r="B18" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="C18" t="s">
+        <v>12</v>
+      </c>
+      <c r="D18" t="s">
+        <v>68</v>
+      </c>
+      <c r="E18" s="2" t="s">
+        <v>67</v>
       </c>
     </row>
   </sheetData>
@@ -942,11 +968,12 @@
     <hyperlink ref="E15" r:id="rId14" xr:uid="{F12AB4DF-4DF1-4FF5-89CD-8F921C3BAC03}"/>
     <hyperlink ref="E16" r:id="rId15" xr:uid="{90BBF423-D96F-4D61-847A-DCE6B07B9EFD}"/>
     <hyperlink ref="E17" r:id="rId16" xr:uid="{3F12C46F-A472-47C6-892B-FF69CA6B4DBA}"/>
+    <hyperlink ref="E18" r:id="rId17" xr:uid="{554071B2-E339-4D90-8EF3-472E042EAB44}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId17"/>
+  <pageSetup orientation="portrait" r:id="rId18"/>
   <tableParts count="1">
-    <tablePart r:id="rId18"/>
+    <tablePart r:id="rId19"/>
   </tableParts>
 </worksheet>
 </file>
--- a/java/Mixed_Review.xlsx
+++ b/java/Mixed_Review.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\JP\Desktop\Home_folder\workspace\library\java\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9EF3A292-F88C-42ED-9965-2694EE8977A5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5294B180-E077-470B-A9B7-AAD5F70CF5A9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="90" uniqueCount="69">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="95" uniqueCount="72">
   <si>
     <t>Question</t>
   </si>
@@ -243,6 +243,15 @@
   </si>
   <si>
     <t>Calculate the reach based on the distances of the stones until the end and see if the final stone can be reached. We can use a HashMap with a HashSet of steps at each stone, or a 2D array DP.</t>
+  </si>
+  <si>
+    <t>1345. Jump Game 4</t>
+  </si>
+  <si>
+    <t>Create a map where key is the number and value as an index where it is present. We need to use a queue to add and process all jumps possible from each node.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://leetcode.com/problems/jump-game-iv/solutions/1690813/best-explanation-ever-possible-for-this-question/ </t>
   </si>
 </sst>
 </file>
@@ -353,8 +362,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{8A5E5259-EAE7-4B70-A567-E3F2ADB589C1}" name="Table2" displayName="Table2" ref="A1:E18" totalsRowShown="0" headerRowDxfId="1">
-  <autoFilter ref="A1:E18" xr:uid="{8A5E5259-EAE7-4B70-A567-E3F2ADB589C1}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{8A5E5259-EAE7-4B70-A567-E3F2ADB589C1}" name="Table2" displayName="Table2" ref="A1:E19" totalsRowShown="0" headerRowDxfId="1">
+  <autoFilter ref="A1:E19" xr:uid="{8A5E5259-EAE7-4B70-A567-E3F2ADB589C1}"/>
   <tableColumns count="5">
     <tableColumn id="1" xr3:uid="{39CFF8EE-B425-4749-92A0-090E902A657C}" name="Question"/>
     <tableColumn id="2" xr3:uid="{818806AE-0CAD-47D4-9900-447AC000C09C}" name="Difficulty" dataDxfId="0"/>
@@ -629,10 +638,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E18"/>
+  <dimension ref="A1:E19"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="D19" sqref="D19"/>
+      <selection activeCell="D29" sqref="D29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -948,6 +957,23 @@
       </c>
       <c r="E18" s="2" t="s">
         <v>67</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>69</v>
+      </c>
+      <c r="B19" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="C19" t="s">
+        <v>47</v>
+      </c>
+      <c r="D19" t="s">
+        <v>70</v>
+      </c>
+      <c r="E19" s="2" t="s">
+        <v>71</v>
       </c>
     </row>
   </sheetData>
@@ -969,11 +995,12 @@
     <hyperlink ref="E16" r:id="rId15" xr:uid="{90BBF423-D96F-4D61-847A-DCE6B07B9EFD}"/>
     <hyperlink ref="E17" r:id="rId16" xr:uid="{3F12C46F-A472-47C6-892B-FF69CA6B4DBA}"/>
     <hyperlink ref="E18" r:id="rId17" xr:uid="{554071B2-E339-4D90-8EF3-472E042EAB44}"/>
+    <hyperlink ref="E19" r:id="rId18" xr:uid="{C13E7499-3F3E-459D-86B5-6365D09A6DD9}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId18"/>
+  <pageSetup orientation="portrait" r:id="rId19"/>
   <tableParts count="1">
-    <tablePart r:id="rId19"/>
+    <tablePart r:id="rId20"/>
   </tableParts>
 </worksheet>
 </file>
--- a/java/Mixed_Review.xlsx
+++ b/java/Mixed_Review.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\JP\Desktop\Home_folder\workspace\library\java\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5294B180-E077-470B-A9B7-AAD5F70CF5A9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8A4599E7-44C4-47B5-A202-558C8B036B1F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="95" uniqueCount="72">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="75">
   <si>
     <t>Question</t>
   </si>
@@ -252,6 +252,15 @@
   </si>
   <si>
     <t xml:space="preserve">https://leetcode.com/problems/jump-game-iv/solutions/1690813/best-explanation-ever-possible-for-this-question/ </t>
+  </si>
+  <si>
+    <t>333. Largest BST Subtree</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://leetcode.com/problems/largest-bst-subtree/solutions/78899/very-short-simple-java-o-n-solution/ </t>
+  </si>
+  <si>
+    <t>We pass the dfs value as an array: {min, max, largest BST in its subtree(inclusive)}, then return arr[2] at the end.</t>
   </si>
 </sst>
 </file>
@@ -362,8 +371,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{8A5E5259-EAE7-4B70-A567-E3F2ADB589C1}" name="Table2" displayName="Table2" ref="A1:E19" totalsRowShown="0" headerRowDxfId="1">
-  <autoFilter ref="A1:E19" xr:uid="{8A5E5259-EAE7-4B70-A567-E3F2ADB589C1}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{8A5E5259-EAE7-4B70-A567-E3F2ADB589C1}" name="Table2" displayName="Table2" ref="A1:E20" totalsRowShown="0" headerRowDxfId="1">
+  <autoFilter ref="A1:E20" xr:uid="{8A5E5259-EAE7-4B70-A567-E3F2ADB589C1}"/>
   <tableColumns count="5">
     <tableColumn id="1" xr3:uid="{39CFF8EE-B425-4749-92A0-090E902A657C}" name="Question"/>
     <tableColumn id="2" xr3:uid="{818806AE-0CAD-47D4-9900-447AC000C09C}" name="Difficulty" dataDxfId="0"/>
@@ -638,10 +647,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E19"/>
+  <dimension ref="A1:E20"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="D29" sqref="D29"/>
+      <selection activeCell="D21" sqref="D21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -974,6 +983,23 @@
       </c>
       <c r="E19" s="2" t="s">
         <v>71</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>72</v>
+      </c>
+      <c r="B20" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="C20" t="s">
+        <v>27</v>
+      </c>
+      <c r="D20" t="s">
+        <v>74</v>
+      </c>
+      <c r="E20" s="2" t="s">
+        <v>73</v>
       </c>
     </row>
   </sheetData>
@@ -996,11 +1022,12 @@
     <hyperlink ref="E17" r:id="rId16" xr:uid="{3F12C46F-A472-47C6-892B-FF69CA6B4DBA}"/>
     <hyperlink ref="E18" r:id="rId17" xr:uid="{554071B2-E339-4D90-8EF3-472E042EAB44}"/>
     <hyperlink ref="E19" r:id="rId18" xr:uid="{C13E7499-3F3E-459D-86B5-6365D09A6DD9}"/>
+    <hyperlink ref="E20" r:id="rId19" xr:uid="{93B1D825-A407-42D2-A4EE-FDF788C8A742}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId19"/>
+  <pageSetup orientation="portrait" r:id="rId20"/>
   <tableParts count="1">
-    <tablePart r:id="rId20"/>
+    <tablePart r:id="rId21"/>
   </tableParts>
 </worksheet>
 </file>
--- a/java/Mixed_Review.xlsx
+++ b/java/Mixed_Review.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27425"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\JP\Desktop\Home_folder\workspace\library\java\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8A4599E7-44C4-47B5-A202-558C8B036B1F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9D6D6D09-0183-4008-91CA-4A107B684A76}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="75">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="105" uniqueCount="78">
   <si>
     <t>Question</t>
   </si>
@@ -261,6 +261,15 @@
   </si>
   <si>
     <t>We pass the dfs value as an array: {min, max, largest BST in its subtree(inclusive)}, then return arr[2] at the end.</t>
+  </si>
+  <si>
+    <t>118. Pascal's Triangle</t>
+  </si>
+  <si>
+    <t>We can either use recursion or 1D DP. Make sure the first and last indices of each row are 1s then add the 2 adjacent indices above each index in the rows. Use .get().set() notation.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://leetcode.com/problems/pascals-triangle/solutions/3169582/solution/ </t>
   </si>
 </sst>
 </file>
@@ -371,8 +380,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{8A5E5259-EAE7-4B70-A567-E3F2ADB589C1}" name="Table2" displayName="Table2" ref="A1:E20" totalsRowShown="0" headerRowDxfId="1">
-  <autoFilter ref="A1:E20" xr:uid="{8A5E5259-EAE7-4B70-A567-E3F2ADB589C1}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{8A5E5259-EAE7-4B70-A567-E3F2ADB589C1}" name="Table2" displayName="Table2" ref="A1:E21" totalsRowShown="0" headerRowDxfId="1">
+  <autoFilter ref="A1:E21" xr:uid="{8A5E5259-EAE7-4B70-A567-E3F2ADB589C1}"/>
   <tableColumns count="5">
     <tableColumn id="1" xr3:uid="{39CFF8EE-B425-4749-92A0-090E902A657C}" name="Question"/>
     <tableColumn id="2" xr3:uid="{818806AE-0CAD-47D4-9900-447AC000C09C}" name="Difficulty" dataDxfId="0"/>
@@ -647,10 +656,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E20"/>
+  <dimension ref="A1:E21"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="D21" sqref="D21"/>
+      <selection activeCell="E32" sqref="E32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1000,6 +1009,23 @@
       </c>
       <c r="E20" s="2" t="s">
         <v>73</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>75</v>
+      </c>
+      <c r="B21" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="C21" t="s">
+        <v>12</v>
+      </c>
+      <c r="D21" t="s">
+        <v>76</v>
+      </c>
+      <c r="E21" s="2" t="s">
+        <v>77</v>
       </c>
     </row>
   </sheetData>
@@ -1023,11 +1049,12 @@
     <hyperlink ref="E18" r:id="rId17" xr:uid="{554071B2-E339-4D90-8EF3-472E042EAB44}"/>
     <hyperlink ref="E19" r:id="rId18" xr:uid="{C13E7499-3F3E-459D-86B5-6365D09A6DD9}"/>
     <hyperlink ref="E20" r:id="rId19" xr:uid="{93B1D825-A407-42D2-A4EE-FDF788C8A742}"/>
+    <hyperlink ref="E21" r:id="rId20" xr:uid="{4A7EC10C-08F3-49FD-84CA-2823A9579FC0}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId20"/>
+  <pageSetup orientation="portrait" r:id="rId21"/>
   <tableParts count="1">
-    <tablePart r:id="rId21"/>
+    <tablePart r:id="rId22"/>
   </tableParts>
 </worksheet>
 </file>
--- a/java/Mixed_Review.xlsx
+++ b/java/Mixed_Review.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\JP\Desktop\Home_folder\workspace\library\java\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9D6D6D09-0183-4008-91CA-4A107B684A76}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B952B750-C1AA-405B-851A-7D7FED51D6DF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="105" uniqueCount="78">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="110" uniqueCount="81">
   <si>
     <t>Question</t>
   </si>
@@ -270,6 +270,15 @@
   </si>
   <si>
     <t xml:space="preserve">https://leetcode.com/problems/pascals-triangle/solutions/3169582/solution/ </t>
+  </si>
+  <si>
+    <t>9. Palindrome Number</t>
+  </si>
+  <si>
+    <t>Calculate mid for even and odd, and spread out from middle. Important to use this algorithm for later questions that build on this. Optimally, use remainder.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://leetcode.com/problems/palindrome-number/solutions/5094561/video-using-remainder/ </t>
   </si>
 </sst>
 </file>
@@ -380,8 +389,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{8A5E5259-EAE7-4B70-A567-E3F2ADB589C1}" name="Table2" displayName="Table2" ref="A1:E21" totalsRowShown="0" headerRowDxfId="1">
-  <autoFilter ref="A1:E21" xr:uid="{8A5E5259-EAE7-4B70-A567-E3F2ADB589C1}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{8A5E5259-EAE7-4B70-A567-E3F2ADB589C1}" name="Table2" displayName="Table2" ref="A1:E22" totalsRowShown="0" headerRowDxfId="1">
+  <autoFilter ref="A1:E22" xr:uid="{8A5E5259-EAE7-4B70-A567-E3F2ADB589C1}"/>
   <tableColumns count="5">
     <tableColumn id="1" xr3:uid="{39CFF8EE-B425-4749-92A0-090E902A657C}" name="Question"/>
     <tableColumn id="2" xr3:uid="{818806AE-0CAD-47D4-9900-447AC000C09C}" name="Difficulty" dataDxfId="0"/>
@@ -656,10 +665,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E21"/>
+  <dimension ref="A1:E22"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="E32" sqref="E32"/>
+      <selection activeCell="E25" sqref="E25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1026,6 +1035,23 @@
       </c>
       <c r="E21" s="2" t="s">
         <v>77</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>78</v>
+      </c>
+      <c r="B22" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="C22" t="s">
+        <v>6</v>
+      </c>
+      <c r="D22" t="s">
+        <v>79</v>
+      </c>
+      <c r="E22" s="2" t="s">
+        <v>80</v>
       </c>
     </row>
   </sheetData>
@@ -1050,11 +1076,12 @@
     <hyperlink ref="E19" r:id="rId18" xr:uid="{C13E7499-3F3E-459D-86B5-6365D09A6DD9}"/>
     <hyperlink ref="E20" r:id="rId19" xr:uid="{93B1D825-A407-42D2-A4EE-FDF788C8A742}"/>
     <hyperlink ref="E21" r:id="rId20" xr:uid="{4A7EC10C-08F3-49FD-84CA-2823A9579FC0}"/>
+    <hyperlink ref="E22" r:id="rId21" xr:uid="{46AE749D-2195-4F17-A721-E4832F3A876E}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId21"/>
+  <pageSetup orientation="portrait" r:id="rId22"/>
   <tableParts count="1">
-    <tablePart r:id="rId22"/>
+    <tablePart r:id="rId23"/>
   </tableParts>
 </worksheet>
 </file>
--- a/java/Mixed_Review.xlsx
+++ b/java/Mixed_Review.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\JP\Desktop\Home_folder\workspace\library\java\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B952B750-C1AA-405B-851A-7D7FED51D6DF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D87D2898-E605-4FBD-8EBD-86AAB914D939}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="110" uniqueCount="81">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="115" uniqueCount="85">
   <si>
     <t>Question</t>
   </si>
@@ -279,6 +279,18 @@
   </si>
   <si>
     <t xml:space="preserve">https://leetcode.com/problems/palindrome-number/solutions/5094561/video-using-remainder/ </t>
+  </si>
+  <si>
+    <t>13. Roman to Integer</t>
+  </si>
+  <si>
+    <t>String</t>
+  </si>
+  <si>
+    <t>We can make if statements for each rule. Use indices to check next value. Go step by step. The optimal solution uses a map to not repeat work.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://leetcode.com/problems/roman-to-integer/solutions/3651672/best-method-c-java-python-beginner-friendly/ </t>
   </si>
 </sst>
 </file>
@@ -389,8 +401,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{8A5E5259-EAE7-4B70-A567-E3F2ADB589C1}" name="Table2" displayName="Table2" ref="A1:E22" totalsRowShown="0" headerRowDxfId="1">
-  <autoFilter ref="A1:E22" xr:uid="{8A5E5259-EAE7-4B70-A567-E3F2ADB589C1}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{8A5E5259-EAE7-4B70-A567-E3F2ADB589C1}" name="Table2" displayName="Table2" ref="A1:E23" totalsRowShown="0" headerRowDxfId="1">
+  <autoFilter ref="A1:E23" xr:uid="{8A5E5259-EAE7-4B70-A567-E3F2ADB589C1}"/>
   <tableColumns count="5">
     <tableColumn id="1" xr3:uid="{39CFF8EE-B425-4749-92A0-090E902A657C}" name="Question"/>
     <tableColumn id="2" xr3:uid="{818806AE-0CAD-47D4-9900-447AC000C09C}" name="Difficulty" dataDxfId="0"/>
@@ -665,10 +677,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E22"/>
+  <dimension ref="A1:E23"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="E25" sqref="E25"/>
+      <selection activeCell="D27" sqref="D27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1052,6 +1064,23 @@
       </c>
       <c r="E22" s="2" t="s">
         <v>80</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
+        <v>81</v>
+      </c>
+      <c r="B23" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="C23" t="s">
+        <v>82</v>
+      </c>
+      <c r="D23" t="s">
+        <v>83</v>
+      </c>
+      <c r="E23" s="2" t="s">
+        <v>84</v>
       </c>
     </row>
   </sheetData>
@@ -1077,11 +1106,12 @@
     <hyperlink ref="E20" r:id="rId19" xr:uid="{93B1D825-A407-42D2-A4EE-FDF788C8A742}"/>
     <hyperlink ref="E21" r:id="rId20" xr:uid="{4A7EC10C-08F3-49FD-84CA-2823A9579FC0}"/>
     <hyperlink ref="E22" r:id="rId21" xr:uid="{46AE749D-2195-4F17-A721-E4832F3A876E}"/>
+    <hyperlink ref="E23" r:id="rId22" xr:uid="{77B2E509-9DAA-4712-8ED1-9EC4424C19C8}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId22"/>
+  <pageSetup orientation="portrait" r:id="rId23"/>
   <tableParts count="1">
-    <tablePart r:id="rId23"/>
+    <tablePart r:id="rId24"/>
   </tableParts>
 </worksheet>
 </file>
--- a/java/Mixed_Review.xlsx
+++ b/java/Mixed_Review.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\JP\Desktop\Home_folder\workspace\library\java\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D87D2898-E605-4FBD-8EBD-86AAB914D939}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{54612C40-5E00-4A38-A760-AAFE27D4B2E3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="115" uniqueCount="85">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="120" uniqueCount="89">
   <si>
     <t>Question</t>
   </si>
@@ -291,6 +291,18 @@
   </si>
   <si>
     <t xml:space="preserve">https://leetcode.com/problems/roman-to-integer/solutions/3651672/best-method-c-java-python-beginner-friendly/ </t>
+  </si>
+  <si>
+    <t>242. Valid Anagram</t>
+  </si>
+  <si>
+    <t>Hashing</t>
+  </si>
+  <si>
+    <t>We can convert strings to charArrays then sort and compare characters for O(nlogn) runtime, or frequency maps for O(n) runtime. Use char map for O(26) Space, optimally. You can use Arrays.equals(sChars, tChars);</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://leetcode.com/problems/valid-anagram/solutions/3687854/3-method-s-c-java-python-beginner-friendly/ </t>
   </si>
 </sst>
 </file>
@@ -401,8 +413,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{8A5E5259-EAE7-4B70-A567-E3F2ADB589C1}" name="Table2" displayName="Table2" ref="A1:E23" totalsRowShown="0" headerRowDxfId="1">
-  <autoFilter ref="A1:E23" xr:uid="{8A5E5259-EAE7-4B70-A567-E3F2ADB589C1}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{8A5E5259-EAE7-4B70-A567-E3F2ADB589C1}" name="Table2" displayName="Table2" ref="A1:E24" totalsRowShown="0" headerRowDxfId="1">
+  <autoFilter ref="A1:E24" xr:uid="{8A5E5259-EAE7-4B70-A567-E3F2ADB589C1}"/>
   <tableColumns count="5">
     <tableColumn id="1" xr3:uid="{39CFF8EE-B425-4749-92A0-090E902A657C}" name="Question"/>
     <tableColumn id="2" xr3:uid="{818806AE-0CAD-47D4-9900-447AC000C09C}" name="Difficulty" dataDxfId="0"/>
@@ -677,10 +689,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E23"/>
+  <dimension ref="A1:E24"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="D27" sqref="D27"/>
+    <sheetView tabSelected="1" topLeftCell="B10" workbookViewId="0">
+      <selection activeCell="D31" sqref="D31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1081,6 +1093,23 @@
       </c>
       <c r="E23" s="2" t="s">
         <v>84</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
+        <v>85</v>
+      </c>
+      <c r="B24" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="C24" t="s">
+        <v>86</v>
+      </c>
+      <c r="D24" t="s">
+        <v>87</v>
+      </c>
+      <c r="E24" s="2" t="s">
+        <v>88</v>
       </c>
     </row>
   </sheetData>
@@ -1107,11 +1136,12 @@
     <hyperlink ref="E21" r:id="rId20" xr:uid="{4A7EC10C-08F3-49FD-84CA-2823A9579FC0}"/>
     <hyperlink ref="E22" r:id="rId21" xr:uid="{46AE749D-2195-4F17-A721-E4832F3A876E}"/>
     <hyperlink ref="E23" r:id="rId22" xr:uid="{77B2E509-9DAA-4712-8ED1-9EC4424C19C8}"/>
+    <hyperlink ref="E24" r:id="rId23" xr:uid="{BD272976-55F5-4031-8C51-50BCBF28B025}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId23"/>
+  <pageSetup orientation="portrait" r:id="rId24"/>
   <tableParts count="1">
-    <tablePart r:id="rId24"/>
+    <tablePart r:id="rId25"/>
   </tableParts>
 </worksheet>
 </file>
--- a/java/Mixed_Review.xlsx
+++ b/java/Mixed_Review.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\JP\Desktop\Home_folder\workspace\library\java\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{54612C40-5E00-4A38-A760-AAFE27D4B2E3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{12205791-4E45-433C-8D27-B5524D7A50F2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="120" uniqueCount="89">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="125" uniqueCount="92">
   <si>
     <t>Question</t>
   </si>
@@ -303,6 +303,15 @@
   </si>
   <si>
     <t xml:space="preserve">https://leetcode.com/problems/valid-anagram/solutions/3687854/3-method-s-c-java-python-beginner-friendly/ </t>
+  </si>
+  <si>
+    <t>5. Longest Palindromic Substring</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://leetcode.com/problems/longest-palindromic-substring/solutions/4212564/beats-96-49-5-different-approaches-brute-force-eac-dp-ma-recursion/ </t>
+  </si>
+  <si>
+    <t>Optimal is DP Manacher's algorithm, then the expand from center approach. Use a generic sliding window template with isPalindrome helper function. This one is better to use a nested for loop, but with while loop, make sure to initialize l to 0 in the outer while loop.</t>
   </si>
 </sst>
 </file>
@@ -413,8 +422,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{8A5E5259-EAE7-4B70-A567-E3F2ADB589C1}" name="Table2" displayName="Table2" ref="A1:E24" totalsRowShown="0" headerRowDxfId="1">
-  <autoFilter ref="A1:E24" xr:uid="{8A5E5259-EAE7-4B70-A567-E3F2ADB589C1}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{8A5E5259-EAE7-4B70-A567-E3F2ADB589C1}" name="Table2" displayName="Table2" ref="A1:E25" totalsRowShown="0" headerRowDxfId="1">
+  <autoFilter ref="A1:E25" xr:uid="{8A5E5259-EAE7-4B70-A567-E3F2ADB589C1}"/>
   <tableColumns count="5">
     <tableColumn id="1" xr3:uid="{39CFF8EE-B425-4749-92A0-090E902A657C}" name="Question"/>
     <tableColumn id="2" xr3:uid="{818806AE-0CAD-47D4-9900-447AC000C09C}" name="Difficulty" dataDxfId="0"/>
@@ -689,10 +698,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E24"/>
+  <dimension ref="A1:E25"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B10" workbookViewId="0">
-      <selection activeCell="D31" sqref="D31"/>
+      <selection activeCell="E29" sqref="E29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1110,6 +1119,23 @@
       </c>
       <c r="E24" s="2" t="s">
         <v>88</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
+        <v>89</v>
+      </c>
+      <c r="B25" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="C25" t="s">
+        <v>18</v>
+      </c>
+      <c r="D25" t="s">
+        <v>91</v>
+      </c>
+      <c r="E25" s="2" t="s">
+        <v>90</v>
       </c>
     </row>
   </sheetData>
@@ -1137,11 +1163,12 @@
     <hyperlink ref="E22" r:id="rId21" xr:uid="{46AE749D-2195-4F17-A721-E4832F3A876E}"/>
     <hyperlink ref="E23" r:id="rId22" xr:uid="{77B2E509-9DAA-4712-8ED1-9EC4424C19C8}"/>
     <hyperlink ref="E24" r:id="rId23" xr:uid="{BD272976-55F5-4031-8C51-50BCBF28B025}"/>
+    <hyperlink ref="E25" r:id="rId24" xr:uid="{D64D12B5-1AF8-4A37-A5BC-B933A91D025B}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId24"/>
+  <pageSetup orientation="portrait" r:id="rId25"/>
   <tableParts count="1">
-    <tablePart r:id="rId25"/>
+    <tablePart r:id="rId26"/>
   </tableParts>
 </worksheet>
 </file>
--- a/java/Mixed_Review.xlsx
+++ b/java/Mixed_Review.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\JP\Desktop\Home_folder\workspace\library\java\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{12205791-4E45-433C-8D27-B5524D7A50F2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D97E0F52-E942-4730-85B5-D6DE52FF1722}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="125" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="130" uniqueCount="95">
   <si>
     <t>Question</t>
   </si>
@@ -312,6 +312,15 @@
   </si>
   <si>
     <t>Optimal is DP Manacher's algorithm, then the expand from center approach. Use a generic sliding window template with isPalindrome helper function. This one is better to use a nested for loop, but with while loop, make sure to initialize l to 0 in the outer while loop.</t>
+  </si>
+  <si>
+    <t>20. Valid Parentheses</t>
+  </si>
+  <si>
+    <t>Use a stack for the left brackets and when encountering right brackets, pop from the stack. Remember the edge case for stack size of 0, and the end should return if the stack is size 0.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://leetcode.com/problems/valid-parentheses/solutions/3399077/easy-solutions-in-java-python-and-c-look-at-once-with-exaplanation/ </t>
   </si>
 </sst>
 </file>
@@ -422,8 +431,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{8A5E5259-EAE7-4B70-A567-E3F2ADB589C1}" name="Table2" displayName="Table2" ref="A1:E25" totalsRowShown="0" headerRowDxfId="1">
-  <autoFilter ref="A1:E25" xr:uid="{8A5E5259-EAE7-4B70-A567-E3F2ADB589C1}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{8A5E5259-EAE7-4B70-A567-E3F2ADB589C1}" name="Table2" displayName="Table2" ref="A1:E26" totalsRowShown="0" headerRowDxfId="1">
+  <autoFilter ref="A1:E26" xr:uid="{8A5E5259-EAE7-4B70-A567-E3F2ADB589C1}"/>
   <tableColumns count="5">
     <tableColumn id="1" xr3:uid="{39CFF8EE-B425-4749-92A0-090E902A657C}" name="Question"/>
     <tableColumn id="2" xr3:uid="{818806AE-0CAD-47D4-9900-447AC000C09C}" name="Difficulty" dataDxfId="0"/>
@@ -698,10 +707,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E25"/>
+  <dimension ref="A1:E26"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B10" workbookViewId="0">
-      <selection activeCell="E29" sqref="E29"/>
+      <selection activeCell="E33" sqref="E33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1136,6 +1145,23 @@
       </c>
       <c r="E25" s="2" t="s">
         <v>90</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
+        <v>92</v>
+      </c>
+      <c r="B26" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="C26" t="s">
+        <v>53</v>
+      </c>
+      <c r="D26" t="s">
+        <v>93</v>
+      </c>
+      <c r="E26" s="2" t="s">
+        <v>94</v>
       </c>
     </row>
   </sheetData>
@@ -1164,11 +1190,12 @@
     <hyperlink ref="E23" r:id="rId22" xr:uid="{77B2E509-9DAA-4712-8ED1-9EC4424C19C8}"/>
     <hyperlink ref="E24" r:id="rId23" xr:uid="{BD272976-55F5-4031-8C51-50BCBF28B025}"/>
     <hyperlink ref="E25" r:id="rId24" xr:uid="{D64D12B5-1AF8-4A37-A5BC-B933A91D025B}"/>
+    <hyperlink ref="E26" r:id="rId25" xr:uid="{A0D0E7E1-B5B0-4038-A1FE-7724CF45C4DF}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId25"/>
+  <pageSetup orientation="portrait" r:id="rId26"/>
   <tableParts count="1">
-    <tablePart r:id="rId26"/>
+    <tablePart r:id="rId27"/>
   </tableParts>
 </worksheet>
 </file>
--- a/java/Mixed_Review.xlsx
+++ b/java/Mixed_Review.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\JP\Desktop\Home_folder\workspace\library\java\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D97E0F52-E942-4730-85B5-D6DE52FF1722}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FB2FFBF1-7749-4CF6-B457-C67BBFF1B284}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="130" uniqueCount="95">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="135" uniqueCount="99">
   <si>
     <t>Question</t>
   </si>
@@ -321,6 +321,18 @@
   </si>
   <si>
     <t xml:space="preserve">https://leetcode.com/problems/valid-parentheses/solutions/3399077/easy-solutions-in-java-python-and-c-look-at-once-with-exaplanation/ </t>
+  </si>
+  <si>
+    <t>215. Kth Largest Element in an Array</t>
+  </si>
+  <si>
+    <t>Heaps</t>
+  </si>
+  <si>
+    <t>Add all the elements of the array to the heap. Then while heap.size() &gt; k, poll() it, then return heap.peek(). It's optimal to maintain the heap size of k as you iterate the array.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://leetcode.com/problems/kth-largest-element-in-an-array/solutions/3906260/100-3-approaches-video-heap-quickselect-sorting/ </t>
   </si>
 </sst>
 </file>
@@ -431,8 +443,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{8A5E5259-EAE7-4B70-A567-E3F2ADB589C1}" name="Table2" displayName="Table2" ref="A1:E26" totalsRowShown="0" headerRowDxfId="1">
-  <autoFilter ref="A1:E26" xr:uid="{8A5E5259-EAE7-4B70-A567-E3F2ADB589C1}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{8A5E5259-EAE7-4B70-A567-E3F2ADB589C1}" name="Table2" displayName="Table2" ref="A1:E27" totalsRowShown="0" headerRowDxfId="1">
+  <autoFilter ref="A1:E27" xr:uid="{8A5E5259-EAE7-4B70-A567-E3F2ADB589C1}"/>
   <tableColumns count="5">
     <tableColumn id="1" xr3:uid="{39CFF8EE-B425-4749-92A0-090E902A657C}" name="Question"/>
     <tableColumn id="2" xr3:uid="{818806AE-0CAD-47D4-9900-447AC000C09C}" name="Difficulty" dataDxfId="0"/>
@@ -707,10 +719,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E26"/>
+  <dimension ref="A1:E27"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B10" workbookViewId="0">
-      <selection activeCell="E33" sqref="E33"/>
+    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="B33" sqref="B33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1162,6 +1174,23 @@
       </c>
       <c r="E26" s="2" t="s">
         <v>94</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A27" t="s">
+        <v>95</v>
+      </c>
+      <c r="B27" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="C27" t="s">
+        <v>96</v>
+      </c>
+      <c r="D27" t="s">
+        <v>97</v>
+      </c>
+      <c r="E27" s="2" t="s">
+        <v>98</v>
       </c>
     </row>
   </sheetData>
@@ -1191,11 +1220,12 @@
     <hyperlink ref="E24" r:id="rId23" xr:uid="{BD272976-55F5-4031-8C51-50BCBF28B025}"/>
     <hyperlink ref="E25" r:id="rId24" xr:uid="{D64D12B5-1AF8-4A37-A5BC-B933A91D025B}"/>
     <hyperlink ref="E26" r:id="rId25" xr:uid="{A0D0E7E1-B5B0-4038-A1FE-7724CF45C4DF}"/>
+    <hyperlink ref="E27" r:id="rId26" xr:uid="{4E8A8BD6-777A-44A8-8029-C838EBDB9950}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId26"/>
+  <pageSetup orientation="portrait" r:id="rId27"/>
   <tableParts count="1">
-    <tablePart r:id="rId27"/>
+    <tablePart r:id="rId28"/>
   </tableParts>
 </worksheet>
 </file>
--- a/java/Mixed_Review.xlsx
+++ b/java/Mixed_Review.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\JP\Desktop\Home_folder\workspace\library\java\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FB2FFBF1-7749-4CF6-B457-C67BBFF1B284}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1F92433B-AC7F-4638-B32D-9B8E93375C38}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="135" uniqueCount="99">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="140" uniqueCount="103">
   <si>
     <t>Question</t>
   </si>
@@ -333,6 +333,18 @@
   </si>
   <si>
     <t xml:space="preserve">https://leetcode.com/problems/kth-largest-element-in-an-array/solutions/3906260/100-3-approaches-video-heap-quickselect-sorting/ </t>
+  </si>
+  <si>
+    <t>56. Merge Intervals</t>
+  </si>
+  <si>
+    <t>Intervals</t>
+  </si>
+  <si>
+    <t>First sort the input array with custom comparator and Arrays.sort(). Arrays.sort(intervals, (a,b) -&gt; Integer.compare(a[0], b[0])); Add the first element, then check if the current end &gt;= next start, then merge the current and next intervals by modifying the current interval in this list. If there is no overlap, add the intervals[i] to the temp list. Return as primitive: return li.toArray(new int[li.size()][]);</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://leetcode.com/problems/merge-intervals/solutions/5097671/java-easy-to-understand-solution-with-explanation/ </t>
   </si>
 </sst>
 </file>
@@ -443,8 +455,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{8A5E5259-EAE7-4B70-A567-E3F2ADB589C1}" name="Table2" displayName="Table2" ref="A1:E27" totalsRowShown="0" headerRowDxfId="1">
-  <autoFilter ref="A1:E27" xr:uid="{8A5E5259-EAE7-4B70-A567-E3F2ADB589C1}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{8A5E5259-EAE7-4B70-A567-E3F2ADB589C1}" name="Table2" displayName="Table2" ref="A1:E28" totalsRowShown="0" headerRowDxfId="1">
+  <autoFilter ref="A1:E28" xr:uid="{8A5E5259-EAE7-4B70-A567-E3F2ADB589C1}"/>
   <tableColumns count="5">
     <tableColumn id="1" xr3:uid="{39CFF8EE-B425-4749-92A0-090E902A657C}" name="Question"/>
     <tableColumn id="2" xr3:uid="{818806AE-0CAD-47D4-9900-447AC000C09C}" name="Difficulty" dataDxfId="0"/>
@@ -719,10 +731,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E27"/>
+  <dimension ref="A1:E28"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="B33" sqref="B33"/>
+    <sheetView tabSelected="1" topLeftCell="B10" workbookViewId="0">
+      <selection activeCell="D35" sqref="D35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1191,6 +1203,23 @@
       </c>
       <c r="E27" s="2" t="s">
         <v>98</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A28" t="s">
+        <v>99</v>
+      </c>
+      <c r="B28" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="C28" t="s">
+        <v>100</v>
+      </c>
+      <c r="D28" t="s">
+        <v>101</v>
+      </c>
+      <c r="E28" s="2" t="s">
+        <v>102</v>
       </c>
     </row>
   </sheetData>
@@ -1221,11 +1250,12 @@
     <hyperlink ref="E25" r:id="rId24" xr:uid="{D64D12B5-1AF8-4A37-A5BC-B933A91D025B}"/>
     <hyperlink ref="E26" r:id="rId25" xr:uid="{A0D0E7E1-B5B0-4038-A1FE-7724CF45C4DF}"/>
     <hyperlink ref="E27" r:id="rId26" xr:uid="{4E8A8BD6-777A-44A8-8029-C838EBDB9950}"/>
+    <hyperlink ref="E28" r:id="rId27" xr:uid="{BBCF1EBB-F9C0-4FAB-A29C-E0E89141F10D}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId27"/>
+  <pageSetup orientation="portrait" r:id="rId28"/>
   <tableParts count="1">
-    <tablePart r:id="rId28"/>
+    <tablePart r:id="rId29"/>
   </tableParts>
 </worksheet>
 </file>
--- a/java/Mixed_Review.xlsx
+++ b/java/Mixed_Review.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27425"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27531"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\JP\Desktop\Home_folder\workspace\library\java\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1F92433B-AC7F-4638-B32D-9B8E93375C38}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E1501535-A92F-4F04-BCA6-6AFB1B474EEE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="140" uniqueCount="103">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="150" uniqueCount="110">
   <si>
     <t>Question</t>
   </si>
@@ -345,6 +345,27 @@
   </si>
   <si>
     <t xml:space="preserve">https://leetcode.com/problems/merge-intervals/solutions/5097671/java-easy-to-understand-solution-with-explanation/ </t>
+  </si>
+  <si>
+    <t>19. Remove Nth Node From End of List</t>
+  </si>
+  <si>
+    <t>Linked List</t>
+  </si>
+  <si>
+    <t>Maintain a pointer to the head. Create a dummy node to iterate first, n ahead of the tail, so you can check for null nodes with a while loop. Then just set tail.next to dummy.next, then return head.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://leetcode.com/problems/remove-nth-node-from-end-of-list/solutions/5121069/video-using-distance-between-two-pointers/ </t>
+  </si>
+  <si>
+    <t>102. Binary Tree Level Order Trabersal</t>
+  </si>
+  <si>
+    <t>Use BFS traversal of a binary tree. Maintain both a res list and a level list and watch out for the null head case.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://leetcode.com/problems/binary-tree-level-order-traversal/solutions/3267417/well-explained-code-in-java-use-of-arraylist-and-queues/ </t>
   </si>
 </sst>
 </file>
@@ -455,8 +476,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{8A5E5259-EAE7-4B70-A567-E3F2ADB589C1}" name="Table2" displayName="Table2" ref="A1:E28" totalsRowShown="0" headerRowDxfId="1">
-  <autoFilter ref="A1:E28" xr:uid="{8A5E5259-EAE7-4B70-A567-E3F2ADB589C1}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{8A5E5259-EAE7-4B70-A567-E3F2ADB589C1}" name="Table2" displayName="Table2" ref="A1:E30" totalsRowShown="0" headerRowDxfId="1">
+  <autoFilter ref="A1:E30" xr:uid="{8A5E5259-EAE7-4B70-A567-E3F2ADB589C1}"/>
   <tableColumns count="5">
     <tableColumn id="1" xr3:uid="{39CFF8EE-B425-4749-92A0-090E902A657C}" name="Question"/>
     <tableColumn id="2" xr3:uid="{818806AE-0CAD-47D4-9900-447AC000C09C}" name="Difficulty" dataDxfId="0"/>
@@ -731,10 +752,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E28"/>
+  <dimension ref="A1:E30"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B10" workbookViewId="0">
-      <selection activeCell="D35" sqref="D35"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="D33" sqref="D33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1220,6 +1241,40 @@
       </c>
       <c r="E28" s="2" t="s">
         <v>102</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A29" t="s">
+        <v>103</v>
+      </c>
+      <c r="B29" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="C29" t="s">
+        <v>104</v>
+      </c>
+      <c r="D29" t="s">
+        <v>105</v>
+      </c>
+      <c r="E29" s="2" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A30" t="s">
+        <v>107</v>
+      </c>
+      <c r="B30" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="C30" t="s">
+        <v>27</v>
+      </c>
+      <c r="D30" t="s">
+        <v>108</v>
+      </c>
+      <c r="E30" s="2" t="s">
+        <v>109</v>
       </c>
     </row>
   </sheetData>
@@ -1251,11 +1306,13 @@
     <hyperlink ref="E26" r:id="rId25" xr:uid="{A0D0E7E1-B5B0-4038-A1FE-7724CF45C4DF}"/>
     <hyperlink ref="E27" r:id="rId26" xr:uid="{4E8A8BD6-777A-44A8-8029-C838EBDB9950}"/>
     <hyperlink ref="E28" r:id="rId27" xr:uid="{BBCF1EBB-F9C0-4FAB-A29C-E0E89141F10D}"/>
+    <hyperlink ref="E29" r:id="rId28" xr:uid="{3325A7DE-690D-4262-8984-85DC4ED4C15F}"/>
+    <hyperlink ref="E30" r:id="rId29" xr:uid="{52444B81-2EE9-4677-8017-675A49E2CC1D}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId28"/>
+  <pageSetup orientation="portrait" r:id="rId30"/>
   <tableParts count="1">
-    <tablePart r:id="rId29"/>
+    <tablePart r:id="rId31"/>
   </tableParts>
 </worksheet>
 </file>
--- a/java/Mixed_Review.xlsx
+++ b/java/Mixed_Review.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\JP\Desktop\Home_folder\workspace\library\java\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E1501535-A92F-4F04-BCA6-6AFB1B474EEE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{84A968EF-2357-4173-A3D9-EA3C2298B365}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="150" uniqueCount="110">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="155" uniqueCount="114">
   <si>
     <t>Question</t>
   </si>
@@ -366,6 +366,18 @@
   </si>
   <si>
     <t xml:space="preserve">https://leetcode.com/problems/binary-tree-level-order-traversal/solutions/3267417/well-explained-code-in-java-use-of-arraylist-and-queues/ </t>
+  </si>
+  <si>
+    <t>200. Number of Islands</t>
+  </si>
+  <si>
+    <t>Graphs</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://leetcode.com/problems/number-of-islands/solutions/5044534/explore-each-island-using-dfs-java-c/ </t>
+  </si>
+  <si>
+    <t>We need to DFS or BFS search while keeping track of visited, or marking as isSafe during the search. We can increment the count during the top level for loop on the grid, as DFS or BFS will mark the cells as visited before each iteration. Remember how to use the direction vector. Base case of search is the cell is out of bounds or marked as visited or '0'.</t>
   </si>
 </sst>
 </file>
@@ -476,8 +488,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{8A5E5259-EAE7-4B70-A567-E3F2ADB589C1}" name="Table2" displayName="Table2" ref="A1:E30" totalsRowShown="0" headerRowDxfId="1">
-  <autoFilter ref="A1:E30" xr:uid="{8A5E5259-EAE7-4B70-A567-E3F2ADB589C1}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{8A5E5259-EAE7-4B70-A567-E3F2ADB589C1}" name="Table2" displayName="Table2" ref="A1:E31" totalsRowShown="0" headerRowDxfId="1">
+  <autoFilter ref="A1:E31" xr:uid="{8A5E5259-EAE7-4B70-A567-E3F2ADB589C1}"/>
   <tableColumns count="5">
     <tableColumn id="1" xr3:uid="{39CFF8EE-B425-4749-92A0-090E902A657C}" name="Question"/>
     <tableColumn id="2" xr3:uid="{818806AE-0CAD-47D4-9900-447AC000C09C}" name="Difficulty" dataDxfId="0"/>
@@ -752,10 +764,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E30"/>
+  <dimension ref="A1:E31"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="D33" sqref="D33"/>
+    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="D32" sqref="D32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1275,6 +1287,23 @@
       </c>
       <c r="E30" s="2" t="s">
         <v>109</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A31" t="s">
+        <v>110</v>
+      </c>
+      <c r="B31" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="C31" t="s">
+        <v>111</v>
+      </c>
+      <c r="D31" t="s">
+        <v>113</v>
+      </c>
+      <c r="E31" s="2" t="s">
+        <v>112</v>
       </c>
     </row>
   </sheetData>
@@ -1308,11 +1337,12 @@
     <hyperlink ref="E28" r:id="rId27" xr:uid="{BBCF1EBB-F9C0-4FAB-A29C-E0E89141F10D}"/>
     <hyperlink ref="E29" r:id="rId28" xr:uid="{3325A7DE-690D-4262-8984-85DC4ED4C15F}"/>
     <hyperlink ref="E30" r:id="rId29" xr:uid="{52444B81-2EE9-4677-8017-675A49E2CC1D}"/>
+    <hyperlink ref="E31" r:id="rId30" xr:uid="{E40A196C-5F85-417A-AE05-5C5D389ABA1A}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId30"/>
+  <pageSetup orientation="portrait" r:id="rId31"/>
   <tableParts count="1">
-    <tablePart r:id="rId31"/>
+    <tablePart r:id="rId32"/>
   </tableParts>
 </worksheet>
 </file>
--- a/java/Mixed_Review.xlsx
+++ b/java/Mixed_Review.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\JP\Desktop\Home_folder\workspace\library\java\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{84A968EF-2357-4173-A3D9-EA3C2298B365}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2C32E7FA-F08C-4ABC-B791-7E275BF25D6A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="155" uniqueCount="114">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="160" uniqueCount="118">
   <si>
     <t>Question</t>
   </si>
@@ -378,6 +378,18 @@
   </si>
   <si>
     <t>We need to DFS or BFS search while keeping track of visited, or marking as isSafe during the search. We can increment the count during the top level for loop on the grid, as DFS or BFS will mark the cells as visited before each iteration. Remember how to use the direction vector. Base case of search is the cell is out of bounds or marked as visited or '0'.</t>
+  </si>
+  <si>
+    <t>268. Missing Number</t>
+  </si>
+  <si>
+    <t>Binary Search</t>
+  </si>
+  <si>
+    <t>Brute force, we can sort then do a for loop to look for nums[i] != i. We can use binary search. Make sure to sort the array first, resulting in O(nlogn) runtime. Because of the problem description, nums[i] should equal i, except for the target number. Optimally, we can use math with expected sum n(n+1)/2 - actual sum, or XOR.</t>
+  </si>
+  <si>
+    <t>https://leetcode.com/problems/missing-number/solutions/69786/3-different-ideas-xor-sum-binary-search-java-code/</t>
   </si>
 </sst>
 </file>
@@ -488,8 +500,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{8A5E5259-EAE7-4B70-A567-E3F2ADB589C1}" name="Table2" displayName="Table2" ref="A1:E31" totalsRowShown="0" headerRowDxfId="1">
-  <autoFilter ref="A1:E31" xr:uid="{8A5E5259-EAE7-4B70-A567-E3F2ADB589C1}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{8A5E5259-EAE7-4B70-A567-E3F2ADB589C1}" name="Table2" displayName="Table2" ref="A1:E32" totalsRowShown="0" headerRowDxfId="1">
+  <autoFilter ref="A1:E32" xr:uid="{8A5E5259-EAE7-4B70-A567-E3F2ADB589C1}"/>
   <tableColumns count="5">
     <tableColumn id="1" xr3:uid="{39CFF8EE-B425-4749-92A0-090E902A657C}" name="Question"/>
     <tableColumn id="2" xr3:uid="{818806AE-0CAD-47D4-9900-447AC000C09C}" name="Difficulty" dataDxfId="0"/>
@@ -764,10 +776,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E31"/>
+  <dimension ref="A1:E32"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="D32" sqref="D32"/>
+    <sheetView tabSelected="1" topLeftCell="B10" workbookViewId="0">
+      <selection activeCell="E36" sqref="E36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1304,6 +1316,23 @@
       </c>
       <c r="E31" s="2" t="s">
         <v>112</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A32" t="s">
+        <v>114</v>
+      </c>
+      <c r="B32" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="C32" t="s">
+        <v>115</v>
+      </c>
+      <c r="D32" t="s">
+        <v>116</v>
+      </c>
+      <c r="E32" s="2" t="s">
+        <v>117</v>
       </c>
     </row>
   </sheetData>
@@ -1338,11 +1367,12 @@
     <hyperlink ref="E29" r:id="rId28" xr:uid="{3325A7DE-690D-4262-8984-85DC4ED4C15F}"/>
     <hyperlink ref="E30" r:id="rId29" xr:uid="{52444B81-2EE9-4677-8017-675A49E2CC1D}"/>
     <hyperlink ref="E31" r:id="rId30" xr:uid="{E40A196C-5F85-417A-AE05-5C5D389ABA1A}"/>
+    <hyperlink ref="E32" r:id="rId31" xr:uid="{672513E6-95C0-4F67-AE75-4DE78D3793E5}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId31"/>
+  <pageSetup orientation="portrait" r:id="rId32"/>
   <tableParts count="1">
-    <tablePart r:id="rId32"/>
+    <tablePart r:id="rId33"/>
   </tableParts>
 </worksheet>
 </file>
--- a/java/Mixed_Review.xlsx
+++ b/java/Mixed_Review.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\JP\Desktop\Home_folder\workspace\library\java\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2C32E7FA-F08C-4ABC-B791-7E275BF25D6A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6D69C067-FA4F-419A-8CF6-A3500D85CE3D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="160" uniqueCount="118">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="165" uniqueCount="121">
   <si>
     <t>Question</t>
   </si>
@@ -390,6 +390,15 @@
   </si>
   <si>
     <t>https://leetcode.com/problems/missing-number/solutions/69786/3-different-ideas-xor-sum-binary-search-java-code/</t>
+  </si>
+  <si>
+    <t>55. Jump Game</t>
+  </si>
+  <si>
+    <t>https://leetcode.com/problems/jump-game/solutions/2375320/interview-scenario-recursion-memoization-dp-greedy/</t>
+  </si>
+  <si>
+    <t>Reach - optimal linear solution. We can start from the end, update x starting from the last element to be i if nums[i] + I &gt;= x. If x != 0 return false, else return true. For practice, practice recursion, memo, dp, greedy solutions.</t>
   </si>
 </sst>
 </file>
@@ -500,8 +509,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{8A5E5259-EAE7-4B70-A567-E3F2ADB589C1}" name="Table2" displayName="Table2" ref="A1:E32" totalsRowShown="0" headerRowDxfId="1">
-  <autoFilter ref="A1:E32" xr:uid="{8A5E5259-EAE7-4B70-A567-E3F2ADB589C1}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{8A5E5259-EAE7-4B70-A567-E3F2ADB589C1}" name="Table2" displayName="Table2" ref="A1:E33" totalsRowShown="0" headerRowDxfId="1">
+  <autoFilter ref="A1:E33" xr:uid="{8A5E5259-EAE7-4B70-A567-E3F2ADB589C1}"/>
   <tableColumns count="5">
     <tableColumn id="1" xr3:uid="{39CFF8EE-B425-4749-92A0-090E902A657C}" name="Question"/>
     <tableColumn id="2" xr3:uid="{818806AE-0CAD-47D4-9900-447AC000C09C}" name="Difficulty" dataDxfId="0"/>
@@ -776,10 +785,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E32"/>
+  <dimension ref="A1:E33"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B10" workbookViewId="0">
-      <selection activeCell="E36" sqref="E36"/>
+      <selection activeCell="D40" sqref="D40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1333,6 +1342,23 @@
       </c>
       <c r="E32" s="2" t="s">
         <v>117</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A33" t="s">
+        <v>118</v>
+      </c>
+      <c r="B33" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="C33" t="s">
+        <v>100</v>
+      </c>
+      <c r="D33" t="s">
+        <v>120</v>
+      </c>
+      <c r="E33" s="2" t="s">
+        <v>119</v>
       </c>
     </row>
   </sheetData>
@@ -1368,11 +1394,12 @@
     <hyperlink ref="E30" r:id="rId29" xr:uid="{52444B81-2EE9-4677-8017-675A49E2CC1D}"/>
     <hyperlink ref="E31" r:id="rId30" xr:uid="{E40A196C-5F85-417A-AE05-5C5D389ABA1A}"/>
     <hyperlink ref="E32" r:id="rId31" xr:uid="{672513E6-95C0-4F67-AE75-4DE78D3793E5}"/>
+    <hyperlink ref="E33" r:id="rId32" xr:uid="{D414E7EE-1AF1-4F52-A003-687AF6359D37}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId32"/>
+  <pageSetup orientation="portrait" r:id="rId33"/>
   <tableParts count="1">
-    <tablePart r:id="rId33"/>
+    <tablePart r:id="rId34"/>
   </tableParts>
 </worksheet>
 </file>
--- a/java/Mixed_Review.xlsx
+++ b/java/Mixed_Review.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\JP\Desktop\Home_folder\workspace\library\java\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6D69C067-FA4F-419A-8CF6-A3500D85CE3D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{19307465-BFB6-40D6-BA68-4A5414569794}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -398,7 +398,7 @@
     <t>https://leetcode.com/problems/jump-game/solutions/2375320/interview-scenario-recursion-memoization-dp-greedy/</t>
   </si>
   <si>
-    <t>Reach - optimal linear solution. We can start from the end, update x starting from the last element to be i if nums[i] + I &gt;= x. If x != 0 return false, else return true. For practice, practice recursion, memo, dp, greedy solutions.</t>
+    <t>Greedy and Reach - optimal linear solution. We can start from the end, update x starting from the last element to be i if nums[i] + I &gt;= x. If x != 0 return false, else return true. For practice, practice recursion, memo, dp, greedy solutions.</t>
   </si>
 </sst>
 </file>
@@ -788,7 +788,7 @@
   <dimension ref="A1:E33"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B10" workbookViewId="0">
-      <selection activeCell="D40" sqref="D40"/>
+      <selection activeCell="E37" sqref="E37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/java/Mixed_Review.xlsx
+++ b/java/Mixed_Review.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\JP\Desktop\Home_folder\workspace\library\java\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{19307465-BFB6-40D6-BA68-4A5414569794}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F84023A6-D2CA-4B68-B54B-3A61F79EB0F3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="165" uniqueCount="121">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="170" uniqueCount="124">
   <si>
     <t>Question</t>
   </si>
@@ -399,6 +399,15 @@
   </si>
   <si>
     <t>Greedy and Reach - optimal linear solution. We can start from the end, update x starting from the last element to be i if nums[i] + I &gt;= x. If x != 0 return false, else return true. For practice, practice recursion, memo, dp, greedy solutions.</t>
+  </si>
+  <si>
+    <t>77. Combinations</t>
+  </si>
+  <si>
+    <t>Backtracking, consider take and not take in the for loop. The time and space complexity is o(k (n choose k)) with the binomial coefficient, or O(k n!/k!(n-k)!). Make sure to add a copy of the temp list into the res list, because the original list is modifined later. You can call the search at each iteration of the for loop and handle the base case in the search function. In the main loop of the search, use i &lt;= n as the range. K is handled by the base case.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://leetcode.com/problems/combinations/solutions/27002/backtracking-solution-java/ </t>
   </si>
 </sst>
 </file>
@@ -509,8 +518,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{8A5E5259-EAE7-4B70-A567-E3F2ADB589C1}" name="Table2" displayName="Table2" ref="A1:E33" totalsRowShown="0" headerRowDxfId="1">
-  <autoFilter ref="A1:E33" xr:uid="{8A5E5259-EAE7-4B70-A567-E3F2ADB589C1}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{8A5E5259-EAE7-4B70-A567-E3F2ADB589C1}" name="Table2" displayName="Table2" ref="A1:E34" totalsRowShown="0" headerRowDxfId="1">
+  <autoFilter ref="A1:E34" xr:uid="{8A5E5259-EAE7-4B70-A567-E3F2ADB589C1}"/>
   <tableColumns count="5">
     <tableColumn id="1" xr3:uid="{39CFF8EE-B425-4749-92A0-090E902A657C}" name="Question"/>
     <tableColumn id="2" xr3:uid="{818806AE-0CAD-47D4-9900-447AC000C09C}" name="Difficulty" dataDxfId="0"/>
@@ -785,10 +794,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E33"/>
+  <dimension ref="A1:E34"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B10" workbookViewId="0">
-      <selection activeCell="E37" sqref="E37"/>
+      <selection activeCell="E38" sqref="E38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1359,6 +1368,23 @@
       </c>
       <c r="E33" s="2" t="s">
         <v>119</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A34" t="s">
+        <v>121</v>
+      </c>
+      <c r="B34" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="C34" t="s">
+        <v>37</v>
+      </c>
+      <c r="D34" t="s">
+        <v>122</v>
+      </c>
+      <c r="E34" s="2" t="s">
+        <v>123</v>
       </c>
     </row>
   </sheetData>
@@ -1395,11 +1421,12 @@
     <hyperlink ref="E31" r:id="rId30" xr:uid="{E40A196C-5F85-417A-AE05-5C5D389ABA1A}"/>
     <hyperlink ref="E32" r:id="rId31" xr:uid="{672513E6-95C0-4F67-AE75-4DE78D3793E5}"/>
     <hyperlink ref="E33" r:id="rId32" xr:uid="{D414E7EE-1AF1-4F52-A003-687AF6359D37}"/>
+    <hyperlink ref="E34" r:id="rId33" xr:uid="{5585ECA6-E846-4CC3-9CCD-B99060692F18}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId33"/>
+  <pageSetup orientation="portrait" r:id="rId34"/>
   <tableParts count="1">
-    <tablePart r:id="rId34"/>
+    <tablePart r:id="rId35"/>
   </tableParts>
 </worksheet>
 </file>
--- a/java/Mixed_Review.xlsx
+++ b/java/Mixed_Review.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\JP\Desktop\Home_folder\workspace\library\java\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F84023A6-D2CA-4B68-B54B-3A61F79EB0F3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{736468E3-8A5F-4CEB-82EF-1E54A1D61DFD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="170" uniqueCount="124">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="175" uniqueCount="127">
   <si>
     <t>Question</t>
   </si>
@@ -408,6 +408,15 @@
   </si>
   <si>
     <t xml:space="preserve">https://leetcode.com/problems/combinations/solutions/27002/backtracking-solution-java/ </t>
+  </si>
+  <si>
+    <t>160. Intersection of Two Linked Lists</t>
+  </si>
+  <si>
+    <t>Naïve: Use a Hash Set and iterate one at a time. Optimal: iterate both at the same time until they are equal.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://leetcode.com/problems/intersection-of-two-linked-lists/solutions/49785/java-solution-without-knowing-the-difference-in-len/ </t>
   </si>
 </sst>
 </file>
@@ -518,8 +527,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{8A5E5259-EAE7-4B70-A567-E3F2ADB589C1}" name="Table2" displayName="Table2" ref="A1:E34" totalsRowShown="0" headerRowDxfId="1">
-  <autoFilter ref="A1:E34" xr:uid="{8A5E5259-EAE7-4B70-A567-E3F2ADB589C1}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{8A5E5259-EAE7-4B70-A567-E3F2ADB589C1}" name="Table2" displayName="Table2" ref="A1:E35" totalsRowShown="0" headerRowDxfId="1">
+  <autoFilter ref="A1:E35" xr:uid="{8A5E5259-EAE7-4B70-A567-E3F2ADB589C1}"/>
   <tableColumns count="5">
     <tableColumn id="1" xr3:uid="{39CFF8EE-B425-4749-92A0-090E902A657C}" name="Question"/>
     <tableColumn id="2" xr3:uid="{818806AE-0CAD-47D4-9900-447AC000C09C}" name="Difficulty" dataDxfId="0"/>
@@ -794,10 +803,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E34"/>
+  <dimension ref="A1:E35"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B10" workbookViewId="0">
-      <selection activeCell="E38" sqref="E38"/>
+    <sheetView tabSelected="1" topLeftCell="B16" workbookViewId="0">
+      <selection activeCell="E41" sqref="E41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1385,6 +1394,23 @@
       </c>
       <c r="E34" s="2" t="s">
         <v>123</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A35" t="s">
+        <v>124</v>
+      </c>
+      <c r="B35" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="C35" t="s">
+        <v>104</v>
+      </c>
+      <c r="D35" t="s">
+        <v>125</v>
+      </c>
+      <c r="E35" s="2" t="s">
+        <v>126</v>
       </c>
     </row>
   </sheetData>
@@ -1422,11 +1448,12 @@
     <hyperlink ref="E32" r:id="rId31" xr:uid="{672513E6-95C0-4F67-AE75-4DE78D3793E5}"/>
     <hyperlink ref="E33" r:id="rId32" xr:uid="{D414E7EE-1AF1-4F52-A003-687AF6359D37}"/>
     <hyperlink ref="E34" r:id="rId33" xr:uid="{5585ECA6-E846-4CC3-9CCD-B99060692F18}"/>
+    <hyperlink ref="E35" r:id="rId34" xr:uid="{739216AF-1496-4646-8840-77C5B8749B5E}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId34"/>
+  <pageSetup orientation="portrait" r:id="rId35"/>
   <tableParts count="1">
-    <tablePart r:id="rId35"/>
+    <tablePart r:id="rId36"/>
   </tableParts>
 </worksheet>
 </file>
--- a/java/Mixed_Review.xlsx
+++ b/java/Mixed_Review.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\JP\Desktop\Home_folder\workspace\library\java\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{736468E3-8A5F-4CEB-82EF-1E54A1D61DFD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1A4DD3A6-B698-4534-8624-E210C80BCF75}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="175" uniqueCount="127">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="179" uniqueCount="129">
   <si>
     <t>Question</t>
   </si>
@@ -417,6 +417,12 @@
   </si>
   <si>
     <t xml:space="preserve">https://leetcode.com/problems/intersection-of-two-linked-lists/solutions/49785/java-solution-without-knowing-the-difference-in-len/ </t>
+  </si>
+  <si>
+    <t>45. Jump Game 2</t>
+  </si>
+  <si>
+    <t>Greedy is optimal. Recursively, use the base case of reaching end, and maintain a global or higher scope variable for min. Be careful of for loop range. It should be (start+1, Math.min(start + k, n), and steps should be iterated in the recursive call. For memoization solution, use the memo[start] = steps. I.e. store the min. steps required to reach the current position, if known.</t>
   </si>
 </sst>
 </file>
@@ -527,8 +533,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{8A5E5259-EAE7-4B70-A567-E3F2ADB589C1}" name="Table2" displayName="Table2" ref="A1:E35" totalsRowShown="0" headerRowDxfId="1">
-  <autoFilter ref="A1:E35" xr:uid="{8A5E5259-EAE7-4B70-A567-E3F2ADB589C1}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{8A5E5259-EAE7-4B70-A567-E3F2ADB589C1}" name="Table2" displayName="Table2" ref="A1:E36" totalsRowShown="0" headerRowDxfId="1">
+  <autoFilter ref="A1:E36" xr:uid="{8A5E5259-EAE7-4B70-A567-E3F2ADB589C1}"/>
   <tableColumns count="5">
     <tableColumn id="1" xr3:uid="{39CFF8EE-B425-4749-92A0-090E902A657C}" name="Question"/>
     <tableColumn id="2" xr3:uid="{818806AE-0CAD-47D4-9900-447AC000C09C}" name="Difficulty" dataDxfId="0"/>
@@ -803,10 +809,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E35"/>
+  <dimension ref="A1:E36"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B16" workbookViewId="0">
-      <selection activeCell="E41" sqref="E41"/>
+    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="D38" sqref="D38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1412,6 +1418,21 @@
       <c r="E35" s="2" t="s">
         <v>126</v>
       </c>
+    </row>
+    <row r="36" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A36" t="s">
+        <v>127</v>
+      </c>
+      <c r="B36" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="C36" t="s">
+        <v>12</v>
+      </c>
+      <c r="D36" t="s">
+        <v>128</v>
+      </c>
+      <c r="E36" s="2"/>
     </row>
   </sheetData>
   <hyperlinks>

--- a/java/Mixed_Review.xlsx
+++ b/java/Mixed_Review.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\JP\Desktop\Home_folder\workspace\library\java\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1A4DD3A6-B698-4534-8624-E210C80BCF75}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{10A82127-7AF8-48DF-A663-15669FDCCC1B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="179" uniqueCount="129">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="180" uniqueCount="130">
   <si>
     <t>Question</t>
   </si>
@@ -422,7 +422,10 @@
     <t>45. Jump Game 2</t>
   </si>
   <si>
-    <t>Greedy is optimal. Recursively, use the base case of reaching end, and maintain a global or higher scope variable for min. Be careful of for loop range. It should be (start+1, Math.min(start + k, n), and steps should be iterated in the recursive call. For memoization solution, use the memo[start] = steps. I.e. store the min. steps required to reach the current position, if known.</t>
+    <t>Greedy is optimal. In greedy, always update the current end to be max reach, then if you reach it with i, increment jumps. Like a 2 pointers solution. Recursively, use the base case of reaching end, and maintain a global or higher scope variable for min. Be careful of for loop range. It should be (start+1, Math.min(start + k, n), and steps should be iterated in the recursive call. For memoization solution, use the memo[start] = steps. I.e. store the min. steps required to reach the current position, if known.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://leetcode.com/problems/jump-game-ii/solutions/18014/concise-o-n-one-loop-java-solution-based-on-greedy/ </t>
   </si>
 </sst>
 </file>
@@ -811,8 +814,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:E36"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="D38" sqref="D38"/>
+    <sheetView tabSelected="1" topLeftCell="B16" workbookViewId="0">
+      <selection activeCell="D43" sqref="D43"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1432,7 +1435,9 @@
       <c r="D36" t="s">
         <v>128</v>
       </c>
-      <c r="E36" s="2"/>
+      <c r="E36" s="2" t="s">
+        <v>129</v>
+      </c>
     </row>
   </sheetData>
   <hyperlinks>
@@ -1470,11 +1475,12 @@
     <hyperlink ref="E33" r:id="rId32" xr:uid="{D414E7EE-1AF1-4F52-A003-687AF6359D37}"/>
     <hyperlink ref="E34" r:id="rId33" xr:uid="{5585ECA6-E846-4CC3-9CCD-B99060692F18}"/>
     <hyperlink ref="E35" r:id="rId34" xr:uid="{739216AF-1496-4646-8840-77C5B8749B5E}"/>
+    <hyperlink ref="E36" r:id="rId35" xr:uid="{89C5CE41-093E-43A6-B765-7E87EDDDA238}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId35"/>
+  <pageSetup orientation="portrait" r:id="rId36"/>
   <tableParts count="1">
-    <tablePart r:id="rId36"/>
+    <tablePart r:id="rId37"/>
   </tableParts>
 </worksheet>
 </file>
--- a/java/Mixed_Review.xlsx
+++ b/java/Mixed_Review.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\JP\Desktop\Home_folder\workspace\library\java\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{10A82127-7AF8-48DF-A663-15669FDCCC1B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D2B792BC-154C-425E-81A0-14A3B22F8DC1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -422,10 +422,10 @@
     <t>45. Jump Game 2</t>
   </si>
   <si>
-    <t>Greedy is optimal. In greedy, always update the current end to be max reach, then if you reach it with i, increment jumps. Like a 2 pointers solution. Recursively, use the base case of reaching end, and maintain a global or higher scope variable for min. Be careful of for loop range. It should be (start+1, Math.min(start + k, n), and steps should be iterated in the recursive call. For memoization solution, use the memo[start] = steps. I.e. store the min. steps required to reach the current position, if known.</t>
-  </si>
-  <si>
     <t xml:space="preserve">https://leetcode.com/problems/jump-game-ii/solutions/18014/concise-o-n-one-loop-java-solution-based-on-greedy/ </t>
+  </si>
+  <si>
+    <t>Greedy is optimal. In greedy, always update the current end to be max reach, then if you reach it with i, increment jumps. Like a 2 pointers solution. Recursively, use the base case of reaching end, and maintain a global or higher scope variable for min. Be careful of for loop range. It should be (start+1, Math.min(start + k, n), and steps should be iterated in the recursive call. For memoization solution, use the memo[start] = steps. I.e. store the min. steps required to reach the current position, if known. For the bottom up DP solution, it's still O(n^2) with a nested for loop. Go from the end, but the inner loop still iterates from 1 to steps.</t>
   </si>
 </sst>
 </file>
@@ -815,7 +815,7 @@
   <dimension ref="A1:E36"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B16" workbookViewId="0">
-      <selection activeCell="D43" sqref="D43"/>
+      <selection activeCell="D37" sqref="D37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1433,10 +1433,10 @@
         <v>12</v>
       </c>
       <c r="D36" t="s">
+        <v>129</v>
+      </c>
+      <c r="E36" s="2" t="s">
         <v>128</v>
-      </c>
-      <c r="E36" s="2" t="s">
-        <v>129</v>
       </c>
     </row>
   </sheetData>

--- a/java/Mixed_Review.xlsx
+++ b/java/Mixed_Review.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\JP\Desktop\Home_folder\workspace\library\java\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D2B792BC-154C-425E-81A0-14A3B22F8DC1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6B7DF4FA-5836-47C6-93E5-23BF887FB280}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="180" uniqueCount="130">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="185" uniqueCount="133">
   <si>
     <t>Question</t>
   </si>
@@ -426,6 +426,15 @@
   </si>
   <si>
     <t>Greedy is optimal. In greedy, always update the current end to be max reach, then if you reach it with i, increment jumps. Like a 2 pointers solution. Recursively, use the base case of reaching end, and maintain a global or higher scope variable for min. Be careful of for loop range. It should be (start+1, Math.min(start + k, n), and steps should be iterated in the recursive call. For memoization solution, use the memo[start] = steps. I.e. store the min. steps required to reach the current position, if known. For the bottom up DP solution, it's still O(n^2) with a nested for loop. Go from the end, but the inner loop still iterates from 1 to steps.</t>
+  </si>
+  <si>
+    <t>198. House Robber</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://leetcode.com/problems/house-robber/solutions/156523/from-good-to-great-how-to-approach-most-of-dp-problems/ </t>
+  </si>
+  <si>
+    <t>The recursive relation here is rob(i) = Math.max(rob(i-2) + currHouseVal, rob(i-1)). The trick is that we start from the end in the top down solution and the start in the bottom-up. Base case is reaching i &lt; 0.</t>
   </si>
 </sst>
 </file>
@@ -536,8 +545,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{8A5E5259-EAE7-4B70-A567-E3F2ADB589C1}" name="Table2" displayName="Table2" ref="A1:E36" totalsRowShown="0" headerRowDxfId="1">
-  <autoFilter ref="A1:E36" xr:uid="{8A5E5259-EAE7-4B70-A567-E3F2ADB589C1}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{8A5E5259-EAE7-4B70-A567-E3F2ADB589C1}" name="Table2" displayName="Table2" ref="A1:E37" totalsRowShown="0" headerRowDxfId="1">
+  <autoFilter ref="A1:E37" xr:uid="{8A5E5259-EAE7-4B70-A567-E3F2ADB589C1}"/>
   <tableColumns count="5">
     <tableColumn id="1" xr3:uid="{39CFF8EE-B425-4749-92A0-090E902A657C}" name="Question"/>
     <tableColumn id="2" xr3:uid="{818806AE-0CAD-47D4-9900-447AC000C09C}" name="Difficulty" dataDxfId="0"/>
@@ -812,10 +821,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E36"/>
+  <dimension ref="A1:E37"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B16" workbookViewId="0">
-      <selection activeCell="D37" sqref="D37"/>
+      <selection activeCell="D38" sqref="D38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1437,6 +1446,23 @@
       </c>
       <c r="E36" s="2" t="s">
         <v>128</v>
+      </c>
+    </row>
+    <row r="37" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A37" t="s">
+        <v>130</v>
+      </c>
+      <c r="B37" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="C37" t="s">
+        <v>12</v>
+      </c>
+      <c r="D37" t="s">
+        <v>132</v>
+      </c>
+      <c r="E37" s="2" t="s">
+        <v>131</v>
       </c>
     </row>
   </sheetData>
@@ -1476,11 +1502,12 @@
     <hyperlink ref="E34" r:id="rId33" xr:uid="{5585ECA6-E846-4CC3-9CCD-B99060692F18}"/>
     <hyperlink ref="E35" r:id="rId34" xr:uid="{739216AF-1496-4646-8840-77C5B8749B5E}"/>
     <hyperlink ref="E36" r:id="rId35" xr:uid="{89C5CE41-093E-43A6-B765-7E87EDDDA238}"/>
+    <hyperlink ref="E37" r:id="rId36" xr:uid="{61D7541E-8240-42B0-AA42-3216149A2347}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId36"/>
+  <pageSetup orientation="portrait" r:id="rId37"/>
   <tableParts count="1">
-    <tablePart r:id="rId37"/>
+    <tablePart r:id="rId38"/>
   </tableParts>
 </worksheet>
 </file>
--- a/java/Mixed_Review.xlsx
+++ b/java/Mixed_Review.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27531"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27628"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\JP\Desktop\Home_folder\workspace\library\java\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6B7DF4FA-5836-47C6-93E5-23BF887FB280}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{106CCE04-9E61-4AEC-A470-60DA49A29C08}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="185" uniqueCount="133">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="190" uniqueCount="136">
   <si>
     <t>Question</t>
   </si>
@@ -435,6 +435,15 @@
   </si>
   <si>
     <t>The recursive relation here is rob(i) = Math.max(rob(i-2) + currHouseVal, rob(i-1)). The trick is that we start from the end in the top down solution and the start in the bottom-up. Base case is reaching i &lt; 0.</t>
+  </si>
+  <si>
+    <t>21. Merge Two Sorted Lists</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://leetcode.com/problems/merge-two-sorted-lists/solutions/1826666/c-easy-to-understand-2-approaches-recursive-iterative/ </t>
+  </si>
+  <si>
+    <t>Start with null check, do dummy res list, then iterate comparing both lists to add to it. At the end, append the remaining nodes with: curr.next = l1 == null ? l2 : l1;</t>
   </si>
 </sst>
 </file>
@@ -545,8 +554,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{8A5E5259-EAE7-4B70-A567-E3F2ADB589C1}" name="Table2" displayName="Table2" ref="A1:E37" totalsRowShown="0" headerRowDxfId="1">
-  <autoFilter ref="A1:E37" xr:uid="{8A5E5259-EAE7-4B70-A567-E3F2ADB589C1}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{8A5E5259-EAE7-4B70-A567-E3F2ADB589C1}" name="Table2" displayName="Table2" ref="A1:E38" totalsRowShown="0" headerRowDxfId="1">
+  <autoFilter ref="A1:E38" xr:uid="{8A5E5259-EAE7-4B70-A567-E3F2ADB589C1}"/>
   <tableColumns count="5">
     <tableColumn id="1" xr3:uid="{39CFF8EE-B425-4749-92A0-090E902A657C}" name="Question"/>
     <tableColumn id="2" xr3:uid="{818806AE-0CAD-47D4-9900-447AC000C09C}" name="Difficulty" dataDxfId="0"/>
@@ -821,10 +830,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E37"/>
+  <dimension ref="A1:E38"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B16" workbookViewId="0">
-      <selection activeCell="D38" sqref="D38"/>
+    <sheetView tabSelected="1" topLeftCell="B28" workbookViewId="0">
+      <selection activeCell="D46" sqref="D46"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1463,6 +1472,23 @@
       </c>
       <c r="E37" s="2" t="s">
         <v>131</v>
+      </c>
+    </row>
+    <row r="38" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A38" t="s">
+        <v>133</v>
+      </c>
+      <c r="B38" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="C38" t="s">
+        <v>104</v>
+      </c>
+      <c r="D38" t="s">
+        <v>135</v>
+      </c>
+      <c r="E38" s="2" t="s">
+        <v>134</v>
       </c>
     </row>
   </sheetData>
@@ -1503,11 +1529,12 @@
     <hyperlink ref="E35" r:id="rId34" xr:uid="{739216AF-1496-4646-8840-77C5B8749B5E}"/>
     <hyperlink ref="E36" r:id="rId35" xr:uid="{89C5CE41-093E-43A6-B765-7E87EDDDA238}"/>
     <hyperlink ref="E37" r:id="rId36" xr:uid="{61D7541E-8240-42B0-AA42-3216149A2347}"/>
+    <hyperlink ref="E38" r:id="rId37" xr:uid="{435EA8EF-227C-42F0-8895-0FBA4733AAF2}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId37"/>
+  <pageSetup orientation="portrait" r:id="rId38"/>
   <tableParts count="1">
-    <tablePart r:id="rId38"/>
+    <tablePart r:id="rId39"/>
   </tableParts>
 </worksheet>
 </file>
--- a/java/Mixed_Review.xlsx
+++ b/java/Mixed_Review.xlsx
@@ -1,19 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27628"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27726"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\JP\Desktop\Home_folder\workspace\library\java\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{106CCE04-9E61-4AEC-A470-60DA49A29C08}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DF7D30DA-989D-47D6-898C-8CE438F3EB5A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="2024 Fall" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -36,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="190" uniqueCount="136">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="200" uniqueCount="140">
   <si>
     <t>Question</t>
   </si>
@@ -444,6 +445,18 @@
   </si>
   <si>
     <t>Start with null check, do dummy res list, then iterate comparing both lists to add to it. At the end, append the remaining nodes with: curr.next = l1 == null ? l2 : l1;</t>
+  </si>
+  <si>
+    <t>1. Two Sum</t>
+  </si>
+  <si>
+    <t>Arrays and Hasing</t>
+  </si>
+  <si>
+    <t>https://leetcode.com/problems/two-sum/solutions/2990807/solution-c-java-python-both-brute-force-optimized-code/</t>
+  </si>
+  <si>
+    <t>Optimal is 1 pass with complement hashtable.</t>
   </si>
 </sst>
 </file>
@@ -526,7 +539,20 @@
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="2">
+  <dxfs count="4">
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor rgb="FF00B050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+      </font>
+    </dxf>
     <dxf>
       <fill>
         <patternFill patternType="solid">
@@ -554,14 +580,28 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{8A5E5259-EAE7-4B70-A567-E3F2ADB589C1}" name="Table2" displayName="Table2" ref="A1:E38" totalsRowShown="0" headerRowDxfId="1">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{8A5E5259-EAE7-4B70-A567-E3F2ADB589C1}" name="Table2" displayName="Table2" ref="A1:E38" totalsRowShown="0" headerRowDxfId="3">
   <autoFilter ref="A1:E38" xr:uid="{8A5E5259-EAE7-4B70-A567-E3F2ADB589C1}"/>
   <tableColumns count="5">
     <tableColumn id="1" xr3:uid="{39CFF8EE-B425-4749-92A0-090E902A657C}" name="Question"/>
-    <tableColumn id="2" xr3:uid="{818806AE-0CAD-47D4-9900-447AC000C09C}" name="Difficulty" dataDxfId="0"/>
+    <tableColumn id="2" xr3:uid="{818806AE-0CAD-47D4-9900-447AC000C09C}" name="Difficulty" dataDxfId="2"/>
     <tableColumn id="3" xr3:uid="{3EE9083D-0D63-4750-A722-07E106EC8E7D}" name="Pattern"/>
     <tableColumn id="6" xr3:uid="{A7F8125B-A46D-45A5-A7F7-7B50CAA3589B}" name="Notes"/>
     <tableColumn id="4" xr3:uid="{DE704AFB-97F3-4301-86F4-4553376A5970}" name="Link" dataCellStyle="Hyperlink"/>
+  </tableColumns>
+  <tableStyleInfo showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{B0889DD6-65BF-4CF4-A25E-553A3E1C807F}" name="Table22" displayName="Table22" ref="A1:E2" totalsRowShown="0" headerRowDxfId="1">
+  <autoFilter ref="A1:E2" xr:uid="{8A5E5259-EAE7-4B70-A567-E3F2ADB589C1}"/>
+  <tableColumns count="5">
+    <tableColumn id="1" xr3:uid="{48BE1778-7CDA-4ED7-830C-FBF7CEC5F641}" name="Question"/>
+    <tableColumn id="2" xr3:uid="{BB2891EA-9253-4017-A45F-1AE59DC7D5B3}" name="Difficulty" dataDxfId="0"/>
+    <tableColumn id="3" xr3:uid="{868FA632-4AE9-442F-9EBB-A76D4A81DDE2}" name="Pattern"/>
+    <tableColumn id="6" xr3:uid="{1D715A0A-FAB4-4E43-A074-F97319625000}" name="Notes"/>
+    <tableColumn id="4" xr3:uid="{3EDB42AB-AB59-4B1D-8A65-B620DA9711FD}" name="Link" dataCellStyle="Hyperlink"/>
   </tableColumns>
   <tableStyleInfo showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -832,7 +872,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:E38"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B28" workbookViewId="0">
+    <sheetView topLeftCell="B1" workbookViewId="0">
       <selection activeCell="D46" sqref="D46"/>
     </sheetView>
   </sheetViews>
@@ -1537,4 +1577,64 @@
     <tablePart r:id="rId39"/>
   </tableParts>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4C3D48E0-4D21-4751-ABF7-460D56FF37CF}">
+  <dimension ref="A1:E2"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="E13" sqref="E13"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="39.85546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.42578125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="15.85546875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="62.140625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="165" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>136</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="C2" t="s">
+        <v>137</v>
+      </c>
+      <c r="D2" t="s">
+        <v>139</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>138</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+  <tableParts count="1">
+    <tablePart r:id="rId2"/>
+  </tableParts>
+</worksheet>
 </file>
--- a/java/Mixed_Review.xlsx
+++ b/java/Mixed_Review.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\JP\Desktop\Home_folder\workspace\library\java\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DF7D30DA-989D-47D6-898C-8CE438F3EB5A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{80C7B9D5-5247-4124-83FC-EE832AEEA15A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="200" uniqueCount="140">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="210" uniqueCount="145">
   <si>
     <t>Question</t>
   </si>
@@ -457,6 +457,21 @@
   </si>
   <si>
     <t>Optimal is 1 pass with complement hashtable.</t>
+  </si>
+  <si>
+    <t>Two Pointers</t>
+  </si>
+  <si>
+    <t>121. Best Time to Buy and Sell Stock</t>
+  </si>
+  <si>
+    <t>Kadane's is optimal,  but 2 pointers is best for intereview setting. Updating least so far is also intuitive.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://leetcode.com/problems/best-time-to-buy-and-sell-stock/solutions/1735493/java-c-best-ever-explanation-could-possible/ </t>
+  </si>
+  <si>
+    <t>Remember the recursive relation argmax(dfs(i-2) + curr, dfs(i-1)).</t>
   </si>
 </sst>
 </file>
@@ -594,8 +609,8 @@
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{B0889DD6-65BF-4CF4-A25E-553A3E1C807F}" name="Table22" displayName="Table22" ref="A1:E2" totalsRowShown="0" headerRowDxfId="1">
-  <autoFilter ref="A1:E2" xr:uid="{8A5E5259-EAE7-4B70-A567-E3F2ADB589C1}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{B0889DD6-65BF-4CF4-A25E-553A3E1C807F}" name="Table22" displayName="Table22" ref="A1:E4" totalsRowShown="0" headerRowDxfId="1">
+  <autoFilter ref="A1:E4" xr:uid="{8A5E5259-EAE7-4B70-A567-E3F2ADB589C1}"/>
   <tableColumns count="5">
     <tableColumn id="1" xr3:uid="{48BE1778-7CDA-4ED7-830C-FBF7CEC5F641}" name="Question"/>
     <tableColumn id="2" xr3:uid="{BB2891EA-9253-4017-A45F-1AE59DC7D5B3}" name="Difficulty" dataDxfId="0"/>
@@ -1581,17 +1596,17 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4C3D48E0-4D21-4751-ABF7-460D56FF37CF}">
-  <dimension ref="A1:E2"/>
+  <dimension ref="A1:E4"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="E13" sqref="E13"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D9" sqref="D9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="39.85546875" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="11.42578125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="15.85546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="21.140625" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="62.140625" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="165" bestFit="1" customWidth="1"/>
   </cols>
@@ -1630,11 +1645,49 @@
         <v>138</v>
       </c>
     </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>141</v>
+      </c>
+      <c r="B3" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3" t="s">
+        <v>140</v>
+      </c>
+      <c r="D3" t="s">
+        <v>142</v>
+      </c>
+      <c r="E3" s="2" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>130</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="C4" t="s">
+        <v>12</v>
+      </c>
+      <c r="D4" t="s">
+        <v>144</v>
+      </c>
+      <c r="E4" s="2" t="s">
+        <v>131</v>
+      </c>
+    </row>
   </sheetData>
+  <hyperlinks>
+    <hyperlink ref="E3" r:id="rId1" xr:uid="{3F490A31-5AB1-4485-AEC8-D9DAADB8AED5}"/>
+    <hyperlink ref="E4" r:id="rId2" xr:uid="{6F07B1F3-B91B-454D-A5F9-3449B38DB3B0}"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId1"/>
+  <pageSetup orientation="portrait" r:id="rId3"/>
   <tableParts count="1">
-    <tablePart r:id="rId2"/>
+    <tablePart r:id="rId4"/>
   </tableParts>
 </worksheet>
 </file>
--- a/java/Mixed_Review.xlsx
+++ b/java/Mixed_Review.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\JP\Desktop\Home_folder\workspace\library\java\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{80C7B9D5-5247-4124-83FC-EE832AEEA15A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D15AD586-13A0-4ADC-9615-68113B2142AB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="210" uniqueCount="145">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="220" uniqueCount="150">
   <si>
     <t>Question</t>
   </si>
@@ -471,7 +471,22 @@
     <t xml:space="preserve">https://leetcode.com/problems/best-time-to-buy-and-sell-stock/solutions/1735493/java-c-best-ever-explanation-could-possible/ </t>
   </si>
   <si>
-    <t>Remember the recursive relation argmax(dfs(i-2) + curr, dfs(i-1)).</t>
+    <t>206. Reverse Linked List</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://leetcode.com/problems/reverse-linked-list/solutions/58125/in-place-iterative-and-recursive-java-solution/ </t>
+  </si>
+  <si>
+    <t>Recursive relation argmax(dfs(i-2) + curr, dfs(i-1)).</t>
+  </si>
+  <si>
+    <t>LL traversal and manipulation template. Remembering the recursive solution is helpful for later.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://leetcode.com/problems/jump-game/solutions/2375320/interview-scenario-recursion-memoization-dp-greedy/ </t>
+  </si>
+  <si>
+    <t>DFS &gt; Top-down memo &gt; Bottom-up DP &gt; Reach solution. Analysis</t>
   </si>
 </sst>
 </file>
@@ -609,8 +624,8 @@
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{B0889DD6-65BF-4CF4-A25E-553A3E1C807F}" name="Table22" displayName="Table22" ref="A1:E4" totalsRowShown="0" headerRowDxfId="1">
-  <autoFilter ref="A1:E4" xr:uid="{8A5E5259-EAE7-4B70-A567-E3F2ADB589C1}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{B0889DD6-65BF-4CF4-A25E-553A3E1C807F}" name="Table22" displayName="Table22" ref="A1:E6" totalsRowShown="0" headerRowDxfId="1">
+  <autoFilter ref="A1:E6" xr:uid="{8A5E5259-EAE7-4B70-A567-E3F2ADB589C1}"/>
   <tableColumns count="5">
     <tableColumn id="1" xr3:uid="{48BE1778-7CDA-4ED7-830C-FBF7CEC5F641}" name="Question"/>
     <tableColumn id="2" xr3:uid="{BB2891EA-9253-4017-A45F-1AE59DC7D5B3}" name="Difficulty" dataDxfId="0"/>
@@ -1596,10 +1611,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4C3D48E0-4D21-4751-ABF7-460D56FF37CF}">
-  <dimension ref="A1:E4"/>
+  <dimension ref="A1:E6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D9" sqref="D9"/>
+      <selection activeCell="D15" sqref="D15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1673,21 +1688,57 @@
         <v>12</v>
       </c>
       <c r="D4" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="E4" s="2" t="s">
         <v>131</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>144</v>
+      </c>
+      <c r="B5" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="C5" t="s">
+        <v>104</v>
+      </c>
+      <c r="D5" t="s">
+        <v>147</v>
+      </c>
+      <c r="E5" s="2" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>118</v>
+      </c>
+      <c r="B6" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="C6" t="s">
+        <v>12</v>
+      </c>
+      <c r="D6" t="s">
+        <v>149</v>
+      </c>
+      <c r="E6" s="2" t="s">
+        <v>148</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="E3" r:id="rId1" xr:uid="{3F490A31-5AB1-4485-AEC8-D9DAADB8AED5}"/>
     <hyperlink ref="E4" r:id="rId2" xr:uid="{6F07B1F3-B91B-454D-A5F9-3449B38DB3B0}"/>
+    <hyperlink ref="E5" r:id="rId3" xr:uid="{2115C330-82FA-4BD8-8739-C97FBF177386}"/>
+    <hyperlink ref="E6" r:id="rId4" xr:uid="{3B2E9035-D82F-42A4-84AA-F23669231012}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId3"/>
+  <pageSetup orientation="portrait" r:id="rId5"/>
   <tableParts count="1">
-    <tablePart r:id="rId4"/>
+    <tablePart r:id="rId6"/>
   </tableParts>
 </worksheet>
 </file>
--- a/java/Mixed_Review.xlsx
+++ b/java/Mixed_Review.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\JP\Desktop\Home_folder\workspace\library\java\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D15AD586-13A0-4ADC-9615-68113B2142AB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{249DA5E9-AAA4-4ABC-8912-FF0A887F1271}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="220" uniqueCount="150">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="230" uniqueCount="156">
   <si>
     <t>Question</t>
   </si>
@@ -477,9 +477,6 @@
     <t xml:space="preserve">https://leetcode.com/problems/reverse-linked-list/solutions/58125/in-place-iterative-and-recursive-java-solution/ </t>
   </si>
   <si>
-    <t>Recursive relation argmax(dfs(i-2) + curr, dfs(i-1)).</t>
-  </si>
-  <si>
     <t>LL traversal and manipulation template. Remembering the recursive solution is helpful for later.</t>
   </si>
   <si>
@@ -487,6 +484,27 @@
   </si>
   <si>
     <t>DFS &gt; Top-down memo &gt; Bottom-up DP &gt; Reach solution. Analysis</t>
+  </si>
+  <si>
+    <t>Recursive relation argmax(dfs(i-2) + curr, dfs(i-1)). Fibonacci is Optimal.</t>
+  </si>
+  <si>
+    <t>https://leetcode.com/problems/invert-binary-tree/solutions/62707/straightforward-dfs-recursive-iterative-bfs-solutions/</t>
+  </si>
+  <si>
+    <t>Recursive DFS &gt; Stack &gt; Iterative BFS (Level Order Traversal)</t>
+  </si>
+  <si>
+    <t>226. Invert Binary Tree</t>
+  </si>
+  <si>
+    <t>104. Maximum Depth of Binary Tree</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://leetcode.com/problems/maximum-depth-of-binary-tree/solutions/1770060/c-recursive-dfs-example-dry-run-well-explained/ </t>
+  </si>
+  <si>
+    <t>Recursive DFS of both sides, and recursive relation of max(maxL, maxR)+1;</t>
   </si>
 </sst>
 </file>
@@ -624,8 +642,8 @@
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{B0889DD6-65BF-4CF4-A25E-553A3E1C807F}" name="Table22" displayName="Table22" ref="A1:E6" totalsRowShown="0" headerRowDxfId="1">
-  <autoFilter ref="A1:E6" xr:uid="{8A5E5259-EAE7-4B70-A567-E3F2ADB589C1}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{B0889DD6-65BF-4CF4-A25E-553A3E1C807F}" name="Table22" displayName="Table22" ref="A1:E8" totalsRowShown="0" headerRowDxfId="1">
+  <autoFilter ref="A1:E8" xr:uid="{8A5E5259-EAE7-4B70-A567-E3F2ADB589C1}"/>
   <tableColumns count="5">
     <tableColumn id="1" xr3:uid="{48BE1778-7CDA-4ED7-830C-FBF7CEC5F641}" name="Question"/>
     <tableColumn id="2" xr3:uid="{BB2891EA-9253-4017-A45F-1AE59DC7D5B3}" name="Difficulty" dataDxfId="0"/>
@@ -1611,10 +1629,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4C3D48E0-4D21-4751-ABF7-460D56FF37CF}">
-  <dimension ref="A1:E6"/>
+  <dimension ref="A1:E8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D15" sqref="D15"/>
+      <selection activeCell="E13" sqref="E13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1688,7 +1706,7 @@
         <v>12</v>
       </c>
       <c r="D4" t="s">
-        <v>146</v>
+        <v>149</v>
       </c>
       <c r="E4" s="2" t="s">
         <v>131</v>
@@ -1705,7 +1723,7 @@
         <v>104</v>
       </c>
       <c r="D5" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="E5" s="2" t="s">
         <v>145</v>
@@ -1722,10 +1740,44 @@
         <v>12</v>
       </c>
       <c r="D6" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>148</v>
+        <v>147</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>152</v>
+      </c>
+      <c r="B7" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="C7" t="s">
+        <v>27</v>
+      </c>
+      <c r="D7" t="s">
+        <v>151</v>
+      </c>
+      <c r="E7" s="2" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>153</v>
+      </c>
+      <c r="B8" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="C8" t="s">
+        <v>27</v>
+      </c>
+      <c r="D8" t="s">
+        <v>155</v>
+      </c>
+      <c r="E8" s="2" t="s">
+        <v>154</v>
       </c>
     </row>
   </sheetData>
@@ -1734,11 +1786,12 @@
     <hyperlink ref="E4" r:id="rId2" xr:uid="{6F07B1F3-B91B-454D-A5F9-3449B38DB3B0}"/>
     <hyperlink ref="E5" r:id="rId3" xr:uid="{2115C330-82FA-4BD8-8739-C97FBF177386}"/>
     <hyperlink ref="E6" r:id="rId4" xr:uid="{3B2E9035-D82F-42A4-84AA-F23669231012}"/>
+    <hyperlink ref="E8" r:id="rId5" xr:uid="{C9470CED-E83D-4B9E-9DFA-BB1F50A606EF}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId5"/>
+  <pageSetup orientation="portrait" r:id="rId6"/>
   <tableParts count="1">
-    <tablePart r:id="rId6"/>
+    <tablePart r:id="rId7"/>
   </tableParts>
 </worksheet>
 </file>
--- a/java/Mixed_Review.xlsx
+++ b/java/Mixed_Review.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\JP\Desktop\Home_folder\workspace\library\java\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{249DA5E9-AAA4-4ABC-8912-FF0A887F1271}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0D951508-A3F9-4296-BBCC-BE5F319ABA71}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="230" uniqueCount="156">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="235" uniqueCount="159">
   <si>
     <t>Question</t>
   </si>
@@ -505,6 +505,15 @@
   </si>
   <si>
     <t>Recursive DFS of both sides, and recursive relation of max(maxL, maxR)+1;</t>
+  </si>
+  <si>
+    <t>543. Diameter of Binary Tree</t>
+  </si>
+  <si>
+    <t>Recursive DFS of both sides, track d from top level. Recursive relation of ld = dfs(root.left, d), and same for rd. d = max(d, ld + rd), but return max(ld, rd) + 1. Know difference between height and diameter.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://leetcode.com/problems/diameter-of-binary-tree/solutions/573591/c-5-lines-o-n-solution/ </t>
   </si>
 </sst>
 </file>
@@ -642,8 +651,8 @@
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{B0889DD6-65BF-4CF4-A25E-553A3E1C807F}" name="Table22" displayName="Table22" ref="A1:E8" totalsRowShown="0" headerRowDxfId="1">
-  <autoFilter ref="A1:E8" xr:uid="{8A5E5259-EAE7-4B70-A567-E3F2ADB589C1}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{B0889DD6-65BF-4CF4-A25E-553A3E1C807F}" name="Table22" displayName="Table22" ref="A1:E9" totalsRowShown="0" headerRowDxfId="1">
+  <autoFilter ref="A1:E9" xr:uid="{8A5E5259-EAE7-4B70-A567-E3F2ADB589C1}"/>
   <tableColumns count="5">
     <tableColumn id="1" xr3:uid="{48BE1778-7CDA-4ED7-830C-FBF7CEC5F641}" name="Question"/>
     <tableColumn id="2" xr3:uid="{BB2891EA-9253-4017-A45F-1AE59DC7D5B3}" name="Difficulty" dataDxfId="0"/>
@@ -1629,10 +1638,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4C3D48E0-4D21-4751-ABF7-460D56FF37CF}">
-  <dimension ref="A1:E8"/>
+  <dimension ref="A1:E9"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E13" sqref="E13"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="E19" sqref="E19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1780,6 +1789,23 @@
         <v>154</v>
       </c>
     </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>156</v>
+      </c>
+      <c r="B9" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="C9" t="s">
+        <v>27</v>
+      </c>
+      <c r="D9" t="s">
+        <v>157</v>
+      </c>
+      <c r="E9" s="2" t="s">
+        <v>158</v>
+      </c>
+    </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="E3" r:id="rId1" xr:uid="{3F490A31-5AB1-4485-AEC8-D9DAADB8AED5}"/>
@@ -1787,11 +1813,12 @@
     <hyperlink ref="E5" r:id="rId3" xr:uid="{2115C330-82FA-4BD8-8739-C97FBF177386}"/>
     <hyperlink ref="E6" r:id="rId4" xr:uid="{3B2E9035-D82F-42A4-84AA-F23669231012}"/>
     <hyperlink ref="E8" r:id="rId5" xr:uid="{C9470CED-E83D-4B9E-9DFA-BB1F50A606EF}"/>
+    <hyperlink ref="E9" r:id="rId6" xr:uid="{772F0C94-876B-4C4F-8F65-A5BE32CE5C94}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId6"/>
+  <pageSetup orientation="portrait" r:id="rId7"/>
   <tableParts count="1">
-    <tablePart r:id="rId7"/>
+    <tablePart r:id="rId8"/>
   </tableParts>
 </worksheet>
 </file>
--- a/java/Mixed_Review.xlsx
+++ b/java/Mixed_Review.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\JP\Desktop\Home_folder\workspace\library\java\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0D951508-A3F9-4296-BBCC-BE5F319ABA71}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B580BC7C-94A0-4974-A9AA-0186DF5E27F8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="235" uniqueCount="159">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="245" uniqueCount="165">
   <si>
     <t>Question</t>
   </si>
@@ -514,6 +514,24 @@
   </si>
   <si>
     <t xml:space="preserve">https://leetcode.com/problems/diameter-of-binary-tree/solutions/573591/c-5-lines-o-n-solution/ </t>
+  </si>
+  <si>
+    <t>110. Balanced Binary Tree</t>
+  </si>
+  <si>
+    <t>100. Same Tree</t>
+  </si>
+  <si>
+    <t>Base case: both null, or only 1 null or vals are not equal. Recursive step: dfs(p.left, q.left) &amp;&amp; dfs(p.right, q.right)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://leetcode.com/problems/same-tree/solutions/3746149/recursive-approach-with-easy-steps/ </t>
+  </si>
+  <si>
+    <t>https://leetcode.com/problems/balanced-binary-tree/</t>
+  </si>
+  <si>
+    <t>Keep global variable. Recursion with base case if root is null, left and right height, and check diff between l and r at each iteration. Return 1 + max(l,r).</t>
   </si>
 </sst>
 </file>
@@ -651,8 +669,8 @@
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{B0889DD6-65BF-4CF4-A25E-553A3E1C807F}" name="Table22" displayName="Table22" ref="A1:E9" totalsRowShown="0" headerRowDxfId="1">
-  <autoFilter ref="A1:E9" xr:uid="{8A5E5259-EAE7-4B70-A567-E3F2ADB589C1}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{B0889DD6-65BF-4CF4-A25E-553A3E1C807F}" name="Table22" displayName="Table22" ref="A1:E11" totalsRowShown="0" headerRowDxfId="1">
+  <autoFilter ref="A1:E11" xr:uid="{8A5E5259-EAE7-4B70-A567-E3F2ADB589C1}"/>
   <tableColumns count="5">
     <tableColumn id="1" xr3:uid="{48BE1778-7CDA-4ED7-830C-FBF7CEC5F641}" name="Question"/>
     <tableColumn id="2" xr3:uid="{BB2891EA-9253-4017-A45F-1AE59DC7D5B3}" name="Difficulty" dataDxfId="0"/>
@@ -1638,10 +1656,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4C3D48E0-4D21-4751-ABF7-460D56FF37CF}">
-  <dimension ref="A1:E9"/>
+  <dimension ref="A1:E11"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="E19" sqref="E19"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D21" sqref="D21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1806,6 +1824,40 @@
         <v>158</v>
       </c>
     </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>159</v>
+      </c>
+      <c r="B10" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="C10" t="s">
+        <v>27</v>
+      </c>
+      <c r="D10" t="s">
+        <v>164</v>
+      </c>
+      <c r="E10" s="2" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>160</v>
+      </c>
+      <c r="B11" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="C11" t="s">
+        <v>27</v>
+      </c>
+      <c r="D11" t="s">
+        <v>161</v>
+      </c>
+      <c r="E11" s="2" t="s">
+        <v>162</v>
+      </c>
+    </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="E3" r:id="rId1" xr:uid="{3F490A31-5AB1-4485-AEC8-D9DAADB8AED5}"/>
@@ -1814,11 +1866,13 @@
     <hyperlink ref="E6" r:id="rId4" xr:uid="{3B2E9035-D82F-42A4-84AA-F23669231012}"/>
     <hyperlink ref="E8" r:id="rId5" xr:uid="{C9470CED-E83D-4B9E-9DFA-BB1F50A606EF}"/>
     <hyperlink ref="E9" r:id="rId6" xr:uid="{772F0C94-876B-4C4F-8F65-A5BE32CE5C94}"/>
+    <hyperlink ref="E11" r:id="rId7" xr:uid="{6C752DB5-8FF9-4E46-85DE-D2CA9F9BBD01}"/>
+    <hyperlink ref="E10" r:id="rId8" xr:uid="{DF2B3B7D-025E-4C0E-A04D-20FDC87794D1}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId7"/>
+  <pageSetup orientation="portrait" r:id="rId9"/>
   <tableParts count="1">
-    <tablePart r:id="rId8"/>
+    <tablePart r:id="rId10"/>
   </tableParts>
 </worksheet>
 </file>
--- a/java/Mixed_Review.xlsx
+++ b/java/Mixed_Review.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\JP\Desktop\Home_folder\workspace\library\java\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B580BC7C-94A0-4974-A9AA-0186DF5E27F8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D3B05AD9-87CC-482A-8869-7031F51F457D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="245" uniqueCount="165">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="250" uniqueCount="168">
   <si>
     <t>Question</t>
   </si>
@@ -532,6 +532,15 @@
   </si>
   <si>
     <t>Keep global variable. Recursion with base case if root is null, left and right height, and check diff between l and r at each iteration. Return 1 + max(l,r).</t>
+  </si>
+  <si>
+    <t>704. Binary Search</t>
+  </si>
+  <si>
+    <t>Binary search. Remember off by 1 errors.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://leetcode.com/problems/binary-search/solutions/423162/binary-search-101/ </t>
   </si>
 </sst>
 </file>
@@ -669,8 +678,8 @@
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{B0889DD6-65BF-4CF4-A25E-553A3E1C807F}" name="Table22" displayName="Table22" ref="A1:E11" totalsRowShown="0" headerRowDxfId="1">
-  <autoFilter ref="A1:E11" xr:uid="{8A5E5259-EAE7-4B70-A567-E3F2ADB589C1}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{B0889DD6-65BF-4CF4-A25E-553A3E1C807F}" name="Table22" displayName="Table22" ref="A1:E12" totalsRowShown="0" headerRowDxfId="1">
+  <autoFilter ref="A1:E12" xr:uid="{8A5E5259-EAE7-4B70-A567-E3F2ADB589C1}"/>
   <tableColumns count="5">
     <tableColumn id="1" xr3:uid="{48BE1778-7CDA-4ED7-830C-FBF7CEC5F641}" name="Question"/>
     <tableColumn id="2" xr3:uid="{BB2891EA-9253-4017-A45F-1AE59DC7D5B3}" name="Difficulty" dataDxfId="0"/>
@@ -1656,10 +1665,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4C3D48E0-4D21-4751-ABF7-460D56FF37CF}">
-  <dimension ref="A1:E11"/>
+  <dimension ref="A1:E12"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D21" sqref="D21"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="D20" sqref="D20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1858,6 +1867,23 @@
         <v>162</v>
       </c>
     </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>165</v>
+      </c>
+      <c r="B12" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="C12" t="s">
+        <v>115</v>
+      </c>
+      <c r="D12" t="s">
+        <v>166</v>
+      </c>
+      <c r="E12" s="2" t="s">
+        <v>167</v>
+      </c>
+    </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="E3" r:id="rId1" xr:uid="{3F490A31-5AB1-4485-AEC8-D9DAADB8AED5}"/>
@@ -1868,11 +1894,12 @@
     <hyperlink ref="E9" r:id="rId6" xr:uid="{772F0C94-876B-4C4F-8F65-A5BE32CE5C94}"/>
     <hyperlink ref="E11" r:id="rId7" xr:uid="{6C752DB5-8FF9-4E46-85DE-D2CA9F9BBD01}"/>
     <hyperlink ref="E10" r:id="rId8" xr:uid="{DF2B3B7D-025E-4C0E-A04D-20FDC87794D1}"/>
+    <hyperlink ref="E12" r:id="rId9" xr:uid="{BDA469E2-DFCB-44C9-8807-CD5999379FA8}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId9"/>
+  <pageSetup orientation="portrait" r:id="rId10"/>
   <tableParts count="1">
-    <tablePart r:id="rId10"/>
+    <tablePart r:id="rId11"/>
   </tableParts>
 </worksheet>
 </file>
--- a/java/Mixed_Review.xlsx
+++ b/java/Mixed_Review.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\JP\Desktop\Home_folder\workspace\library\java\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D3B05AD9-87CC-482A-8869-7031F51F457D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1C4C8E44-2D93-467D-BAFB-1C11A732903D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="250" uniqueCount="168">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="255" uniqueCount="171">
   <si>
     <t>Question</t>
   </si>
@@ -541,6 +541,15 @@
   </si>
   <si>
     <t xml:space="preserve">https://leetcode.com/problems/binary-search/solutions/423162/binary-search-101/ </t>
+  </si>
+  <si>
+    <t>15. 3Sum</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://leetcode.com/problems/3sum/solutions/143636/java-with-set/ </t>
+  </si>
+  <si>
+    <t>Sort first. 2 Pointer Set method.</t>
   </si>
 </sst>
 </file>
@@ -678,8 +687,8 @@
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{B0889DD6-65BF-4CF4-A25E-553A3E1C807F}" name="Table22" displayName="Table22" ref="A1:E12" totalsRowShown="0" headerRowDxfId="1">
-  <autoFilter ref="A1:E12" xr:uid="{8A5E5259-EAE7-4B70-A567-E3F2ADB589C1}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{B0889DD6-65BF-4CF4-A25E-553A3E1C807F}" name="Table22" displayName="Table22" ref="A1:E13" totalsRowShown="0" headerRowDxfId="1">
+  <autoFilter ref="A1:E13" xr:uid="{8A5E5259-EAE7-4B70-A567-E3F2ADB589C1}"/>
   <tableColumns count="5">
     <tableColumn id="1" xr3:uid="{48BE1778-7CDA-4ED7-830C-FBF7CEC5F641}" name="Question"/>
     <tableColumn id="2" xr3:uid="{BB2891EA-9253-4017-A45F-1AE59DC7D5B3}" name="Difficulty" dataDxfId="0"/>
@@ -1665,10 +1674,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4C3D48E0-4D21-4751-ABF7-460D56FF37CF}">
-  <dimension ref="A1:E12"/>
+  <dimension ref="A1:E13"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="D20" sqref="D20"/>
+      <selection activeCell="E18" sqref="E18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1884,6 +1893,23 @@
         <v>167</v>
       </c>
     </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>168</v>
+      </c>
+      <c r="B13" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="C13" t="s">
+        <v>137</v>
+      </c>
+      <c r="D13" t="s">
+        <v>170</v>
+      </c>
+      <c r="E13" s="2" t="s">
+        <v>169</v>
+      </c>
+    </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="E3" r:id="rId1" xr:uid="{3F490A31-5AB1-4485-AEC8-D9DAADB8AED5}"/>
@@ -1895,11 +1921,12 @@
     <hyperlink ref="E11" r:id="rId7" xr:uid="{6C752DB5-8FF9-4E46-85DE-D2CA9F9BBD01}"/>
     <hyperlink ref="E10" r:id="rId8" xr:uid="{DF2B3B7D-025E-4C0E-A04D-20FDC87794D1}"/>
     <hyperlink ref="E12" r:id="rId9" xr:uid="{BDA469E2-DFCB-44C9-8807-CD5999379FA8}"/>
+    <hyperlink ref="E13" r:id="rId10" xr:uid="{6A001D82-4756-48FF-983A-3105D3B99AD1}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId10"/>
+  <pageSetup orientation="portrait" r:id="rId11"/>
   <tableParts count="1">
-    <tablePart r:id="rId11"/>
+    <tablePart r:id="rId12"/>
   </tableParts>
 </worksheet>
 </file>
--- a/java/Mixed_Review.xlsx
+++ b/java/Mixed_Review.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\JP\Desktop\Home_folder\workspace\library\java\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1C4C8E44-2D93-467D-BAFB-1C11A732903D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8809528B-68E6-4FB1-9A5F-9455D0080830}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="255" uniqueCount="171">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="266" uniqueCount="174">
   <si>
     <t>Question</t>
   </si>
@@ -504,9 +504,6 @@
     <t xml:space="preserve">https://leetcode.com/problems/maximum-depth-of-binary-tree/solutions/1770060/c-recursive-dfs-example-dry-run-well-explained/ </t>
   </si>
   <si>
-    <t>Recursive DFS of both sides, and recursive relation of max(maxL, maxR)+1;</t>
-  </si>
-  <si>
     <t>543. Diameter of Binary Tree</t>
   </si>
   <si>
@@ -550,6 +547,18 @@
   </si>
   <si>
     <t>Sort first. 2 Pointer Set method.</t>
+  </si>
+  <si>
+    <t>322. Coin Change</t>
+  </si>
+  <si>
+    <t>Recursive DFS of both sides, and recursive relation of max(maxL, maxR)+1; Know the stack iterative solution.</t>
+  </si>
+  <si>
+    <t>https://leetcode.com/problems/coin-change/solutions/3839103/recursive-approach-recursion-with-memoization-top-down-tabulation-method-bottom-up/</t>
+  </si>
+  <si>
+    <t>Base case is amount remain = 0 then 0, and amount &lt; 0 then return -1 invalid. We are getting the remainder at each step and looking for a solution with a 0 remainder exactly. Recursive relation ship is count = coinCount(coins, amount - coins[i]). Then maintain and update minCoins = min(minCoins, 1 + count).</t>
   </si>
 </sst>
 </file>
@@ -687,8 +696,8 @@
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{B0889DD6-65BF-4CF4-A25E-553A3E1C807F}" name="Table22" displayName="Table22" ref="A1:E13" totalsRowShown="0" headerRowDxfId="1">
-  <autoFilter ref="A1:E13" xr:uid="{8A5E5259-EAE7-4B70-A567-E3F2ADB589C1}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{B0889DD6-65BF-4CF4-A25E-553A3E1C807F}" name="Table22" displayName="Table22" ref="A1:E16" totalsRowShown="0" headerRowDxfId="1">
+  <autoFilter ref="A1:E16" xr:uid="{8A5E5259-EAE7-4B70-A567-E3F2ADB589C1}"/>
   <tableColumns count="5">
     <tableColumn id="1" xr3:uid="{48BE1778-7CDA-4ED7-830C-FBF7CEC5F641}" name="Question"/>
     <tableColumn id="2" xr3:uid="{BB2891EA-9253-4017-A45F-1AE59DC7D5B3}" name="Difficulty" dataDxfId="0"/>
@@ -1674,10 +1683,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4C3D48E0-4D21-4751-ABF7-460D56FF37CF}">
-  <dimension ref="A1:E13"/>
+  <dimension ref="A1:E16"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="E18" sqref="E18"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D16" sqref="D16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1819,7 +1828,7 @@
         <v>27</v>
       </c>
       <c r="D8" t="s">
-        <v>155</v>
+        <v>171</v>
       </c>
       <c r="E8" s="2" t="s">
         <v>154</v>
@@ -1827,7 +1836,7 @@
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="B9" s="3" t="s">
         <v>5</v>
@@ -1836,15 +1845,15 @@
         <v>27</v>
       </c>
       <c r="D9" t="s">
+        <v>156</v>
+      </c>
+      <c r="E9" s="2" t="s">
         <v>157</v>
-      </c>
-      <c r="E9" s="2" t="s">
-        <v>158</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="B10" s="3" t="s">
         <v>5</v>
@@ -1853,15 +1862,15 @@
         <v>27</v>
       </c>
       <c r="D10" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="E10" s="2" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="B11" s="3" t="s">
         <v>5</v>
@@ -1870,15 +1879,15 @@
         <v>27</v>
       </c>
       <c r="D11" t="s">
+        <v>160</v>
+      </c>
+      <c r="E11" s="2" t="s">
         <v>161</v>
-      </c>
-      <c r="E11" s="2" t="s">
-        <v>162</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="B12" s="3" t="s">
         <v>5</v>
@@ -1887,15 +1896,15 @@
         <v>115</v>
       </c>
       <c r="D12" t="s">
+        <v>165</v>
+      </c>
+      <c r="E12" s="2" t="s">
         <v>166</v>
-      </c>
-      <c r="E12" s="2" t="s">
-        <v>167</v>
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="B13" s="4" t="s">
         <v>11</v>
@@ -1904,11 +1913,52 @@
         <v>137</v>
       </c>
       <c r="D13" t="s">
+        <v>169</v>
+      </c>
+      <c r="E13" s="2" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
         <v>170</v>
       </c>
-      <c r="E13" s="2" t="s">
-        <v>169</v>
-      </c>
+      <c r="B14" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="C14" t="s">
+        <v>12</v>
+      </c>
+      <c r="D14" t="s">
+        <v>173</v>
+      </c>
+      <c r="E14" s="2" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>121</v>
+      </c>
+      <c r="B15" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="C15" t="s">
+        <v>37</v>
+      </c>
+      <c r="E15" s="2"/>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>92</v>
+      </c>
+      <c r="B16" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="C16" t="s">
+        <v>53</v>
+      </c>
+      <c r="E16" s="2"/>
     </row>
   </sheetData>
   <hyperlinks>
@@ -1922,11 +1972,12 @@
     <hyperlink ref="E10" r:id="rId8" xr:uid="{DF2B3B7D-025E-4C0E-A04D-20FDC87794D1}"/>
     <hyperlink ref="E12" r:id="rId9" xr:uid="{BDA469E2-DFCB-44C9-8807-CD5999379FA8}"/>
     <hyperlink ref="E13" r:id="rId10" xr:uid="{6A001D82-4756-48FF-983A-3105D3B99AD1}"/>
+    <hyperlink ref="E14" r:id="rId11" xr:uid="{C8499DE6-5EC7-460B-9274-46A687B889DC}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId11"/>
+  <pageSetup orientation="portrait" r:id="rId12"/>
   <tableParts count="1">
-    <tablePart r:id="rId12"/>
+    <tablePart r:id="rId13"/>
   </tableParts>
 </worksheet>
 </file>
--- a/java/Mixed_Review.xlsx
+++ b/java/Mixed_Review.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\JP\Desktop\Home_folder\workspace\library\java\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8809528B-68E6-4FB1-9A5F-9455D0080830}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{653A23BE-EEDC-4243-B85E-9710A9BD093E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="266" uniqueCount="174">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="270" uniqueCount="177">
   <si>
     <t>Question</t>
   </si>
@@ -559,6 +559,15 @@
   </si>
   <si>
     <t>Base case is amount remain = 0 then 0, and amount &lt; 0 then return -1 invalid. We are getting the remainder at each step and looking for a solution with a 0 remainder exactly. Recursive relation ship is count = coinCount(coins, amount - coins[i]). Then maintain and update minCoins = min(minCoins, 1 + count).</t>
+  </si>
+  <si>
+    <t>Classic Stack, only need to maintain order in this one. Can do push complement method.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://leetcode.com/problems/valid-parentheses/solutions/9178/short-java-solution/ </t>
+  </si>
+  <si>
+    <t>Use a void backtrack function. Start from index 1. Remember the base case and passing new list in function argument, and iterating both k and I in the recursion. Remember the take and not take with .add() and .remove() of the current list.</t>
   </si>
 </sst>
 </file>
@@ -1685,8 +1694,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4C3D48E0-4D21-4751-ABF7-460D56FF37CF}">
   <dimension ref="A1:E16"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D16" sqref="D16"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="E20" sqref="E20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1946,7 +1955,12 @@
       <c r="C15" t="s">
         <v>37</v>
       </c>
-      <c r="E15" s="2"/>
+      <c r="D15" t="s">
+        <v>176</v>
+      </c>
+      <c r="E15" s="2" t="s">
+        <v>123</v>
+      </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
@@ -1958,7 +1972,12 @@
       <c r="C16" t="s">
         <v>53</v>
       </c>
-      <c r="E16" s="2"/>
+      <c r="D16" t="s">
+        <v>174</v>
+      </c>
+      <c r="E16" s="2" t="s">
+        <v>175</v>
+      </c>
     </row>
   </sheetData>
   <hyperlinks>
@@ -1973,11 +1992,13 @@
     <hyperlink ref="E12" r:id="rId9" xr:uid="{BDA469E2-DFCB-44C9-8807-CD5999379FA8}"/>
     <hyperlink ref="E13" r:id="rId10" xr:uid="{6A001D82-4756-48FF-983A-3105D3B99AD1}"/>
     <hyperlink ref="E14" r:id="rId11" xr:uid="{C8499DE6-5EC7-460B-9274-46A687B889DC}"/>
+    <hyperlink ref="E16" r:id="rId12" xr:uid="{650DDB33-C393-49EF-8B67-46346D715E0F}"/>
+    <hyperlink ref="E15" r:id="rId13" xr:uid="{92CBE994-F4E6-4B50-9C8A-E701D531A9F3}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId12"/>
+  <pageSetup orientation="portrait" r:id="rId14"/>
   <tableParts count="1">
-    <tablePart r:id="rId13"/>
+    <tablePart r:id="rId15"/>
   </tableParts>
 </worksheet>
 </file>
--- a/java/Mixed_Review.xlsx
+++ b/java/Mixed_Review.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\JP\Desktop\Home_folder\workspace\library\java\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{653A23BE-EEDC-4243-B85E-9710A9BD093E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0DB4956A-71A3-4B42-873E-C721B9CD5293}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="270" uniqueCount="177">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="278" uniqueCount="179">
   <si>
     <t>Question</t>
   </si>
@@ -568,6 +568,12 @@
   </si>
   <si>
     <t>Use a void backtrack function. Start from index 1. Remember the base case and passing new list in function argument, and iterating both k and I in the recursion. Remember the take and not take with .add() and .remove() of the current list.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://leetcode.com/problems/merge-two-sorted-lists/solutions/9715/java-1-ms-4-lines-codes-using-recursion/ </t>
+  </si>
+  <si>
+    <t>Use recursion. The key is to pass in the next node for the parameter for recursion.</t>
   </si>
 </sst>
 </file>
@@ -705,8 +711,8 @@
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{B0889DD6-65BF-4CF4-A25E-553A3E1C807F}" name="Table22" displayName="Table22" ref="A1:E16" totalsRowShown="0" headerRowDxfId="1">
-  <autoFilter ref="A1:E16" xr:uid="{8A5E5259-EAE7-4B70-A567-E3F2ADB589C1}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{B0889DD6-65BF-4CF4-A25E-553A3E1C807F}" name="Table22" displayName="Table22" ref="A1:E18" totalsRowShown="0" headerRowDxfId="1">
+  <autoFilter ref="A1:E18" xr:uid="{8A5E5259-EAE7-4B70-A567-E3F2ADB589C1}"/>
   <tableColumns count="5">
     <tableColumn id="1" xr3:uid="{48BE1778-7CDA-4ED7-830C-FBF7CEC5F641}" name="Question"/>
     <tableColumn id="2" xr3:uid="{BB2891EA-9253-4017-A45F-1AE59DC7D5B3}" name="Difficulty" dataDxfId="0"/>
@@ -1692,10 +1698,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4C3D48E0-4D21-4751-ABF7-460D56FF37CF}">
-  <dimension ref="A1:E16"/>
+  <dimension ref="A1:E18"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="E20" sqref="E20"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D19" sqref="D19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1977,6 +1983,35 @@
       </c>
       <c r="E16" s="2" t="s">
         <v>175</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>78</v>
+      </c>
+      <c r="B17" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="C17" t="s">
+        <v>137</v>
+      </c>
+      <c r="E17" s="2"/>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>133</v>
+      </c>
+      <c r="B18" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="C18" t="s">
+        <v>104</v>
+      </c>
+      <c r="D18" t="s">
+        <v>178</v>
+      </c>
+      <c r="E18" s="2" t="s">
+        <v>177</v>
       </c>
     </row>
   </sheetData>
@@ -1994,11 +2029,12 @@
     <hyperlink ref="E14" r:id="rId11" xr:uid="{C8499DE6-5EC7-460B-9274-46A687B889DC}"/>
     <hyperlink ref="E16" r:id="rId12" xr:uid="{650DDB33-C393-49EF-8B67-46346D715E0F}"/>
     <hyperlink ref="E15" r:id="rId13" xr:uid="{92CBE994-F4E6-4B50-9C8A-E701D531A9F3}"/>
+    <hyperlink ref="E18" r:id="rId14" xr:uid="{63DBCB39-195A-4EFF-84AE-C88448A6B3E6}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId14"/>
+  <pageSetup orientation="portrait" r:id="rId15"/>
   <tableParts count="1">
-    <tablePart r:id="rId15"/>
+    <tablePart r:id="rId16"/>
   </tableParts>
 </worksheet>
 </file>
--- a/java/Mixed_Review.xlsx
+++ b/java/Mixed_Review.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\JP\Desktop\Home_folder\workspace\library\java\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0DB4956A-71A3-4B42-873E-C721B9CD5293}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4CF6965C-620E-47DA-BD7C-F1B86129FD66}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="278" uniqueCount="179">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="280" uniqueCount="181">
   <si>
     <t>Question</t>
   </si>
@@ -574,6 +574,12 @@
   </si>
   <si>
     <t>Use recursion. The key is to pass in the next node for the parameter for recursion.</t>
+  </si>
+  <si>
+    <t>Stack + Queue solution works. Negatives in this case can just be returned as false. The optimal solution is storing 2 variables for the integer and reversing the other half.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://leetcode.com/problems/palindrome-number/solutions/3213890/fastest-java-solution/ </t>
   </si>
 </sst>
 </file>
@@ -1700,8 +1706,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4C3D48E0-4D21-4751-ABF7-460D56FF37CF}">
   <dimension ref="A1:E18"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D19" sqref="D19"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="E26" sqref="E26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1995,7 +2001,12 @@
       <c r="C17" t="s">
         <v>137</v>
       </c>
-      <c r="E17" s="2"/>
+      <c r="D17" t="s">
+        <v>179</v>
+      </c>
+      <c r="E17" s="2" t="s">
+        <v>180</v>
+      </c>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
@@ -2030,11 +2041,12 @@
     <hyperlink ref="E16" r:id="rId12" xr:uid="{650DDB33-C393-49EF-8B67-46346D715E0F}"/>
     <hyperlink ref="E15" r:id="rId13" xr:uid="{92CBE994-F4E6-4B50-9C8A-E701D531A9F3}"/>
     <hyperlink ref="E18" r:id="rId14" xr:uid="{63DBCB39-195A-4EFF-84AE-C88448A6B3E6}"/>
+    <hyperlink ref="E17" r:id="rId15" xr:uid="{B0E4E699-B202-439B-BB91-02418FE131FA}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId15"/>
+  <pageSetup orientation="portrait" r:id="rId16"/>
   <tableParts count="1">
-    <tablePart r:id="rId16"/>
+    <tablePart r:id="rId17"/>
   </tableParts>
 </worksheet>
 </file>
--- a/java/Mixed_Review.xlsx
+++ b/java/Mixed_Review.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\JP\Desktop\Home_folder\workspace\library\java\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4CF6965C-620E-47DA-BD7C-F1B86129FD66}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{08FEAB19-C32F-4FFD-9BAA-2D85E2FECE5B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="280" uniqueCount="181">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="285" uniqueCount="184">
   <si>
     <t>Question</t>
   </si>
@@ -546,9 +546,6 @@
     <t xml:space="preserve">https://leetcode.com/problems/3sum/solutions/143636/java-with-set/ </t>
   </si>
   <si>
-    <t>Sort first. 2 Pointer Set method.</t>
-  </si>
-  <si>
     <t>322. Coin Change</t>
   </si>
   <si>
@@ -580,6 +577,18 @@
   </si>
   <si>
     <t xml:space="preserve">https://leetcode.com/problems/palindrome-number/solutions/3213890/fastest-java-solution/ </t>
+  </si>
+  <si>
+    <t>2334. Subarray With Elements Greater Than Varying Threshold</t>
+  </si>
+  <si>
+    <t>Sort first. 2 Pointer Set method to deal with duplicates.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://leetcode.com/problems/subarray-with-elements-greater-than-varying-threshold/solutions/2260048/java-solution-using-monotonic-stack-with-explanation/?envType=company&amp;envId=tiktok&amp;favoriteSlug=tiktok-thirty-days </t>
+  </si>
+  <si>
+    <t>Monotonic Stack for min element of each subarray and length of subarray. Brute force way is to create all subarrays.</t>
   </si>
 </sst>
 </file>
@@ -717,8 +726,8 @@
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{B0889DD6-65BF-4CF4-A25E-553A3E1C807F}" name="Table22" displayName="Table22" ref="A1:E18" totalsRowShown="0" headerRowDxfId="1">
-  <autoFilter ref="A1:E18" xr:uid="{8A5E5259-EAE7-4B70-A567-E3F2ADB589C1}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{B0889DD6-65BF-4CF4-A25E-553A3E1C807F}" name="Table22" displayName="Table22" ref="A1:E19" totalsRowShown="0" headerRowDxfId="1">
+  <autoFilter ref="A1:E19" xr:uid="{8A5E5259-EAE7-4B70-A567-E3F2ADB589C1}"/>
   <tableColumns count="5">
     <tableColumn id="1" xr3:uid="{48BE1778-7CDA-4ED7-830C-FBF7CEC5F641}" name="Question"/>
     <tableColumn id="2" xr3:uid="{BB2891EA-9253-4017-A45F-1AE59DC7D5B3}" name="Difficulty" dataDxfId="0"/>
@@ -1704,10 +1713,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4C3D48E0-4D21-4751-ABF7-460D56FF37CF}">
-  <dimension ref="A1:E18"/>
+  <dimension ref="A1:E19"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="E26" sqref="E26"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D20" sqref="D20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1849,7 +1858,7 @@
         <v>27</v>
       </c>
       <c r="D8" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="E8" s="2" t="s">
         <v>154</v>
@@ -1934,7 +1943,7 @@
         <v>137</v>
       </c>
       <c r="D13" t="s">
-        <v>169</v>
+        <v>181</v>
       </c>
       <c r="E13" s="2" t="s">
         <v>168</v>
@@ -1942,7 +1951,7 @@
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="B14" s="4" t="s">
         <v>11</v>
@@ -1951,10 +1960,10 @@
         <v>12</v>
       </c>
       <c r="D14" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="E14" s="2" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.25">
@@ -1968,7 +1977,7 @@
         <v>37</v>
       </c>
       <c r="D15" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="E15" s="2" t="s">
         <v>123</v>
@@ -1985,10 +1994,10 @@
         <v>53</v>
       </c>
       <c r="D16" t="s">
+        <v>173</v>
+      </c>
+      <c r="E16" s="2" t="s">
         <v>174</v>
-      </c>
-      <c r="E16" s="2" t="s">
-        <v>175</v>
       </c>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.25">
@@ -2002,10 +2011,10 @@
         <v>137</v>
       </c>
       <c r="D17" t="s">
+        <v>178</v>
+      </c>
+      <c r="E17" s="2" t="s">
         <v>179</v>
-      </c>
-      <c r="E17" s="2" t="s">
-        <v>180</v>
       </c>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.25">
@@ -2019,10 +2028,27 @@
         <v>104</v>
       </c>
       <c r="D18" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="E18" s="2" t="s">
-        <v>177</v>
+        <v>176</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>180</v>
+      </c>
+      <c r="B19" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="C19" t="s">
+        <v>53</v>
+      </c>
+      <c r="D19" t="s">
+        <v>183</v>
+      </c>
+      <c r="E19" s="2" t="s">
+        <v>182</v>
       </c>
     </row>
   </sheetData>
@@ -2042,11 +2068,12 @@
     <hyperlink ref="E15" r:id="rId13" xr:uid="{92CBE994-F4E6-4B50-9C8A-E701D531A9F3}"/>
     <hyperlink ref="E18" r:id="rId14" xr:uid="{63DBCB39-195A-4EFF-84AE-C88448A6B3E6}"/>
     <hyperlink ref="E17" r:id="rId15" xr:uid="{B0E4E699-B202-439B-BB91-02418FE131FA}"/>
+    <hyperlink ref="E19" r:id="rId16" xr:uid="{AD78662D-756E-4A9C-A2AA-A11F6410E509}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId16"/>
+  <pageSetup orientation="portrait" r:id="rId17"/>
   <tableParts count="1">
-    <tablePart r:id="rId17"/>
+    <tablePart r:id="rId18"/>
   </tableParts>
 </worksheet>
 </file>
--- a/java/Mixed_Review.xlsx
+++ b/java/Mixed_Review.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\JP\Desktop\Home_folder\workspace\library\java\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{08FEAB19-C32F-4FFD-9BAA-2D85E2FECE5B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8CCD4420-5FD6-4D5D-961D-AED9FBEBFACD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="285" uniqueCount="184">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="336" uniqueCount="206">
   <si>
     <t>Question</t>
   </si>
@@ -589,6 +589,72 @@
   </si>
   <si>
     <t>Monotonic Stack for min element of each subarray and length of subarray. Brute force way is to create all subarrays.</t>
+  </si>
+  <si>
+    <t>1647. Minimum Deletions to Make Character Frequencies Unique</t>
+  </si>
+  <si>
+    <t>252. Meeting Rooms</t>
+  </si>
+  <si>
+    <t>253. Meeting Rooms 2</t>
+  </si>
+  <si>
+    <t>735. Asteroid Collision</t>
+  </si>
+  <si>
+    <t>694. Number of Distinct Islands</t>
+  </si>
+  <si>
+    <t>Use a freq array and set and use greedy approach and delete chars until you find an unused count or reach 0.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://leetcode.com/problems/minimum-deletions-to-make-character-frequencies-unique/solutions/927549/c-java-python-3-greedy/ </t>
+  </si>
+  <si>
+    <t>39. Combination Sum</t>
+  </si>
+  <si>
+    <t>146. LRU Cache</t>
+  </si>
+  <si>
+    <t>316. Remove Duplicate Letters</t>
+  </si>
+  <si>
+    <t>1081. Smallest Subsequence of Distinct Characters</t>
+  </si>
+  <si>
+    <t>1997. First Day Where You Have Been in All the Rooms</t>
+  </si>
+  <si>
+    <t>2523. Closest Prime Numbers in Range</t>
+  </si>
+  <si>
+    <t>69. Sqrt(x)</t>
+  </si>
+  <si>
+    <t>227. Basic Calculator 2</t>
+  </si>
+  <si>
+    <t>286. Walls and Gates</t>
+  </si>
+  <si>
+    <t>They key is to use lambda expression to sort the intervals. Arrays.sort(intervals, (x,y) -&gt; x[0] - y[0]);</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://leetcode.com/problems/meeting-rooms/solutions/67786/ac-clean-java-solution/ </t>
+  </si>
+  <si>
+    <t>https://leetcode.com/problems/meeting-rooms-ii/solutions/67857/ac-java-solution-using-min-heap/?envType=company&amp;envId=tiktok&amp;favoriteSlug=tiktok-thirty-days</t>
+  </si>
+  <si>
+    <t>Use a Min Heap (priority queue) to track the min end time of merged intervals.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://leetcode.com/problems/merge-intervals/solutions/21222/a-simple-java-solution/ </t>
+  </si>
+  <si>
+    <t>Classic merge intervals. Use sort intervals using lambda expression. Just compare the sorted intervals and merge. Sorting is O(nlogn) time and merge intervals takes O(n).</t>
   </si>
 </sst>
 </file>
@@ -726,8 +792,8 @@
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{B0889DD6-65BF-4CF4-A25E-553A3E1C807F}" name="Table22" displayName="Table22" ref="A1:E19" totalsRowShown="0" headerRowDxfId="1">
-  <autoFilter ref="A1:E19" xr:uid="{8A5E5259-EAE7-4B70-A567-E3F2ADB589C1}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{B0889DD6-65BF-4CF4-A25E-553A3E1C807F}" name="Table22" displayName="Table22" ref="A1:E37" totalsRowShown="0" headerRowDxfId="1">
+  <autoFilter ref="A1:E37" xr:uid="{8A5E5259-EAE7-4B70-A567-E3F2ADB589C1}"/>
   <tableColumns count="5">
     <tableColumn id="1" xr3:uid="{48BE1778-7CDA-4ED7-830C-FBF7CEC5F641}" name="Question"/>
     <tableColumn id="2" xr3:uid="{BB2891EA-9253-4017-A45F-1AE59DC7D5B3}" name="Difficulty" dataDxfId="0"/>
@@ -1713,10 +1779,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4C3D48E0-4D21-4751-ABF7-460D56FF37CF}">
-  <dimension ref="A1:E19"/>
+  <dimension ref="A1:E37"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D20" sqref="D20"/>
+    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="D23" sqref="D23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2050,6 +2116,209 @@
       <c r="E19" s="2" t="s">
         <v>182</v>
       </c>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>184</v>
+      </c>
+      <c r="B20" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="C20" t="s">
+        <v>137</v>
+      </c>
+      <c r="D20" t="s">
+        <v>189</v>
+      </c>
+      <c r="E20" s="2" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>185</v>
+      </c>
+      <c r="B21" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="C21" t="s">
+        <v>100</v>
+      </c>
+      <c r="D21" t="s">
+        <v>200</v>
+      </c>
+      <c r="E21" s="2" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>99</v>
+      </c>
+      <c r="B22" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="C22" t="s">
+        <v>100</v>
+      </c>
+      <c r="D22" t="s">
+        <v>205</v>
+      </c>
+      <c r="E22" s="2" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
+        <v>186</v>
+      </c>
+      <c r="B23" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="C23" t="s">
+        <v>100</v>
+      </c>
+      <c r="D23" t="s">
+        <v>203</v>
+      </c>
+      <c r="E23" s="2" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
+        <v>187</v>
+      </c>
+      <c r="B24" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="C24" t="s">
+        <v>53</v>
+      </c>
+      <c r="E24" s="2"/>
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
+        <v>110</v>
+      </c>
+      <c r="B25" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="C25" t="s">
+        <v>111</v>
+      </c>
+      <c r="E25" s="2"/>
+    </row>
+    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
+        <v>188</v>
+      </c>
+      <c r="B26" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="C26" t="s">
+        <v>111</v>
+      </c>
+      <c r="E26" s="2"/>
+    </row>
+    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A27" t="s">
+        <v>191</v>
+      </c>
+      <c r="B27" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="E27" s="2"/>
+    </row>
+    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A28" t="s">
+        <v>192</v>
+      </c>
+      <c r="B28" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="E28" s="2"/>
+    </row>
+    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A29" t="s">
+        <v>193</v>
+      </c>
+      <c r="B29" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="E29" s="2"/>
+    </row>
+    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A30" t="s">
+        <v>194</v>
+      </c>
+      <c r="B30" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="E30" s="2"/>
+    </row>
+    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A31" t="s">
+        <v>195</v>
+      </c>
+      <c r="B31" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="E31" s="2"/>
+    </row>
+    <row r="32" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A32" t="s">
+        <v>196</v>
+      </c>
+      <c r="B32" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="E32" s="2"/>
+    </row>
+    <row r="33" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A33" t="s">
+        <v>197</v>
+      </c>
+      <c r="B33" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="E33" s="2"/>
+    </row>
+    <row r="34" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A34" t="s">
+        <v>121</v>
+      </c>
+      <c r="B34" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="E34" s="2"/>
+    </row>
+    <row r="35" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A35" t="s">
+        <v>124</v>
+      </c>
+      <c r="B35" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="E35" s="2"/>
+    </row>
+    <row r="36" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A36" t="s">
+        <v>198</v>
+      </c>
+      <c r="B36" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="E36" s="2"/>
+    </row>
+    <row r="37" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A37" t="s">
+        <v>199</v>
+      </c>
+      <c r="B37" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="E37" s="2"/>
     </row>
   </sheetData>
   <hyperlinks>
@@ -2069,11 +2338,15 @@
     <hyperlink ref="E18" r:id="rId14" xr:uid="{63DBCB39-195A-4EFF-84AE-C88448A6B3E6}"/>
     <hyperlink ref="E17" r:id="rId15" xr:uid="{B0E4E699-B202-439B-BB91-02418FE131FA}"/>
     <hyperlink ref="E19" r:id="rId16" xr:uid="{AD78662D-756E-4A9C-A2AA-A11F6410E509}"/>
+    <hyperlink ref="E20" r:id="rId17" xr:uid="{2DF74095-53B1-46B7-9CE3-F7D7F9EF12AB}"/>
+    <hyperlink ref="E21" r:id="rId18" xr:uid="{494B86B8-E151-4204-968B-D81F9DEEC0C7}"/>
+    <hyperlink ref="E23" r:id="rId19" xr:uid="{1ACEA183-A3C1-438A-818C-DAE1D03FD2A1}"/>
+    <hyperlink ref="E22" r:id="rId20" xr:uid="{BDFFCC2F-5C5A-4ABA-98C5-7D66B8CF6CB5}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId17"/>
+  <pageSetup orientation="portrait" r:id="rId21"/>
   <tableParts count="1">
-    <tablePart r:id="rId18"/>
+    <tablePart r:id="rId22"/>
   </tableParts>
 </worksheet>
 </file>
--- a/java/Mixed_Review.xlsx
+++ b/java/Mixed_Review.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\JP\Desktop\Home_folder\workspace\library\java\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8CCD4420-5FD6-4D5D-961D-AED9FBEBFACD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6C9FDF5F-DBB2-4533-8766-A71DB3E2F6E1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="336" uniqueCount="206">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="349" uniqueCount="215">
   <si>
     <t>Question</t>
   </si>
@@ -655,6 +655,33 @@
   </si>
   <si>
     <t>Classic merge intervals. Use sort intervals using lambda expression. Just compare the sorted intervals and merge. Sorting is O(nlogn) time and merge intervals takes O(n).</t>
+  </si>
+  <si>
+    <t>207. Course Schedule</t>
+  </si>
+  <si>
+    <t>https://leetcode.com/problems/intersection-of-two-linked-lists/solutions/49785/java-solution-without-knowing-the-difference-in-len/?envType=company&amp;envId=tiktok&amp;favoriteSlug=tiktok-thirty-days</t>
+  </si>
+  <si>
+    <t>Know the Brute force known length solution and the swapping nodes solution.</t>
+  </si>
+  <si>
+    <t>https://leetcode.com/problems/number-of-islands/solutions/56359/very-concise-java-ac-solution/?envType=company&amp;envId=tiktok&amp;favoriteSlug=tiktok-thirty-days</t>
+  </si>
+  <si>
+    <t>Use DFS marking solution (Flood fill).</t>
+  </si>
+  <si>
+    <t>https://leetcode.com/problems/number-of-distinct-islands/solutions/150037/dfs-with-explanations/?envType=company&amp;envId=tiktok&amp;favoriteSlug=tiktok-thirty-days</t>
+  </si>
+  <si>
+    <t>Use DFS Flood Fill like num islands, but use a Hash Set to track unique shapes using StringBuilder. Then return size of the hashset at the end.</t>
+  </si>
+  <si>
+    <t>https://leetcode.com/problems/combinations/solutions/27002/backtracking-solution-java/?envType=company&amp;envId=tiktok&amp;favoriteSlug=tiktok-thirty-days</t>
+  </si>
+  <si>
+    <t>Classic backtracking.</t>
   </si>
 </sst>
 </file>
@@ -792,8 +819,8 @@
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{B0889DD6-65BF-4CF4-A25E-553A3E1C807F}" name="Table22" displayName="Table22" ref="A1:E37" totalsRowShown="0" headerRowDxfId="1">
-  <autoFilter ref="A1:E37" xr:uid="{8A5E5259-EAE7-4B70-A567-E3F2ADB589C1}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{B0889DD6-65BF-4CF4-A25E-553A3E1C807F}" name="Table22" displayName="Table22" ref="A1:E38" totalsRowShown="0" headerRowDxfId="1">
+  <autoFilter ref="A1:E38" xr:uid="{8A5E5259-EAE7-4B70-A567-E3F2ADB589C1}"/>
   <tableColumns count="5">
     <tableColumn id="1" xr3:uid="{48BE1778-7CDA-4ED7-830C-FBF7CEC5F641}" name="Question"/>
     <tableColumn id="2" xr3:uid="{BB2891EA-9253-4017-A45F-1AE59DC7D5B3}" name="Difficulty" dataDxfId="0"/>
@@ -1779,10 +1806,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4C3D48E0-4D21-4751-ABF7-460D56FF37CF}">
-  <dimension ref="A1:E37"/>
+  <dimension ref="A1:E38"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="D23" sqref="D23"/>
+    <sheetView tabSelected="1" topLeftCell="B10" workbookViewId="0">
+      <selection activeCell="D35" sqref="D35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2207,7 +2234,12 @@
       <c r="C25" t="s">
         <v>111</v>
       </c>
-      <c r="E25" s="2"/>
+      <c r="D25" t="s">
+        <v>210</v>
+      </c>
+      <c r="E25" s="2" t="s">
+        <v>209</v>
+      </c>
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
@@ -2219,7 +2251,12 @@
       <c r="C26" t="s">
         <v>111</v>
       </c>
-      <c r="E26" s="2"/>
+      <c r="D26" t="s">
+        <v>212</v>
+      </c>
+      <c r="E26" s="2" t="s">
+        <v>211</v>
+      </c>
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
@@ -2291,7 +2328,15 @@
       <c r="B34" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="E34" s="2"/>
+      <c r="C34" t="s">
+        <v>37</v>
+      </c>
+      <c r="D34" t="s">
+        <v>214</v>
+      </c>
+      <c r="E34" s="2" t="s">
+        <v>213</v>
+      </c>
     </row>
     <row r="35" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
@@ -2300,7 +2345,15 @@
       <c r="B35" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="E35" s="2"/>
+      <c r="C35" t="s">
+        <v>104</v>
+      </c>
+      <c r="D35" t="s">
+        <v>208</v>
+      </c>
+      <c r="E35" s="2" t="s">
+        <v>207</v>
+      </c>
     </row>
     <row r="36" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
@@ -2319,6 +2372,18 @@
         <v>11</v>
       </c>
       <c r="E37" s="2"/>
+    </row>
+    <row r="38" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A38" t="s">
+        <v>206</v>
+      </c>
+      <c r="B38" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="C38" t="s">
+        <v>63</v>
+      </c>
+      <c r="E38" s="2"/>
     </row>
   </sheetData>
   <hyperlinks>

--- a/java/Mixed_Review.xlsx
+++ b/java/Mixed_Review.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\JP\Desktop\Home_folder\workspace\library\java\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6C9FDF5F-DBB2-4533-8766-A71DB3E2F6E1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FEF5A120-C145-4BF8-8A7C-05AFF62C27EF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="349" uniqueCount="215">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="353" uniqueCount="217">
   <si>
     <t>Question</t>
   </si>
@@ -682,6 +682,12 @@
   </si>
   <si>
     <t>Classic backtracking.</t>
+  </si>
+  <si>
+    <t>https://leetcode.com/problems/asteroid-collision/solutions/109694/java-c-clean-code/comments/379124</t>
+  </si>
+  <si>
+    <t>https://leetcode.com/problems/remove-duplicate-letters/solutions/1859410/java-c-detailed-visually-explained/?envType=company&amp;envId=bytedance&amp;favoriteSlug=bytedance-thirty-days</t>
   </si>
 </sst>
 </file>
@@ -1808,8 +1814,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4C3D48E0-4D21-4751-ABF7-460D56FF37CF}">
   <dimension ref="A1:E38"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B10" workbookViewId="0">
-      <selection activeCell="D35" sqref="D35"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="D27" sqref="D27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2222,7 +2228,9 @@
       <c r="C24" t="s">
         <v>53</v>
       </c>
-      <c r="E24" s="2"/>
+      <c r="E24" s="2" t="s">
+        <v>215</v>
+      </c>
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
@@ -2283,7 +2291,12 @@
       <c r="B29" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="E29" s="2"/>
+      <c r="C29" t="s">
+        <v>53</v>
+      </c>
+      <c r="E29" s="2" t="s">
+        <v>216</v>
+      </c>
     </row>
     <row r="30" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
@@ -2291,6 +2304,9 @@
       </c>
       <c r="B30" s="4" t="s">
         <v>11</v>
+      </c>
+      <c r="C30" t="s">
+        <v>53</v>
       </c>
       <c r="E30" s="2"/>
     </row>
@@ -2407,11 +2423,13 @@
     <hyperlink ref="E21" r:id="rId18" xr:uid="{494B86B8-E151-4204-968B-D81F9DEEC0C7}"/>
     <hyperlink ref="E23" r:id="rId19" xr:uid="{1ACEA183-A3C1-438A-818C-DAE1D03FD2A1}"/>
     <hyperlink ref="E22" r:id="rId20" xr:uid="{BDFFCC2F-5C5A-4ABA-98C5-7D66B8CF6CB5}"/>
+    <hyperlink ref="E24" r:id="rId21" xr:uid="{FF99AC95-7051-4C82-B9E9-5F46A8DA22B3}"/>
+    <hyperlink ref="E29" r:id="rId22" xr:uid="{E485FCF0-3E47-4BC7-A588-8E9961F48ADD}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId21"/>
+  <pageSetup orientation="portrait" r:id="rId23"/>
   <tableParts count="1">
-    <tablePart r:id="rId22"/>
+    <tablePart r:id="rId24"/>
   </tableParts>
 </worksheet>
 </file>
--- a/java/Mixed_Review.xlsx
+++ b/java/Mixed_Review.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\JP\Desktop\Home_folder\workspace\library\java\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FEF5A120-C145-4BF8-8A7C-05AFF62C27EF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{613D5F20-3B87-4CA7-8085-3AD16B3546BC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="353" uniqueCount="217">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="357" uniqueCount="220">
   <si>
     <t>Question</t>
   </si>
@@ -588,9 +588,6 @@
     <t xml:space="preserve">https://leetcode.com/problems/subarray-with-elements-greater-than-varying-threshold/solutions/2260048/java-solution-using-monotonic-stack-with-explanation/?envType=company&amp;envId=tiktok&amp;favoriteSlug=tiktok-thirty-days </t>
   </si>
   <si>
-    <t>Monotonic Stack for min element of each subarray and length of subarray. Brute force way is to create all subarrays.</t>
-  </si>
-  <si>
     <t>1647. Minimum Deletions to Make Character Frequencies Unique</t>
   </si>
   <si>
@@ -688,6 +685,18 @@
   </si>
   <si>
     <t>https://leetcode.com/problems/remove-duplicate-letters/solutions/1859410/java-c-detailed-visually-explained/?envType=company&amp;envId=bytedance&amp;favoriteSlug=bytedance-thirty-days</t>
+  </si>
+  <si>
+    <t>Monotonic Stack for min element of each subarray and length of subarray. Brute force way is to create all subarrays. Alternatively, Recursion is a good solution.</t>
+  </si>
+  <si>
+    <t>https://leetcode.com/problems/lru-cache/solutions/45911/java-hashtable-double-linked-list-with-a-touch-of-pseudo-nodes/?envType=company&amp;envId=bytedance&amp;favoriteSlug=bytedance-thirty-days</t>
+  </si>
+  <si>
+    <t>Need to use Hash table and a Doubly Linked List. OOP and DS implementation.</t>
+  </si>
+  <si>
+    <t>Use char freq map + a stack.</t>
   </si>
 </sst>
 </file>
@@ -1814,8 +1823,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4C3D48E0-4D21-4751-ABF7-460D56FF37CF}">
   <dimension ref="A1:E38"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="D27" sqref="D27"/>
+    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="D45" sqref="D45"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2144,7 +2153,7 @@
         <v>53</v>
       </c>
       <c r="D19" t="s">
-        <v>183</v>
+        <v>216</v>
       </c>
       <c r="E19" s="2" t="s">
         <v>182</v>
@@ -2152,7 +2161,7 @@
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="B20" s="4" t="s">
         <v>11</v>
@@ -2161,15 +2170,15 @@
         <v>137</v>
       </c>
       <c r="D20" t="s">
+        <v>188</v>
+      </c>
+      <c r="E20" s="2" t="s">
         <v>189</v>
-      </c>
-      <c r="E20" s="2" t="s">
-        <v>190</v>
       </c>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="B21" s="3" t="s">
         <v>5</v>
@@ -2178,10 +2187,10 @@
         <v>100</v>
       </c>
       <c r="D21" t="s">
+        <v>199</v>
+      </c>
+      <c r="E21" s="2" t="s">
         <v>200</v>
-      </c>
-      <c r="E21" s="2" t="s">
-        <v>201</v>
       </c>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.25">
@@ -2195,15 +2204,15 @@
         <v>100</v>
       </c>
       <c r="D22" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="E22" s="2" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="B23" s="4" t="s">
         <v>11</v>
@@ -2212,15 +2221,15 @@
         <v>100</v>
       </c>
       <c r="D23" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="E23" s="2" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="B24" s="4" t="s">
         <v>11</v>
@@ -2229,7 +2238,7 @@
         <v>53</v>
       </c>
       <c r="E24" s="2" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.25">
@@ -2243,15 +2252,15 @@
         <v>111</v>
       </c>
       <c r="D25" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="E25" s="2" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="B26" s="4" t="s">
         <v>11</v>
@@ -2260,15 +2269,15 @@
         <v>111</v>
       </c>
       <c r="D26" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="E26" s="2" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="B27" s="4" t="s">
         <v>11</v>
@@ -2277,16 +2286,24 @@
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="B28" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="E28" s="2"/>
+      <c r="C28" t="s">
+        <v>104</v>
+      </c>
+      <c r="D28" t="s">
+        <v>218</v>
+      </c>
+      <c r="E28" s="2" t="s">
+        <v>217</v>
+      </c>
     </row>
     <row r="29" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="B29" s="4" t="s">
         <v>11</v>
@@ -2294,13 +2311,16 @@
       <c r="C29" t="s">
         <v>53</v>
       </c>
+      <c r="D29" t="s">
+        <v>219</v>
+      </c>
       <c r="E29" s="2" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
     </row>
     <row r="30" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="B30" s="4" t="s">
         <v>11</v>
@@ -2312,7 +2332,7 @@
     </row>
     <row r="31" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="B31" s="4" t="s">
         <v>11</v>
@@ -2321,7 +2341,7 @@
     </row>
     <row r="32" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="B32" s="4" t="s">
         <v>11</v>
@@ -2330,7 +2350,7 @@
     </row>
     <row r="33" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="B33" s="3" t="s">
         <v>5</v>
@@ -2348,10 +2368,10 @@
         <v>37</v>
       </c>
       <c r="D34" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="E34" s="2" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
     </row>
     <row r="35" spans="1:5" x14ac:dyDescent="0.25">
@@ -2365,15 +2385,15 @@
         <v>104</v>
       </c>
       <c r="D35" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="E35" s="2" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
     </row>
     <row r="36" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="B36" s="4" t="s">
         <v>11</v>
@@ -2382,7 +2402,7 @@
     </row>
     <row r="37" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="B37" s="4" t="s">
         <v>11</v>
@@ -2391,7 +2411,7 @@
     </row>
     <row r="38" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="B38" s="4" t="s">
         <v>11</v>

--- a/java/Mixed_Review.xlsx
+++ b/java/Mixed_Review.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27726"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27830"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\JP\Desktop\Home_folder\workspace\library\java\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{613D5F20-3B87-4CA7-8085-3AD16B3546BC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FE7FEBFD-77DB-48FA-8BC1-F995F1E34769}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="357" uniqueCount="220">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="360" uniqueCount="222">
   <si>
     <t>Question</t>
   </si>
@@ -697,6 +697,12 @@
   </si>
   <si>
     <t>Use char freq map + a stack.</t>
+  </si>
+  <si>
+    <t>Use combinations logic, but iterate candidates array, not i to n. The crux is to use target as target - candidates[i] for the new target in recursive calls.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://leetcode.com/problems/combination-sum/solutions/16502/a-general-approach-to-backtracking-questions-in-java-subsets-permutations-combination-sum-palindrome-partitioning/ </t>
   </si>
 </sst>
 </file>
@@ -1824,7 +1830,7 @@
   <dimension ref="A1:E38"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="D45" sqref="D45"/>
+      <selection activeCell="D32" sqref="D32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2282,7 +2288,15 @@
       <c r="B27" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="E27" s="2"/>
+      <c r="C27" t="s">
+        <v>37</v>
+      </c>
+      <c r="D27" t="s">
+        <v>220</v>
+      </c>
+      <c r="E27" s="2" t="s">
+        <v>221</v>
+      </c>
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
@@ -2445,11 +2459,12 @@
     <hyperlink ref="E22" r:id="rId20" xr:uid="{BDFFCC2F-5C5A-4ABA-98C5-7D66B8CF6CB5}"/>
     <hyperlink ref="E24" r:id="rId21" xr:uid="{FF99AC95-7051-4C82-B9E9-5F46A8DA22B3}"/>
     <hyperlink ref="E29" r:id="rId22" xr:uid="{E485FCF0-3E47-4BC7-A588-8E9961F48ADD}"/>
+    <hyperlink ref="E27" r:id="rId23" xr:uid="{27D4F870-2C50-47BA-9AA7-56B35E548864}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId23"/>
+  <pageSetup orientation="portrait" r:id="rId24"/>
   <tableParts count="1">
-    <tablePart r:id="rId24"/>
+    <tablePart r:id="rId25"/>
   </tableParts>
 </worksheet>
 </file>
--- a/java/Mixed_Review.xlsx
+++ b/java/Mixed_Review.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\JP\Desktop\Home_folder\workspace\library\java\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FE7FEBFD-77DB-48FA-8BC1-F995F1E34769}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{96CDF51E-98E5-4F77-ABE7-65C8BDFA53F8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="360" uniqueCount="222">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="362" uniqueCount="224">
   <si>
     <t>Question</t>
   </si>
@@ -678,9 +678,6 @@
     <t>https://leetcode.com/problems/combinations/solutions/27002/backtracking-solution-java/?envType=company&amp;envId=tiktok&amp;favoriteSlug=tiktok-thirty-days</t>
   </si>
   <si>
-    <t>Classic backtracking.</t>
-  </si>
-  <si>
     <t>https://leetcode.com/problems/asteroid-collision/solutions/109694/java-c-clean-code/comments/379124</t>
   </si>
   <si>
@@ -703,6 +700,15 @@
   </si>
   <si>
     <t xml:space="preserve">https://leetcode.com/problems/combination-sum/solutions/16502/a-general-approach-to-backtracking-questions-in-java-subsets-permutations-combination-sum-palindrome-partitioning/ </t>
+  </si>
+  <si>
+    <t>Classic backtracking. Be able to diagram the tree visualization and analyze.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://leetcode.com/problems/smallest-subsequence-of-distinct-characters/solutions/889488/java-solution-using-stack/ </t>
+  </si>
+  <si>
+    <t>Use a stack, char freq array, and an char visited array. Prefill char freqs, then traverse the string chars and traverse the stack to check for larger chars for each char. At the end, store the result with StringBuilder.</t>
   </si>
 </sst>
 </file>
@@ -1829,8 +1835,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4C3D48E0-4D21-4751-ABF7-460D56FF37CF}">
   <dimension ref="A1:E38"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="D32" sqref="D32"/>
+    <sheetView tabSelected="1" topLeftCell="B16" workbookViewId="0">
+      <selection activeCell="E45" sqref="E45"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2159,7 +2165,7 @@
         <v>53</v>
       </c>
       <c r="D19" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="E19" s="2" t="s">
         <v>182</v>
@@ -2244,7 +2250,7 @@
         <v>53</v>
       </c>
       <c r="E24" s="2" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.25">
@@ -2292,10 +2298,10 @@
         <v>37</v>
       </c>
       <c r="D27" t="s">
+        <v>219</v>
+      </c>
+      <c r="E27" s="2" t="s">
         <v>220</v>
-      </c>
-      <c r="E27" s="2" t="s">
-        <v>221</v>
       </c>
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.25">
@@ -2309,10 +2315,10 @@
         <v>104</v>
       </c>
       <c r="D28" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="E28" s="2" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
     </row>
     <row r="29" spans="1:5" x14ac:dyDescent="0.25">
@@ -2326,10 +2332,10 @@
         <v>53</v>
       </c>
       <c r="D29" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="E29" s="2" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
     </row>
     <row r="30" spans="1:5" x14ac:dyDescent="0.25">
@@ -2342,7 +2348,12 @@
       <c r="C30" t="s">
         <v>53</v>
       </c>
-      <c r="E30" s="2"/>
+      <c r="D30" t="s">
+        <v>223</v>
+      </c>
+      <c r="E30" s="2" t="s">
+        <v>222</v>
+      </c>
     </row>
     <row r="31" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
@@ -2382,7 +2393,7 @@
         <v>37</v>
       </c>
       <c r="D34" t="s">
-        <v>213</v>
+        <v>221</v>
       </c>
       <c r="E34" s="2" t="s">
         <v>212</v>
@@ -2460,11 +2471,12 @@
     <hyperlink ref="E24" r:id="rId21" xr:uid="{FF99AC95-7051-4C82-B9E9-5F46A8DA22B3}"/>
     <hyperlink ref="E29" r:id="rId22" xr:uid="{E485FCF0-3E47-4BC7-A588-8E9961F48ADD}"/>
     <hyperlink ref="E27" r:id="rId23" xr:uid="{27D4F870-2C50-47BA-9AA7-56B35E548864}"/>
+    <hyperlink ref="E30" r:id="rId24" xr:uid="{0058F758-48A3-4BCF-A6C4-0491CF44DFB3}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId24"/>
+  <pageSetup orientation="portrait" r:id="rId25"/>
   <tableParts count="1">
-    <tablePart r:id="rId25"/>
+    <tablePart r:id="rId26"/>
   </tableParts>
 </worksheet>
 </file>
--- a/java/Mixed_Review.xlsx
+++ b/java/Mixed_Review.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\JP\Desktop\Home_folder\workspace\library\java\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{96CDF51E-98E5-4F77-ABE7-65C8BDFA53F8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{73DF40C4-D53D-4C36-BC71-235844DED09D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="362" uniqueCount="224">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="365" uniqueCount="226">
   <si>
     <t>Question</t>
   </si>
@@ -709,6 +709,12 @@
   </si>
   <si>
     <t>Use a stack, char freq array, and an char visited array. Prefill char freqs, then traverse the string chars and traverse the stack to check for larger chars for each char. At the end, store the result with StringBuilder.</t>
+  </si>
+  <si>
+    <t>Jump Game variant with conditions.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> https://leetcode.com/problems/first-day-where-you-have-been-in-all-the-rooms/solutions/1459388/understanding-the-logic/ </t>
   </si>
 </sst>
 </file>
@@ -1836,7 +1842,7 @@
   <dimension ref="A1:E38"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B16" workbookViewId="0">
-      <selection activeCell="E45" sqref="E45"/>
+      <selection activeCell="D40" sqref="D40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2362,7 +2368,15 @@
       <c r="B31" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="E31" s="2"/>
+      <c r="C31" t="s">
+        <v>12</v>
+      </c>
+      <c r="D31" t="s">
+        <v>224</v>
+      </c>
+      <c r="E31" s="2" t="s">
+        <v>225</v>
+      </c>
     </row>
     <row r="32" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A32" t="s">

--- a/java/Mixed_Review.xlsx
+++ b/java/Mixed_Review.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\JP\Desktop\Home_folder\workspace\library\java\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{73DF40C4-D53D-4C36-BC71-235844DED09D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{795A2BEC-D913-4005-9C32-E2EDB32AD5DC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="365" uniqueCount="226">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="368" uniqueCount="228">
   <si>
     <t>Question</t>
   </si>
@@ -687,12 +687,6 @@
     <t>Monotonic Stack for min element of each subarray and length of subarray. Brute force way is to create all subarrays. Alternatively, Recursion is a good solution.</t>
   </si>
   <si>
-    <t>https://leetcode.com/problems/lru-cache/solutions/45911/java-hashtable-double-linked-list-with-a-touch-of-pseudo-nodes/?envType=company&amp;envId=bytedance&amp;favoriteSlug=bytedance-thirty-days</t>
-  </si>
-  <si>
-    <t>Need to use Hash table and a Doubly Linked List. OOP and DS implementation.</t>
-  </si>
-  <si>
     <t>Use char freq map + a stack.</t>
   </si>
   <si>
@@ -715,6 +709,18 @@
   </si>
   <si>
     <t xml:space="preserve"> https://leetcode.com/problems/first-day-where-you-have-been-in-all-the-rooms/solutions/1459388/understanding-the-logic/ </t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://leetcode.com/problems/sqrtx/ </t>
+  </si>
+  <si>
+    <t>Binary search or Newton's method. The trick is to look in i &lt;= x/i to avoid integer upper limit. Look for the critical point: mid == x/mid.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://leetcode.com/problems/lru-cache/solutions/3780815/dll-map-c-java-python-beginner-friendly/ </t>
+  </si>
+  <si>
+    <t>1. extend LinkedHashMap. 2. Manual Implementation: Need to use HashMap and a Doubly Linked List. Need DLL Node, HashMap&lt;Integer, Node&gt;, and addNode() and deleteNode() functions.</t>
   </si>
 </sst>
 </file>
@@ -1841,8 +1847,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4C3D48E0-4D21-4751-ABF7-460D56FF37CF}">
   <dimension ref="A1:E38"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B16" workbookViewId="0">
-      <selection activeCell="D40" sqref="D40"/>
+    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="D45" sqref="D45"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2304,10 +2310,10 @@
         <v>37</v>
       </c>
       <c r="D27" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="E27" s="2" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.25">
@@ -2321,10 +2327,10 @@
         <v>104</v>
       </c>
       <c r="D28" t="s">
-        <v>217</v>
+        <v>227</v>
       </c>
       <c r="E28" s="2" t="s">
-        <v>216</v>
+        <v>226</v>
       </c>
     </row>
     <row r="29" spans="1:5" x14ac:dyDescent="0.25">
@@ -2338,7 +2344,7 @@
         <v>53</v>
       </c>
       <c r="D29" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="E29" s="2" t="s">
         <v>214</v>
@@ -2355,10 +2361,10 @@
         <v>53</v>
       </c>
       <c r="D30" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
       <c r="E30" s="2" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
     </row>
     <row r="31" spans="1:5" x14ac:dyDescent="0.25">
@@ -2372,10 +2378,10 @@
         <v>12</v>
       </c>
       <c r="D31" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="E31" s="2" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
     </row>
     <row r="32" spans="1:5" x14ac:dyDescent="0.25">
@@ -2394,7 +2400,15 @@
       <c r="B33" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="E33" s="2"/>
+      <c r="C33" t="s">
+        <v>115</v>
+      </c>
+      <c r="D33" t="s">
+        <v>225</v>
+      </c>
+      <c r="E33" s="2" t="s">
+        <v>224</v>
+      </c>
     </row>
     <row r="34" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
@@ -2407,7 +2421,7 @@
         <v>37</v>
       </c>
       <c r="D34" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="E34" s="2" t="s">
         <v>212</v>
@@ -2486,11 +2500,13 @@
     <hyperlink ref="E29" r:id="rId22" xr:uid="{E485FCF0-3E47-4BC7-A588-8E9961F48ADD}"/>
     <hyperlink ref="E27" r:id="rId23" xr:uid="{27D4F870-2C50-47BA-9AA7-56B35E548864}"/>
     <hyperlink ref="E30" r:id="rId24" xr:uid="{0058F758-48A3-4BCF-A6C4-0491CF44DFB3}"/>
+    <hyperlink ref="E33" r:id="rId25" xr:uid="{AEB4740E-F9BB-4AB7-9AFC-3D9A4BC1BE14}"/>
+    <hyperlink ref="E28" r:id="rId26" xr:uid="{FE51583E-9454-41F4-AFD4-3CBEFC7A97D3}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId25"/>
+  <pageSetup orientation="portrait" r:id="rId27"/>
   <tableParts count="1">
-    <tablePart r:id="rId26"/>
+    <tablePart r:id="rId28"/>
   </tableParts>
 </worksheet>
 </file>
--- a/java/Mixed_Review.xlsx
+++ b/java/Mixed_Review.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\JP\Desktop\Home_folder\workspace\library\java\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{795A2BEC-D913-4005-9C32-E2EDB32AD5DC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0ECE3F63-AD7A-482E-B8AC-37797EF5FB14}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="368" uniqueCount="228">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="370" uniqueCount="230">
   <si>
     <t>Question</t>
   </si>
@@ -721,6 +721,12 @@
   </si>
   <si>
     <t>1. extend LinkedHashMap. 2. Manual Implementation: Need to use HashMap and a Doubly Linked List. Need DLL Node, HashMap&lt;Integer, Node&gt;, and addNode() and deleteNode() functions.</t>
+  </si>
+  <si>
+    <t>Sieve of Eratosthenes or manually find primes, then binary search.</t>
+  </si>
+  <si>
+    <t>https://leetcode.com/problems/closest-prime-numbers-in-range/solutions/2977845/java-solution-with-comments-sieve-of-eratosthenes-hashtable/</t>
   </si>
 </sst>
 </file>
@@ -1847,8 +1853,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4C3D48E0-4D21-4751-ABF7-460D56FF37CF}">
   <dimension ref="A1:E38"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="D45" sqref="D45"/>
+    <sheetView tabSelected="1" topLeftCell="B16" workbookViewId="0">
+      <selection activeCell="E39" sqref="E39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2391,7 +2397,12 @@
       <c r="B32" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="E32" s="2"/>
+      <c r="D32" t="s">
+        <v>228</v>
+      </c>
+      <c r="E32" s="2" t="s">
+        <v>229</v>
+      </c>
     </row>
     <row r="33" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A33" t="s">

--- a/java/Mixed_Review.xlsx
+++ b/java/Mixed_Review.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\JP\Desktop\Home_folder\workspace\library\java\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0ECE3F63-AD7A-482E-B8AC-37797EF5FB14}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9A0E5991-1CD3-423E-98D3-57D4336C6EF2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="370" uniqueCount="230">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="375" uniqueCount="234">
   <si>
     <t>Question</t>
   </si>
@@ -727,6 +727,18 @@
   </si>
   <si>
     <t>https://leetcode.com/problems/closest-prime-numbers-in-range/solutions/2977845/java-solution-with-comments-sieve-of-eratosthenes-hashtable/</t>
+  </si>
+  <si>
+    <t>204. Count Primes</t>
+  </si>
+  <si>
+    <t>Math</t>
+  </si>
+  <si>
+    <t>https://leetcode.com/problems/count-primes/solutions/57588/my-simple-java-solution/</t>
+  </si>
+  <si>
+    <t>Sieve of Eratosthenes or manually find primes. Only need to check up to i*i&lt;n.</t>
   </si>
 </sst>
 </file>
@@ -864,8 +876,8 @@
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{B0889DD6-65BF-4CF4-A25E-553A3E1C807F}" name="Table22" displayName="Table22" ref="A1:E38" totalsRowShown="0" headerRowDxfId="1">
-  <autoFilter ref="A1:E38" xr:uid="{8A5E5259-EAE7-4B70-A567-E3F2ADB589C1}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{B0889DD6-65BF-4CF4-A25E-553A3E1C807F}" name="Table22" displayName="Table22" ref="A1:E39" totalsRowShown="0" headerRowDxfId="1">
+  <autoFilter ref="A1:E39" xr:uid="{8A5E5259-EAE7-4B70-A567-E3F2ADB589C1}"/>
   <tableColumns count="5">
     <tableColumn id="1" xr3:uid="{48BE1778-7CDA-4ED7-830C-FBF7CEC5F641}" name="Question"/>
     <tableColumn id="2" xr3:uid="{BB2891EA-9253-4017-A45F-1AE59DC7D5B3}" name="Difficulty" dataDxfId="0"/>
@@ -1851,10 +1863,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4C3D48E0-4D21-4751-ABF7-460D56FF37CF}">
-  <dimension ref="A1:E38"/>
+  <dimension ref="A1:E39"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B16" workbookViewId="0">
-      <selection activeCell="E39" sqref="E39"/>
+      <selection activeCell="D40" sqref="D40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2484,6 +2496,23 @@
         <v>63</v>
       </c>
       <c r="E38" s="2"/>
+    </row>
+    <row r="39" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A39" t="s">
+        <v>230</v>
+      </c>
+      <c r="B39" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="C39" t="s">
+        <v>231</v>
+      </c>
+      <c r="D39" t="s">
+        <v>233</v>
+      </c>
+      <c r="E39" s="2" t="s">
+        <v>232</v>
+      </c>
     </row>
   </sheetData>
   <hyperlinks>

--- a/java/Mixed_Review.xlsx
+++ b/java/Mixed_Review.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\JP\Desktop\Home_folder\workspace\library\java\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9A0E5991-1CD3-423E-98D3-57D4336C6EF2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F8A82AC5-4DF5-4F20-AB04-D7EAF05A5AAE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="375" uniqueCount="234">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="378" uniqueCount="236">
   <si>
     <t>Question</t>
   </si>
@@ -723,12 +723,6 @@
     <t>1. extend LinkedHashMap. 2. Manual Implementation: Need to use HashMap and a Doubly Linked List. Need DLL Node, HashMap&lt;Integer, Node&gt;, and addNode() and deleteNode() functions.</t>
   </si>
   <si>
-    <t>Sieve of Eratosthenes or manually find primes, then binary search.</t>
-  </si>
-  <si>
-    <t>https://leetcode.com/problems/closest-prime-numbers-in-range/solutions/2977845/java-solution-with-comments-sieve-of-eratosthenes-hashtable/</t>
-  </si>
-  <si>
     <t>204. Count Primes</t>
   </si>
   <si>
@@ -739,6 +733,18 @@
   </si>
   <si>
     <t>Sieve of Eratosthenes or manually find primes. Only need to check up to i*i&lt;n.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://leetcode.com/problems/closest-prime-numbers-in-range/solutions/2981776/Runtime:-22-ms-faster-than-100.00-oror-OOPS-concept/ </t>
+  </si>
+  <si>
+    <t>Sieve of Eratosthenes or manually find primes, then binary search. Binary Search on left then right, then finding diff is the optimal solution.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://leetcode.com/problems/course-schedule/solutions/58524/java-dfs-and-bfs-solution/comments/60036 </t>
+  </si>
+  <si>
+    <t>Topological Sort using DFS is simplest. Create dependency graph, visited list, then dfs all the nodes and children.</t>
   </si>
 </sst>
 </file>
@@ -1866,7 +1872,7 @@
   <dimension ref="A1:E39"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B16" workbookViewId="0">
-      <selection activeCell="D40" sqref="D40"/>
+      <selection activeCell="E44" sqref="E44"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2409,11 +2415,14 @@
       <c r="B32" s="4" t="s">
         <v>11</v>
       </c>
+      <c r="C32" t="s">
+        <v>115</v>
+      </c>
       <c r="D32" t="s">
-        <v>228</v>
+        <v>233</v>
       </c>
       <c r="E32" s="2" t="s">
-        <v>229</v>
+        <v>232</v>
       </c>
     </row>
     <row r="33" spans="1:5" x14ac:dyDescent="0.25">
@@ -2495,23 +2504,28 @@
       <c r="C38" t="s">
         <v>63</v>
       </c>
-      <c r="E38" s="2"/>
+      <c r="D38" t="s">
+        <v>235</v>
+      </c>
+      <c r="E38" s="2" t="s">
+        <v>234</v>
+      </c>
     </row>
     <row r="39" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
+        <v>228</v>
+      </c>
+      <c r="B39" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="C39" t="s">
+        <v>229</v>
+      </c>
+      <c r="D39" t="s">
+        <v>231</v>
+      </c>
+      <c r="E39" s="2" t="s">
         <v>230</v>
-      </c>
-      <c r="B39" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="C39" t="s">
-        <v>231</v>
-      </c>
-      <c r="D39" t="s">
-        <v>233</v>
-      </c>
-      <c r="E39" s="2" t="s">
-        <v>232</v>
       </c>
     </row>
   </sheetData>
@@ -2542,11 +2556,13 @@
     <hyperlink ref="E30" r:id="rId24" xr:uid="{0058F758-48A3-4BCF-A6C4-0491CF44DFB3}"/>
     <hyperlink ref="E33" r:id="rId25" xr:uid="{AEB4740E-F9BB-4AB7-9AFC-3D9A4BC1BE14}"/>
     <hyperlink ref="E28" r:id="rId26" xr:uid="{FE51583E-9454-41F4-AFD4-3CBEFC7A97D3}"/>
+    <hyperlink ref="E32" r:id="rId27" xr:uid="{5844009C-510B-4C16-9410-88BD3411D180}"/>
+    <hyperlink ref="E38" r:id="rId28" xr:uid="{603C1577-3D91-4501-A773-A38CA37745BC}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId27"/>
+  <pageSetup orientation="portrait" r:id="rId29"/>
   <tableParts count="1">
-    <tablePart r:id="rId28"/>
+    <tablePart r:id="rId30"/>
   </tableParts>
 </worksheet>
 </file>
--- a/java/Mixed_Review.xlsx
+++ b/java/Mixed_Review.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27830"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27928"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\JP\Desktop\Home_folder\workspace\library\java\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F8A82AC5-4DF5-4F20-AB04-D7EAF05A5AAE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1F0EDCB6-4A04-4D19-BD5E-7AE1D005B1C4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="378" uniqueCount="236">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="381" uniqueCount="238">
   <si>
     <t>Question</t>
   </si>
@@ -745,6 +745,12 @@
   </si>
   <si>
     <t>Topological Sort using DFS is simplest. Create dependency graph, visited list, then dfs all the nodes and children.</t>
+  </si>
+  <si>
+    <t>https://leetcode.com/problems/walls-and-gates/solutions/72746/my-short-java-solution-very-easy-to-understand/</t>
+  </si>
+  <si>
+    <t>Optimal is BFS due to time complexity, but DFS is simpler. Same as Number of Islands for grid traversal. The condition rooms[ i ][ j ]&lt;d is the crux to distinguish cells.</t>
   </si>
 </sst>
 </file>
@@ -1871,8 +1877,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4C3D48E0-4D21-4751-ABF7-460D56FF37CF}">
   <dimension ref="A1:E39"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B16" workbookViewId="0">
-      <selection activeCell="E44" sqref="E44"/>
+    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="D46" sqref="D46"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2492,7 +2498,15 @@
       <c r="B37" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="E37" s="2"/>
+      <c r="C37" t="s">
+        <v>111</v>
+      </c>
+      <c r="D37" t="s">
+        <v>237</v>
+      </c>
+      <c r="E37" s="2" t="s">
+        <v>236</v>
+      </c>
     </row>
     <row r="38" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A38" t="s">

--- a/java/Mixed_Review.xlsx
+++ b/java/Mixed_Review.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27928"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28025"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\JP\Desktop\Home_folder\workspace\library\java\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1F0EDCB6-4A04-4D19-BD5E-7AE1D005B1C4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F0D9C27C-C115-4F21-8084-1ABB6D254FB7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="381" uniqueCount="238">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="387" uniqueCount="243">
   <si>
     <t>Question</t>
   </si>
@@ -678,9 +678,6 @@
     <t>https://leetcode.com/problems/combinations/solutions/27002/backtracking-solution-java/?envType=company&amp;envId=tiktok&amp;favoriteSlug=tiktok-thirty-days</t>
   </si>
   <si>
-    <t>https://leetcode.com/problems/asteroid-collision/solutions/109694/java-c-clean-code/comments/379124</t>
-  </si>
-  <si>
     <t>https://leetcode.com/problems/remove-duplicate-letters/solutions/1859410/java-c-detailed-visually-explained/?envType=company&amp;envId=bytedance&amp;favoriteSlug=bytedance-thirty-days</t>
   </si>
   <si>
@@ -751,6 +748,24 @@
   </si>
   <si>
     <t>Optimal is BFS due to time complexity, but DFS is simpler. Same as Number of Islands for grid traversal. The condition rooms[ i ][ j ]&lt;d is the crux to distinguish cells.</t>
+  </si>
+  <si>
+    <t>1378. Replace Employee ID With The Unique Identifier</t>
+  </si>
+  <si>
+    <t>Basic Joins</t>
+  </si>
+  <si>
+    <t>https://leetcode.com/problems/replace-employee-id-with-the-unique-identifier/solutions/3549131/sql-left-join-easy-solution/?envType=study-plan-v2&amp;envId=top-sql-50</t>
+  </si>
+  <si>
+    <t>Left join, just select columns from a and b.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://leetcode.com/problems/asteroid-collision/solutions/193403/java-easy-to-understand-solution/ </t>
+  </si>
+  <si>
+    <t>Use a stack. Push positives, and deal with negative current asteroid cases. At the end fill the res arr from the stack.</t>
   </si>
 </sst>
 </file>
@@ -888,8 +903,8 @@
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{B0889DD6-65BF-4CF4-A25E-553A3E1C807F}" name="Table22" displayName="Table22" ref="A1:E39" totalsRowShown="0" headerRowDxfId="1">
-  <autoFilter ref="A1:E39" xr:uid="{8A5E5259-EAE7-4B70-A567-E3F2ADB589C1}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{B0889DD6-65BF-4CF4-A25E-553A3E1C807F}" name="Table22" displayName="Table22" ref="A1:E40" totalsRowShown="0" headerRowDxfId="1">
+  <autoFilter ref="A1:E40" xr:uid="{8A5E5259-EAE7-4B70-A567-E3F2ADB589C1}"/>
   <tableColumns count="5">
     <tableColumn id="1" xr3:uid="{48BE1778-7CDA-4ED7-830C-FBF7CEC5F641}" name="Question"/>
     <tableColumn id="2" xr3:uid="{BB2891EA-9253-4017-A45F-1AE59DC7D5B3}" name="Difficulty" dataDxfId="0"/>
@@ -1875,10 +1890,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4C3D48E0-4D21-4751-ABF7-460D56FF37CF}">
-  <dimension ref="A1:E39"/>
+  <dimension ref="A1:E40"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="D46" sqref="D46"/>
+    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
+      <selection activeCell="D25" sqref="D25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2207,7 +2222,7 @@
         <v>53</v>
       </c>
       <c r="D19" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="E19" s="2" t="s">
         <v>182</v>
@@ -2291,8 +2306,11 @@
       <c r="C24" t="s">
         <v>53</v>
       </c>
+      <c r="D24" t="s">
+        <v>242</v>
+      </c>
       <c r="E24" s="2" t="s">
-        <v>213</v>
+        <v>241</v>
       </c>
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.25">
@@ -2340,10 +2358,10 @@
         <v>37</v>
       </c>
       <c r="D27" t="s">
+        <v>216</v>
+      </c>
+      <c r="E27" s="2" t="s">
         <v>217</v>
-      </c>
-      <c r="E27" s="2" t="s">
-        <v>218</v>
       </c>
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.25">
@@ -2357,10 +2375,10 @@
         <v>104</v>
       </c>
       <c r="D28" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="E28" s="2" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
     </row>
     <row r="29" spans="1:5" x14ac:dyDescent="0.25">
@@ -2374,10 +2392,10 @@
         <v>53</v>
       </c>
       <c r="D29" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="E29" s="2" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
     </row>
     <row r="30" spans="1:5" x14ac:dyDescent="0.25">
@@ -2391,10 +2409,10 @@
         <v>53</v>
       </c>
       <c r="D30" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="E30" s="2" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
     </row>
     <row r="31" spans="1:5" x14ac:dyDescent="0.25">
@@ -2408,10 +2426,10 @@
         <v>12</v>
       </c>
       <c r="D31" t="s">
+        <v>221</v>
+      </c>
+      <c r="E31" s="2" t="s">
         <v>222</v>
-      </c>
-      <c r="E31" s="2" t="s">
-        <v>223</v>
       </c>
     </row>
     <row r="32" spans="1:5" x14ac:dyDescent="0.25">
@@ -2425,10 +2443,10 @@
         <v>115</v>
       </c>
       <c r="D32" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="E32" s="2" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
     </row>
     <row r="33" spans="1:5" x14ac:dyDescent="0.25">
@@ -2442,10 +2460,10 @@
         <v>115</v>
       </c>
       <c r="D33" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="E33" s="2" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
     </row>
     <row r="34" spans="1:5" x14ac:dyDescent="0.25">
@@ -2459,7 +2477,7 @@
         <v>37</v>
       </c>
       <c r="D34" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="E34" s="2" t="s">
         <v>212</v>
@@ -2502,10 +2520,10 @@
         <v>111</v>
       </c>
       <c r="D37" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="E37" s="2" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
     </row>
     <row r="38" spans="1:5" x14ac:dyDescent="0.25">
@@ -2519,27 +2537,44 @@
         <v>63</v>
       </c>
       <c r="D38" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="E38" s="2" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
     </row>
     <row r="39" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
+        <v>227</v>
+      </c>
+      <c r="B39" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="C39" t="s">
         <v>228</v>
       </c>
-      <c r="B39" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="C39" t="s">
+      <c r="D39" t="s">
+        <v>230</v>
+      </c>
+      <c r="E39" s="2" t="s">
         <v>229</v>
       </c>
-      <c r="D39" t="s">
-        <v>231</v>
-      </c>
-      <c r="E39" s="2" t="s">
-        <v>230</v>
+    </row>
+    <row r="40" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A40" t="s">
+        <v>237</v>
+      </c>
+      <c r="B40" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="C40" t="s">
+        <v>238</v>
+      </c>
+      <c r="D40" t="s">
+        <v>240</v>
+      </c>
+      <c r="E40" s="2" t="s">
+        <v>239</v>
       </c>
     </row>
   </sheetData>

--- a/java/Mixed_Review.xlsx
+++ b/java/Mixed_Review.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\JP\Desktop\Home_folder\workspace\library\java\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F0D9C27C-C115-4F21-8084-1ABB6D254FB7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AB3BEFF6-0A94-45FC-90E8-4C24AD1B2593}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="387" uniqueCount="243">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="390" uniqueCount="244">
   <si>
     <t>Question</t>
   </si>
@@ -766,6 +766,9 @@
   </si>
   <si>
     <t>Use a stack. Push positives, and deal with negative current asteroid cases. At the end fill the res arr from the stack.</t>
+  </si>
+  <si>
+    <t>503. Next Greater Element 2</t>
   </si>
 </sst>
 </file>
@@ -903,8 +906,8 @@
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{B0889DD6-65BF-4CF4-A25E-553A3E1C807F}" name="Table22" displayName="Table22" ref="A1:E40" totalsRowShown="0" headerRowDxfId="1">
-  <autoFilter ref="A1:E40" xr:uid="{8A5E5259-EAE7-4B70-A567-E3F2ADB589C1}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{B0889DD6-65BF-4CF4-A25E-553A3E1C807F}" name="Table22" displayName="Table22" ref="A1:E41" totalsRowShown="0" headerRowDxfId="1">
+  <autoFilter ref="A1:E41" xr:uid="{8A5E5259-EAE7-4B70-A567-E3F2ADB589C1}"/>
   <tableColumns count="5">
     <tableColumn id="1" xr3:uid="{48BE1778-7CDA-4ED7-830C-FBF7CEC5F641}" name="Question"/>
     <tableColumn id="2" xr3:uid="{BB2891EA-9253-4017-A45F-1AE59DC7D5B3}" name="Difficulty" dataDxfId="0"/>
@@ -1890,10 +1893,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4C3D48E0-4D21-4751-ABF7-460D56FF37CF}">
-  <dimension ref="A1:E40"/>
+  <dimension ref="A1:E41"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
-      <selection activeCell="D25" sqref="D25"/>
+    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="D47" sqref="D47"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2576,6 +2579,18 @@
       <c r="E40" s="2" t="s">
         <v>239</v>
       </c>
+    </row>
+    <row r="41" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A41" t="s">
+        <v>243</v>
+      </c>
+      <c r="B41" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="C41" t="s">
+        <v>53</v>
+      </c>
+      <c r="E41" s="2"/>
     </row>
   </sheetData>
   <hyperlinks>

--- a/java/Mixed_Review.xlsx
+++ b/java/Mixed_Review.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\JP\Desktop\Home_folder\workspace\library\java\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AB3BEFF6-0A94-45FC-90E8-4C24AD1B2593}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E13DBC7C-118E-4292-993A-56213B9DE5DA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="390" uniqueCount="244">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="396" uniqueCount="248">
   <si>
     <t>Question</t>
   </si>
@@ -450,9 +450,6 @@
     <t>1. Two Sum</t>
   </si>
   <si>
-    <t>Arrays and Hasing</t>
-  </si>
-  <si>
     <t>https://leetcode.com/problems/two-sum/solutions/2990807/solution-c-java-python-both-brute-force-optimized-code/</t>
   </si>
   <si>
@@ -769,6 +766,21 @@
   </si>
   <si>
     <t>503. Next Greater Element 2</t>
+  </si>
+  <si>
+    <t>767. Reorganize String</t>
+  </si>
+  <si>
+    <t>https://leetcode.com/problems/reorganize-string/solutions/232469/java-no-sort-o-n-0ms-beat-100/?envType=company&amp;envId=amazon&amp;favoriteSlug=amazon-thirty-days</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> </t>
+  </si>
+  <si>
+    <t>Arrays and Hashing</t>
+  </si>
+  <si>
+    <t>Use hash then first fill every 2 steps with the top freq letter, followed by the next, etc. Then return to index 1 and repeat. If the max freq is greater than s.length+1/2, then short circuit.</t>
   </si>
 </sst>
 </file>
@@ -906,8 +918,8 @@
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{B0889DD6-65BF-4CF4-A25E-553A3E1C807F}" name="Table22" displayName="Table22" ref="A1:E41" totalsRowShown="0" headerRowDxfId="1">
-  <autoFilter ref="A1:E41" xr:uid="{8A5E5259-EAE7-4B70-A567-E3F2ADB589C1}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{B0889DD6-65BF-4CF4-A25E-553A3E1C807F}" name="Table22" displayName="Table22" ref="A1:E42" totalsRowShown="0" headerRowDxfId="1">
+  <autoFilter ref="A1:E42" xr:uid="{8A5E5259-EAE7-4B70-A567-E3F2ADB589C1}"/>
   <tableColumns count="5">
     <tableColumn id="1" xr3:uid="{48BE1778-7CDA-4ED7-830C-FBF7CEC5F641}" name="Question"/>
     <tableColumn id="2" xr3:uid="{BB2891EA-9253-4017-A45F-1AE59DC7D5B3}" name="Difficulty" dataDxfId="0"/>
@@ -1893,10 +1905,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4C3D48E0-4D21-4751-ABF7-460D56FF37CF}">
-  <dimension ref="A1:E41"/>
+  <dimension ref="A1:E42"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="D47" sqref="D47"/>
+    <sheetView tabSelected="1" topLeftCell="A25" workbookViewId="0">
+      <selection activeCell="D51" sqref="D51"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1933,30 +1945,30 @@
         <v>5</v>
       </c>
       <c r="C2" t="s">
+        <v>246</v>
+      </c>
+      <c r="D2" t="s">
+        <v>138</v>
+      </c>
+      <c r="E2" s="2" t="s">
         <v>137</v>
-      </c>
-      <c r="D2" t="s">
-        <v>139</v>
-      </c>
-      <c r="E2" s="2" t="s">
-        <v>138</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="B3" s="3" t="s">
         <v>5</v>
       </c>
       <c r="C3" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="D3" t="s">
+        <v>141</v>
+      </c>
+      <c r="E3" s="2" t="s">
         <v>142</v>
-      </c>
-      <c r="E3" s="2" t="s">
-        <v>143</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
@@ -1970,7 +1982,7 @@
         <v>12</v>
       </c>
       <c r="D4" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="E4" s="2" t="s">
         <v>131</v>
@@ -1978,7 +1990,7 @@
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="B5" s="3" t="s">
         <v>5</v>
@@ -1987,10 +1999,10 @@
         <v>104</v>
       </c>
       <c r="D5" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
@@ -2004,15 +2016,15 @@
         <v>12</v>
       </c>
       <c r="D6" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="B7" s="3" t="s">
         <v>5</v>
@@ -2021,15 +2033,15 @@
         <v>27</v>
       </c>
       <c r="D7" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="B8" s="3" t="s">
         <v>5</v>
@@ -2038,15 +2050,15 @@
         <v>27</v>
       </c>
       <c r="D8" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="E8" s="2" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="B9" s="3" t="s">
         <v>5</v>
@@ -2055,15 +2067,15 @@
         <v>27</v>
       </c>
       <c r="D9" t="s">
+        <v>155</v>
+      </c>
+      <c r="E9" s="2" t="s">
         <v>156</v>
-      </c>
-      <c r="E9" s="2" t="s">
-        <v>157</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="B10" s="3" t="s">
         <v>5</v>
@@ -2072,15 +2084,15 @@
         <v>27</v>
       </c>
       <c r="D10" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="E10" s="2" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="B11" s="3" t="s">
         <v>5</v>
@@ -2089,15 +2101,15 @@
         <v>27</v>
       </c>
       <c r="D11" t="s">
+        <v>159</v>
+      </c>
+      <c r="E11" s="2" t="s">
         <v>160</v>
-      </c>
-      <c r="E11" s="2" t="s">
-        <v>161</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="B12" s="3" t="s">
         <v>5</v>
@@ -2106,32 +2118,32 @@
         <v>115</v>
       </c>
       <c r="D12" t="s">
+        <v>164</v>
+      </c>
+      <c r="E12" s="2" t="s">
         <v>165</v>
-      </c>
-      <c r="E12" s="2" t="s">
-        <v>166</v>
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
+        <v>166</v>
+      </c>
+      <c r="B13" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="C13" t="s">
+        <v>246</v>
+      </c>
+      <c r="D13" t="s">
+        <v>180</v>
+      </c>
+      <c r="E13" s="2" t="s">
         <v>167</v>
-      </c>
-      <c r="B13" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="C13" t="s">
-        <v>137</v>
-      </c>
-      <c r="D13" t="s">
-        <v>181</v>
-      </c>
-      <c r="E13" s="2" t="s">
-        <v>168</v>
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="B14" s="4" t="s">
         <v>11</v>
@@ -2140,10 +2152,10 @@
         <v>12</v>
       </c>
       <c r="D14" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="E14" s="2" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.25">
@@ -2157,7 +2169,7 @@
         <v>37</v>
       </c>
       <c r="D15" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="E15" s="2" t="s">
         <v>123</v>
@@ -2174,10 +2186,10 @@
         <v>53</v>
       </c>
       <c r="D16" t="s">
+        <v>172</v>
+      </c>
+      <c r="E16" s="2" t="s">
         <v>173</v>
-      </c>
-      <c r="E16" s="2" t="s">
-        <v>174</v>
       </c>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.25">
@@ -2188,13 +2200,13 @@
         <v>5</v>
       </c>
       <c r="C17" t="s">
-        <v>137</v>
+        <v>246</v>
       </c>
       <c r="D17" t="s">
+        <v>177</v>
+      </c>
+      <c r="E17" s="2" t="s">
         <v>178</v>
-      </c>
-      <c r="E17" s="2" t="s">
-        <v>179</v>
       </c>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.25">
@@ -2208,15 +2220,15 @@
         <v>104</v>
       </c>
       <c r="D18" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="E18" s="2" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="B19" s="5" t="s">
         <v>44</v>
@@ -2225,32 +2237,32 @@
         <v>53</v>
       </c>
       <c r="D19" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="E19" s="2" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="B20" s="4" t="s">
         <v>11</v>
       </c>
       <c r="C20" t="s">
-        <v>137</v>
+        <v>246</v>
       </c>
       <c r="D20" t="s">
+        <v>187</v>
+      </c>
+      <c r="E20" s="2" t="s">
         <v>188</v>
-      </c>
-      <c r="E20" s="2" t="s">
-        <v>189</v>
       </c>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="B21" s="3" t="s">
         <v>5</v>
@@ -2259,10 +2271,10 @@
         <v>100</v>
       </c>
       <c r="D21" t="s">
+        <v>198</v>
+      </c>
+      <c r="E21" s="2" t="s">
         <v>199</v>
-      </c>
-      <c r="E21" s="2" t="s">
-        <v>200</v>
       </c>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.25">
@@ -2276,15 +2288,15 @@
         <v>100</v>
       </c>
       <c r="D22" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="E22" s="2" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="B23" s="4" t="s">
         <v>11</v>
@@ -2293,15 +2305,15 @@
         <v>100</v>
       </c>
       <c r="D23" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="E23" s="2" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="B24" s="4" t="s">
         <v>11</v>
@@ -2310,10 +2322,10 @@
         <v>53</v>
       </c>
       <c r="D24" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="E24" s="2" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.25">
@@ -2327,15 +2339,15 @@
         <v>111</v>
       </c>
       <c r="D25" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="E25" s="2" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="B26" s="4" t="s">
         <v>11</v>
@@ -2344,15 +2356,15 @@
         <v>111</v>
       </c>
       <c r="D26" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="E26" s="2" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="B27" s="4" t="s">
         <v>11</v>
@@ -2361,15 +2373,15 @@
         <v>37</v>
       </c>
       <c r="D27" t="s">
+        <v>215</v>
+      </c>
+      <c r="E27" s="2" t="s">
         <v>216</v>
-      </c>
-      <c r="E27" s="2" t="s">
-        <v>217</v>
       </c>
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="B28" s="4" t="s">
         <v>11</v>
@@ -2378,15 +2390,15 @@
         <v>104</v>
       </c>
       <c r="D28" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="E28" s="2" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
     </row>
     <row r="29" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="B29" s="4" t="s">
         <v>11</v>
@@ -2395,15 +2407,15 @@
         <v>53</v>
       </c>
       <c r="D29" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="E29" s="2" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
     </row>
     <row r="30" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="B30" s="4" t="s">
         <v>11</v>
@@ -2412,15 +2424,15 @@
         <v>53</v>
       </c>
       <c r="D30" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="E30" s="2" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
     </row>
     <row r="31" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="B31" s="4" t="s">
         <v>11</v>
@@ -2429,15 +2441,15 @@
         <v>12</v>
       </c>
       <c r="D31" t="s">
+        <v>220</v>
+      </c>
+      <c r="E31" s="2" t="s">
         <v>221</v>
-      </c>
-      <c r="E31" s="2" t="s">
-        <v>222</v>
       </c>
     </row>
     <row r="32" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="B32" s="4" t="s">
         <v>11</v>
@@ -2446,15 +2458,15 @@
         <v>115</v>
       </c>
       <c r="D32" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="E32" s="2" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
     </row>
     <row r="33" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="B33" s="3" t="s">
         <v>5</v>
@@ -2463,10 +2475,10 @@
         <v>115</v>
       </c>
       <c r="D33" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="E33" s="2" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
     </row>
     <row r="34" spans="1:5" x14ac:dyDescent="0.25">
@@ -2480,10 +2492,10 @@
         <v>37</v>
       </c>
       <c r="D34" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="E34" s="2" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
     </row>
     <row r="35" spans="1:5" x14ac:dyDescent="0.25">
@@ -2497,15 +2509,15 @@
         <v>104</v>
       </c>
       <c r="D35" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="E35" s="2" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
     </row>
     <row r="36" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="B36" s="4" t="s">
         <v>11</v>
@@ -2514,7 +2526,7 @@
     </row>
     <row r="37" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="B37" s="4" t="s">
         <v>11</v>
@@ -2523,15 +2535,15 @@
         <v>111</v>
       </c>
       <c r="D37" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="E37" s="2" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
     </row>
     <row r="38" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="B38" s="4" t="s">
         <v>11</v>
@@ -2540,49 +2552,49 @@
         <v>63</v>
       </c>
       <c r="D38" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="E38" s="2" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
     </row>
     <row r="39" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
+        <v>226</v>
+      </c>
+      <c r="B39" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="C39" t="s">
         <v>227</v>
       </c>
-      <c r="B39" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="C39" t="s">
+      <c r="D39" t="s">
+        <v>229</v>
+      </c>
+      <c r="E39" s="2" t="s">
         <v>228</v>
-      </c>
-      <c r="D39" t="s">
-        <v>230</v>
-      </c>
-      <c r="E39" s="2" t="s">
-        <v>229</v>
       </c>
     </row>
     <row r="40" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="B40" s="3" t="s">
         <v>5</v>
       </c>
       <c r="C40" t="s">
+        <v>237</v>
+      </c>
+      <c r="D40" t="s">
+        <v>239</v>
+      </c>
+      <c r="E40" s="2" t="s">
         <v>238</v>
-      </c>
-      <c r="D40" t="s">
-        <v>240</v>
-      </c>
-      <c r="E40" s="2" t="s">
-        <v>239</v>
       </c>
     </row>
     <row r="41" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="B41" s="4" t="s">
         <v>11</v>
@@ -2590,7 +2602,26 @@
       <c r="C41" t="s">
         <v>53</v>
       </c>
-      <c r="E41" s="2"/>
+      <c r="E41" s="2" t="s">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="42" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A42" t="s">
+        <v>243</v>
+      </c>
+      <c r="B42" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="C42" t="s">
+        <v>246</v>
+      </c>
+      <c r="D42" t="s">
+        <v>247</v>
+      </c>
+      <c r="E42" s="2" t="s">
+        <v>244</v>
+      </c>
     </row>
   </sheetData>
   <hyperlinks>

--- a/java/Mixed_Review.xlsx
+++ b/java/Mixed_Review.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\JP\Desktop\Home_folder\workspace\library\java\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E13DBC7C-118E-4292-993A-56213B9DE5DA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D855F580-52D5-4959-802F-43C663C4BAFD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="396" uniqueCount="248">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="617" uniqueCount="254">
   <si>
     <t>Question</t>
   </si>
@@ -771,16 +771,34 @@
     <t>767. Reorganize String</t>
   </si>
   <si>
-    <t>https://leetcode.com/problems/reorganize-string/solutions/232469/java-no-sort-o-n-0ms-beat-100/?envType=company&amp;envId=amazon&amp;favoriteSlug=amazon-thirty-days</t>
-  </si>
-  <si>
     <t xml:space="preserve"> </t>
   </si>
   <si>
     <t>Arrays and Hashing</t>
   </si>
   <si>
-    <t>Use hash then first fill every 2 steps with the top freq letter, followed by the next, etc. Then return to index 1 and repeat. If the max freq is greater than s.length+1/2, then short circuit.</t>
+    <t>2851. String Transformation</t>
+  </si>
+  <si>
+    <t>670. Maximum Swap</t>
+  </si>
+  <si>
+    <t>567. Permutation in String</t>
+  </si>
+  <si>
+    <t>Use hash then first fill every 2 steps with the top freq letter, followed by the next, etc. Then return to index 1 and repeat. If the max freq is greater than s.length+1/2, then short circuit. Use PriorityQueue DS. Remember maxHeap.addAll(freqMap.keySet());</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://leetcode.com/problems/reorganize-string/solutions/3947780/100-2-approaches-priority-queue-sort/ </t>
+  </si>
+  <si>
+    <t>https://leetcode.com/problems/string-transformation/solutions/3947780/100-2-approaches-priority-queue-sort/</t>
+  </si>
+  <si>
+    <t>https://leetcode.com/problems/maximum-swap/solutions/3947780/100-2-approaches-priority-queue-sort/</t>
+  </si>
+  <si>
+    <t>https://leetcode.com/problems/permutation-string/solutions/3947780/100-2-approaches-priority-queue-sort/</t>
   </si>
 </sst>
 </file>
@@ -918,8 +936,8 @@
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{B0889DD6-65BF-4CF4-A25E-553A3E1C807F}" name="Table22" displayName="Table22" ref="A1:E42" totalsRowShown="0" headerRowDxfId="1">
-  <autoFilter ref="A1:E42" xr:uid="{8A5E5259-EAE7-4B70-A567-E3F2ADB589C1}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{B0889DD6-65BF-4CF4-A25E-553A3E1C807F}" name="Table22" displayName="Table22" ref="A1:E45" totalsRowShown="0" headerRowDxfId="1">
+  <autoFilter ref="A1:E45" xr:uid="{8A5E5259-EAE7-4B70-A567-E3F2ADB589C1}"/>
   <tableColumns count="5">
     <tableColumn id="1" xr3:uid="{48BE1778-7CDA-4ED7-830C-FBF7CEC5F641}" name="Question"/>
     <tableColumn id="2" xr3:uid="{BB2891EA-9253-4017-A45F-1AE59DC7D5B3}" name="Difficulty" dataDxfId="0"/>
@@ -1905,10 +1923,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4C3D48E0-4D21-4751-ABF7-460D56FF37CF}">
-  <dimension ref="A1:E42"/>
+  <dimension ref="A1:E45"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A25" workbookViewId="0">
-      <selection activeCell="D51" sqref="D51"/>
+    <sheetView tabSelected="1" topLeftCell="B22" workbookViewId="0">
+      <selection activeCell="E51" sqref="E51"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1945,7 +1963,7 @@
         <v>5</v>
       </c>
       <c r="C2" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="D2" t="s">
         <v>138</v>
@@ -2132,7 +2150,7 @@
         <v>11</v>
       </c>
       <c r="C13" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="D13" t="s">
         <v>180</v>
@@ -2200,7 +2218,7 @@
         <v>5</v>
       </c>
       <c r="C17" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="D17" t="s">
         <v>177</v>
@@ -2251,7 +2269,7 @@
         <v>11</v>
       </c>
       <c r="C20" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="D20" t="s">
         <v>187</v>
@@ -2603,7 +2621,7 @@
         <v>53</v>
       </c>
       <c r="E41" s="2" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
     </row>
     <row r="42" spans="1:5" x14ac:dyDescent="0.25">
@@ -2614,14 +2632,41 @@
         <v>11</v>
       </c>
       <c r="C42" t="s">
+        <v>245</v>
+      </c>
+      <c r="D42" t="s">
+        <v>249</v>
+      </c>
+      <c r="E42" s="2" t="s">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="43" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A43" t="s">
         <v>246</v>
       </c>
-      <c r="D42" t="s">
+      <c r="B43" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="E43" s="2"/>
+    </row>
+    <row r="44" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A44" t="s">
         <v>247</v>
       </c>
-      <c r="E42" s="2" t="s">
-        <v>244</v>
-      </c>
+      <c r="B44" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="E44" s="2"/>
+    </row>
+    <row r="45" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A45" t="s">
+        <v>248</v>
+      </c>
+      <c r="B45" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="E45" s="2"/>
     </row>
   </sheetData>
   <hyperlinks>
@@ -2653,11 +2698,12 @@
     <hyperlink ref="E28" r:id="rId26" xr:uid="{FE51583E-9454-41F4-AFD4-3CBEFC7A97D3}"/>
     <hyperlink ref="E32" r:id="rId27" xr:uid="{5844009C-510B-4C16-9410-88BD3411D180}"/>
     <hyperlink ref="E38" r:id="rId28" xr:uid="{603C1577-3D91-4501-A773-A38CA37745BC}"/>
+    <hyperlink ref="E42" r:id="rId29" xr:uid="{B643B345-143E-497B-BA0B-A45F3463C6F8}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId29"/>
+  <pageSetup orientation="portrait" r:id="rId30"/>
   <tableParts count="1">
-    <tablePart r:id="rId30"/>
+    <tablePart r:id="rId31"/>
   </tableParts>
 </worksheet>
 </file>
--- a/java/Mixed_Review.xlsx
+++ b/java/Mixed_Review.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\JP\Desktop\Home_folder\workspace\library\java\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D855F580-52D5-4959-802F-43C663C4BAFD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{11997F3F-2039-4876-B2E7-EB2DF76F1974}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="617" uniqueCount="254">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="407" uniqueCount="253">
   <si>
     <t>Question</t>
   </si>
@@ -792,13 +792,10 @@
     <t xml:space="preserve">https://leetcode.com/problems/reorganize-string/solutions/3947780/100-2-approaches-priority-queue-sort/ </t>
   </si>
   <si>
-    <t>https://leetcode.com/problems/string-transformation/solutions/3947780/100-2-approaches-priority-queue-sort/</t>
-  </si>
-  <si>
-    <t>https://leetcode.com/problems/maximum-swap/solutions/3947780/100-2-approaches-priority-queue-sort/</t>
-  </si>
-  <si>
-    <t>https://leetcode.com/problems/permutation-string/solutions/3947780/100-2-approaches-priority-queue-sort/</t>
+    <t>Combinations, remember adding list as new arraylist and adding to the list in the inner loop.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://leetcode.com/problems/combinations/solutions/844096/backtracking-cheatsheet-simple-solution/ </t>
   </si>
 </sst>
 </file>
@@ -936,8 +933,8 @@
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{B0889DD6-65BF-4CF4-A25E-553A3E1C807F}" name="Table22" displayName="Table22" ref="A1:E45" totalsRowShown="0" headerRowDxfId="1">
-  <autoFilter ref="A1:E45" xr:uid="{8A5E5259-EAE7-4B70-A567-E3F2ADB589C1}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{B0889DD6-65BF-4CF4-A25E-553A3E1C807F}" name="Table22" displayName="Table22" ref="A1:E46" totalsRowShown="0" headerRowDxfId="1">
+  <autoFilter ref="A1:E46" xr:uid="{8A5E5259-EAE7-4B70-A567-E3F2ADB589C1}"/>
   <tableColumns count="5">
     <tableColumn id="1" xr3:uid="{48BE1778-7CDA-4ED7-830C-FBF7CEC5F641}" name="Question"/>
     <tableColumn id="2" xr3:uid="{BB2891EA-9253-4017-A45F-1AE59DC7D5B3}" name="Difficulty" dataDxfId="0"/>
@@ -1923,10 +1920,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4C3D48E0-4D21-4751-ABF7-460D56FF37CF}">
-  <dimension ref="A1:E45"/>
+  <dimension ref="A1:E46"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B22" workbookViewId="0">
-      <selection activeCell="E51" sqref="E51"/>
+    <sheetView tabSelected="1" topLeftCell="B25" workbookViewId="0">
+      <selection activeCell="D55" sqref="D55"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2667,6 +2664,23 @@
         <v>11</v>
       </c>
       <c r="E45" s="2"/>
+    </row>
+    <row r="46" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A46" t="s">
+        <v>121</v>
+      </c>
+      <c r="B46" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="C46" t="s">
+        <v>37</v>
+      </c>
+      <c r="D46" t="s">
+        <v>251</v>
+      </c>
+      <c r="E46" s="2" t="s">
+        <v>252</v>
+      </c>
     </row>
   </sheetData>
   <hyperlinks>
@@ -2699,11 +2713,12 @@
     <hyperlink ref="E32" r:id="rId27" xr:uid="{5844009C-510B-4C16-9410-88BD3411D180}"/>
     <hyperlink ref="E38" r:id="rId28" xr:uid="{603C1577-3D91-4501-A773-A38CA37745BC}"/>
     <hyperlink ref="E42" r:id="rId29" xr:uid="{B643B345-143E-497B-BA0B-A45F3463C6F8}"/>
+    <hyperlink ref="E46" r:id="rId30" xr:uid="{AF622035-6DCA-45BB-A993-5A4018894679}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId30"/>
+  <pageSetup orientation="portrait" r:id="rId31"/>
   <tableParts count="1">
-    <tablePart r:id="rId31"/>
+    <tablePart r:id="rId32"/>
   </tableParts>
 </worksheet>
 </file>
--- a/java/Mixed_Review.xlsx
+++ b/java/Mixed_Review.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\JP\Desktop\Home_folder\workspace\library\java\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{11997F3F-2039-4876-B2E7-EB2DF76F1974}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{70DA3048-0238-4FA1-918B-2E16F1A2E63C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="407" uniqueCount="253">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="410" uniqueCount="255">
   <si>
     <t>Question</t>
   </si>
@@ -796,6 +796,12 @@
   </si>
   <si>
     <t xml:space="preserve">https://leetcode.com/problems/combinations/solutions/844096/backtracking-cheatsheet-simple-solution/ </t>
+  </si>
+  <si>
+    <t>Z algorithm or KMP.</t>
+  </si>
+  <si>
+    <t>https://leetcode.com/problems/string-transformation/solutions/4024703/c-java-python-short-code-by-finding-the-pattern/</t>
   </si>
 </sst>
 </file>
@@ -1923,7 +1929,7 @@
   <dimension ref="A1:E46"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B25" workbookViewId="0">
-      <selection activeCell="D55" sqref="D55"/>
+      <selection activeCell="E57" sqref="E57"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2645,7 +2651,15 @@
       <c r="B43" s="5" t="s">
         <v>44</v>
       </c>
-      <c r="E43" s="2"/>
+      <c r="C43" t="s">
+        <v>227</v>
+      </c>
+      <c r="D43" t="s">
+        <v>253</v>
+      </c>
+      <c r="E43" s="2" t="s">
+        <v>254</v>
+      </c>
     </row>
     <row r="44" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
@@ -2714,11 +2728,12 @@
     <hyperlink ref="E38" r:id="rId28" xr:uid="{603C1577-3D91-4501-A773-A38CA37745BC}"/>
     <hyperlink ref="E42" r:id="rId29" xr:uid="{B643B345-143E-497B-BA0B-A45F3463C6F8}"/>
     <hyperlink ref="E46" r:id="rId30" xr:uid="{AF622035-6DCA-45BB-A993-5A4018894679}"/>
+    <hyperlink ref="E43" r:id="rId31" xr:uid="{10B3AD15-07A7-4180-92A0-9DA3561409F2}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId31"/>
+  <pageSetup orientation="portrait" r:id="rId32"/>
   <tableParts count="1">
-    <tablePart r:id="rId32"/>
+    <tablePart r:id="rId33"/>
   </tableParts>
 </worksheet>
 </file>
--- a/java/Mixed_Review.xlsx
+++ b/java/Mixed_Review.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28025"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28129"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\JP\Desktop\Home_folder\workspace\library\java\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{70DA3048-0238-4FA1-918B-2E16F1A2E63C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{71A39DAF-76E2-4D28-A106-EE7FE85B4422}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="410" uniqueCount="255">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="413" uniqueCount="257">
   <si>
     <t>Question</t>
   </si>
@@ -802,6 +802,12 @@
   </si>
   <si>
     <t>https://leetcode.com/problems/string-transformation/solutions/4024703/c-java-python-short-code-by-finding-the-pattern/</t>
+  </si>
+  <si>
+    <t>The crux is that the number should be continuously decreasing. Can use a monotonic stack approach or bucket.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://leetcode.com/problems/maximum-swap/solutions/107068/java-simple-solution-o-n-time/ </t>
   </si>
 </sst>
 </file>
@@ -1928,8 +1934,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4C3D48E0-4D21-4751-ABF7-460D56FF37CF}">
   <dimension ref="A1:E46"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B25" workbookViewId="0">
-      <selection activeCell="E57" sqref="E57"/>
+    <sheetView tabSelected="1" topLeftCell="A25" workbookViewId="0">
+      <selection activeCell="C45" sqref="C45"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2668,7 +2674,15 @@
       <c r="B44" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="E44" s="2"/>
+      <c r="C44" t="s">
+        <v>53</v>
+      </c>
+      <c r="D44" t="s">
+        <v>255</v>
+      </c>
+      <c r="E44" s="2" t="s">
+        <v>256</v>
+      </c>
     </row>
     <row r="45" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
@@ -2729,11 +2743,12 @@
     <hyperlink ref="E42" r:id="rId29" xr:uid="{B643B345-143E-497B-BA0B-A45F3463C6F8}"/>
     <hyperlink ref="E46" r:id="rId30" xr:uid="{AF622035-6DCA-45BB-A993-5A4018894679}"/>
     <hyperlink ref="E43" r:id="rId31" xr:uid="{10B3AD15-07A7-4180-92A0-9DA3561409F2}"/>
+    <hyperlink ref="E44" r:id="rId32" xr:uid="{C22BEFAA-A14B-4893-937A-160B436E18FB}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId32"/>
+  <pageSetup orientation="portrait" r:id="rId33"/>
   <tableParts count="1">
-    <tablePart r:id="rId33"/>
+    <tablePart r:id="rId34"/>
   </tableParts>
 </worksheet>
 </file>
--- a/java/Mixed_Review.xlsx
+++ b/java/Mixed_Review.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\JP\Desktop\Home_folder\workspace\library\java\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{71A39DAF-76E2-4D28-A106-EE7FE85B4422}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C335B9B6-1645-422C-9DE3-74388B3BAC62}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="413" uniqueCount="257">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="416" uniqueCount="259">
   <si>
     <t>Question</t>
   </si>
@@ -808,6 +808,12 @@
   </si>
   <si>
     <t xml:space="preserve">https://leetcode.com/problems/maximum-swap/solutions/107068/java-simple-solution-o-n-time/ </t>
+  </si>
+  <si>
+    <t>Map characters to count in char arr map to abstract all permutations. Use a sliding window and have function to check for all zeroes.</t>
+  </si>
+  <si>
+    <t>https://leetcode.com/problems/permutation-in-string/solutions/102588/java-solution-sliding-window/</t>
   </si>
 </sst>
 </file>
@@ -1934,8 +1940,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4C3D48E0-4D21-4751-ABF7-460D56FF37CF}">
   <dimension ref="A1:E46"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A25" workbookViewId="0">
-      <selection activeCell="C45" sqref="C45"/>
+    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
+      <selection activeCell="D50" sqref="D50"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2691,7 +2697,15 @@
       <c r="B45" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="E45" s="2"/>
+      <c r="C45" t="s">
+        <v>18</v>
+      </c>
+      <c r="D45" t="s">
+        <v>257</v>
+      </c>
+      <c r="E45" s="2" t="s">
+        <v>258</v>
+      </c>
     </row>
     <row r="46" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
@@ -2744,11 +2758,12 @@
     <hyperlink ref="E46" r:id="rId30" xr:uid="{AF622035-6DCA-45BB-A993-5A4018894679}"/>
     <hyperlink ref="E43" r:id="rId31" xr:uid="{10B3AD15-07A7-4180-92A0-9DA3561409F2}"/>
     <hyperlink ref="E44" r:id="rId32" xr:uid="{C22BEFAA-A14B-4893-937A-160B436E18FB}"/>
+    <hyperlink ref="E45" r:id="rId33" xr:uid="{4B431960-0C35-4171-9252-6CE063C261C4}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId33"/>
+  <pageSetup orientation="portrait" r:id="rId34"/>
   <tableParts count="1">
-    <tablePart r:id="rId34"/>
+    <tablePart r:id="rId35"/>
   </tableParts>
 </worksheet>
 </file>
--- a/java/Mixed_Review.xlsx
+++ b/java/Mixed_Review.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\JP\Desktop\Home_folder\workspace\library\java\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C335B9B6-1645-422C-9DE3-74388B3BAC62}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ACCDC886-EA3A-431C-AFFC-F07C3BC3378A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="416" uniqueCount="259">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="421" uniqueCount="262">
   <si>
     <t>Question</t>
   </si>
@@ -814,6 +814,15 @@
   </si>
   <si>
     <t>https://leetcode.com/problems/permutation-in-string/solutions/102588/java-solution-sliding-window/</t>
+  </si>
+  <si>
+    <t>3155. Maximum Number of Upgradable Servers</t>
+  </si>
+  <si>
+    <t>Crux is that i maps to each instance for all the arrays. Binary Search, where high is servers. Looking for num of servers, and we get total cost by mid * upgrade cost, and total money is money + (servers - mid) * sellcost. If total money &gt;= total cost, we look for more, else look lower.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://leetcode.com/problems/maximum-number-of-upgradable-servers/solutions/5165874/java-binary-search-beats-100/?envType=company&amp;envId=snowflake&amp;favoriteSlug=snowflake-thirty-days </t>
   </si>
 </sst>
 </file>
@@ -951,8 +960,8 @@
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{B0889DD6-65BF-4CF4-A25E-553A3E1C807F}" name="Table22" displayName="Table22" ref="A1:E46" totalsRowShown="0" headerRowDxfId="1">
-  <autoFilter ref="A1:E46" xr:uid="{8A5E5259-EAE7-4B70-A567-E3F2ADB589C1}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{B0889DD6-65BF-4CF4-A25E-553A3E1C807F}" name="Table22" displayName="Table22" ref="A1:E47" totalsRowShown="0" headerRowDxfId="1">
+  <autoFilter ref="A1:E47" xr:uid="{8A5E5259-EAE7-4B70-A567-E3F2ADB589C1}"/>
   <tableColumns count="5">
     <tableColumn id="1" xr3:uid="{48BE1778-7CDA-4ED7-830C-FBF7CEC5F641}" name="Question"/>
     <tableColumn id="2" xr3:uid="{BB2891EA-9253-4017-A45F-1AE59DC7D5B3}" name="Difficulty" dataDxfId="0"/>
@@ -1938,10 +1947,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4C3D48E0-4D21-4751-ABF7-460D56FF37CF}">
-  <dimension ref="A1:E46"/>
+  <dimension ref="A1:E47"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
-      <selection activeCell="D50" sqref="D50"/>
+    <sheetView tabSelected="1" topLeftCell="B22" workbookViewId="0">
+      <selection activeCell="E52" sqref="E52"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2722,6 +2731,23 @@
       </c>
       <c r="E46" s="2" t="s">
         <v>252</v>
+      </c>
+    </row>
+    <row r="47" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A47" t="s">
+        <v>259</v>
+      </c>
+      <c r="B47" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="C47" t="s">
+        <v>115</v>
+      </c>
+      <c r="D47" t="s">
+        <v>260</v>
+      </c>
+      <c r="E47" s="2" t="s">
+        <v>261</v>
       </c>
     </row>
   </sheetData>
@@ -2759,11 +2785,12 @@
     <hyperlink ref="E43" r:id="rId31" xr:uid="{10B3AD15-07A7-4180-92A0-9DA3561409F2}"/>
     <hyperlink ref="E44" r:id="rId32" xr:uid="{C22BEFAA-A14B-4893-937A-160B436E18FB}"/>
     <hyperlink ref="E45" r:id="rId33" xr:uid="{4B431960-0C35-4171-9252-6CE063C261C4}"/>
+    <hyperlink ref="E47" r:id="rId34" xr:uid="{949EEBA3-B7A7-49C7-96CA-5FFAFD16F698}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId34"/>
+  <pageSetup orientation="portrait" r:id="rId35"/>
   <tableParts count="1">
-    <tablePart r:id="rId35"/>
+    <tablePart r:id="rId36"/>
   </tableParts>
 </worksheet>
 </file>